--- a/takeuforward-dsa/takeuforward-dsa.xlsx
+++ b/takeuforward-dsa/takeuforward-dsa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
   <si>
     <t xml:space="preserve">Problem</t>
   </si>
@@ -199,10 +199,193 @@
     <t xml:space="preserve">@ create two pointer and find all possible sum</t>
   </si>
   <si>
+    <t xml:space="preserve">@ go through entire array at once</t>
+  </si>
+  <si>
     <t xml:space="preserve">@ calculate profit between two pointers </t>
   </si>
   <si>
-    <t xml:space="preserve">@ </t>
+    <t xml:space="preserve">@ if buy is less than sell then calculate the profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ profit = sell – buy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n2) time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create a max_profit which calculates max of profits made</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if buy is more than sell change buy price as sell price( ie change pointer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotate matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create a new matrix and store the values in rotated manner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ transpose matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ transpose and reverse rotates the array by 90*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ question[i][j] = rotated[j][n-1-i]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ reverse the rows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ transpose matrix (ie swap nums[i][j], nums[j][i])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge overlapping intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ sort the intervals in ascending order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ loop through the array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ tempInterval second index = max(loop second index, tempInterval second index)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ take two for loops and loop through entire array for each one interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create a tempInterval as interval[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ else then push to new ans array and tempIndex = current interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n2) time and O(n) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if tempInterval second interval &gt; looping value first index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ push last tempIndex to ans then return ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge sorted arrays</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">@ create 3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">rd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> array with size arr1+arr2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">@ changing insertion sort algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ put arr1 and arr2 in arr3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create a while loop and put condition if arr1.current&lt; arr2.current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use sorting algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ then arr3.add(arr1.current) and arr1++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ continue till everything is sorted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find duplicate element in arr N+1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ sort the array and iterate through arr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create a slow ptr and fast ptr(ie slow travels 1 but fast travels 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if val[i] == val[i+1] then return duplicate value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if duplicate exists then there must be a loop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(nlogn+n) time complexity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ when slow and fast meets make fast as 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ again loop through values if slow=fast then the value is the duplicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missing and repeating number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ sort the array and find the i and i+1th number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ this is based on quadratic eqn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ sum of arr – sum of nos = X – Y (x missing, y repeating)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ the position of i+1 is missing and i is repeating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ sum of array and sum of square of array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ sum of sqr arr – sum of sqr nos = X^2  -  Y^2 = (x+y)(x-y)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ or create a map for 1 to size and add 1 to found numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n) time complexity and O(1)space but it uses long long which is ambiguity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ sum of nos = n(n+1)/2, sum of square = ((n+1)(2n+1))/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ map with 0 is missing and with 2 is repeating number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ xor method is there but rare case</t>
   </si>
 </sst>
 </file>
@@ -212,7 +395,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -249,8 +432,16 @@
       <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,26 +450,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE699"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFD4EA6B"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4B183"/>
-        <bgColor rgb="FFFFB66C"/>
+        <fgColor rgb="FFFF972F"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFB66C"/>
-        <bgColor rgb="FFF4B183"/>
+        <fgColor rgb="FFBF819E"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -358,152 +543,224 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -541,7 +798,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFBDD7EE"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -553,19 +810,19 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFE699"/>
+      <rgbColor rgb="FFD4EA6B"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFF4B183"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFB66C"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF972F"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFBF819E"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -584,303 +841,532 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="59.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="54.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="50.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="6.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="61.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="83.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="121.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="2" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="4" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" s="9" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" s="10" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="10" t="s">
+    <row r="5" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" s="11" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="10" t="s">
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" s="13" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="s">
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" s="14" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" s="17" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" s="19" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="18" t="s">
+    <row r="9" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" s="21" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="20" t="s">
+    <row r="10" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" s="25" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
+    <row r="11" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" s="27" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="26" t="s">
+    <row r="12" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" s="27" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="26" t="s">
+    <row r="13" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" s="29" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="28" t="s">
+    <row r="14" s="30" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" s="32" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+    <row r="15" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" s="32" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31" t="s">
+    <row r="16" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" s="32" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31" t="s">
+    <row r="17" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" s="32" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31" t="s">
+    <row r="18" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="31"/>
-    </row>
-    <row r="19" s="36" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="33" t="s">
+      <c r="E18" s="34"/>
+    </row>
+    <row r="19" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35" t="s">
+      <c r="B19" s="35"/>
+      <c r="C19" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" s="36" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35" t="s">
+    <row r="20" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" s="36" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35" t="s">
+    <row r="21" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="35"/>
-    </row>
-    <row r="22" s="36" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35" t="s">
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="35"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="40" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="2" t="s">
+      <c r="D23" s="40" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="2" t="s">
+      <c r="E23" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="38"/>
+      <c r="C24" s="42" t="s">
         <v>60</v>
       </c>
+      <c r="D24" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="38"/>
+      <c r="C25" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="38"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="44"/>
+    </row>
+    <row r="27" s="45" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7"/>
+      <c r="C28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="15"/>
+      <c r="C31" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="15"/>
+      <c r="C32" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" s="39" customFormat="true" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="38"/>
+      <c r="C34" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="42"/>
+    </row>
+    <row r="35" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="38"/>
+      <c r="C35" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="42"/>
+    </row>
+    <row r="36" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="38"/>
+      <c r="C36" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="44"/>
+    </row>
+    <row r="37" s="45" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7"/>
+      <c r="C38" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7"/>
+      <c r="C39" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="15"/>
+      <c r="C42" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="15"/>
+      <c r="C43" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="15"/>
+      <c r="C44" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="17">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
@@ -892,6 +1378,12 @@
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A41:A44"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/takeuforward-dsa/takeuforward-dsa.xlsx
+++ b/takeuforward-dsa/takeuforward-dsa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="175">
   <si>
     <t xml:space="preserve">Problem</t>
   </si>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">@ new row = top row[i]+ top row[i+1]</t>
   </si>
   <si>
-    <t xml:space="preserve">@ combination_result = comb_result+position/position-1</t>
+    <t xml:space="preserve">@ combination_result = comb_result+position/position+1</t>
   </si>
   <si>
     <t xml:space="preserve">@ given rowCposition rCp</t>
@@ -379,13 +379,202 @@
     <t xml:space="preserve">@ takes O(n) time complexity and O(1)space but it uses long long which is ambiguity</t>
   </si>
   <si>
-    <t xml:space="preserve">@ sum of nos = n(n+1)/2, sum of square = ((n+1)(2n+1))/2</t>
+    <t xml:space="preserve">@ sum of nos = n(n+1)/2, sum of square = (n(n+1)(2n+1))/6</t>
   </si>
   <si>
     <t xml:space="preserve">@ map with 0 is missing and with 2 is repeating number</t>
   </si>
   <si>
     <t xml:space="preserve">@ xor method is there but rare case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inversion of array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create 2 for loops and check for 2 nos which satisfy the condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use merge sort algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if it satisfies then add the count value by one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ we can create a count variable in return function </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n2) time complexity and O(n) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ whenever a swap occurs if right hand side has smaller value then set count as n_left – position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ in this way we can achieve count using O(n logn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search in 2d matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ loop through entire array and search for the element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use binary search in this matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ you can change the binarysearch_index  by using divide and remainder of index with columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ row = index/nColumns, col = index%nColumns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power x, n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ calculate power by multiplying same number n times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use binary multiplication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n) time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if n is even then x=x*x, and n=n/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if n is odd then ans = ans*x and n=n-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">majority element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use hashmap on array element find the count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use moore voting algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ set count++ if element equals to arr element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use count to find maximum element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ set the count = 0 and element is first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ now check whether the given number is maximum by iterating through arr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n) time and space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if count is 0 then set element as arr element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ thus the maximum element is achieved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">majority elements(more than one)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use hashmap on array element and find count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ count1 ++ if element equal to ele1 or count2++ if ele2 equals to arr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ count to find max element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create ele1 and ele2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ check whether the given nos are maximum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ count1 and count2 is zero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ thus found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grid unique paths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use recursion to find all possible solution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use recursion plus dp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ its a combination problem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n!) time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create arr and store all result in dp if same occurs then we can simply get from arr instead recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ we can simply find by m+n-2Cm-1 or m+n-2Cn-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(nxm) time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use for loop to find ncr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reverse pairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use 2 for loops to satisfy given condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use mergesort algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ when the array is splitted use the condition to calculate the count of array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(nlogn) time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">two sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use 2 for loops and find all possible sum value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create a hashmap put condition first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if (arr[target-arrval]!=end)ans.push</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ put key as arr value and value as index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ dict[arr[i]]=i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">four sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use 3 for loops find all possiblities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use 2 pointer for loops and binary search last 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n3) time and O(1)space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n3) time and O(n) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use rem sum of 2 ptr value and compare rem by binary searching values</t>
   </si>
 </sst>
 </file>
@@ -543,7 +732,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -761,6 +950,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -841,18 +1038,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D76" activeCellId="0" sqref="D76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="6.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="61.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="83.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="83.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="121.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="2" width="9"/>
   </cols>
@@ -1365,8 +1562,300 @@
       </c>
       <c r="E44" s="21"/>
     </row>
+    <row r="45" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="40"/>
+    </row>
+    <row r="46" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="38"/>
+      <c r="C46" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="42"/>
+    </row>
+    <row r="47" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="38"/>
+      <c r="C47" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="42"/>
+    </row>
+    <row r="48" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="38"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" s="44"/>
+    </row>
+    <row r="49" s="45" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="7"/>
+      <c r="C50" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="7"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E51" s="13"/>
+    </row>
+    <row r="52" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="17"/>
+    </row>
+    <row r="53" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="15"/>
+      <c r="C53" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" s="19"/>
+    </row>
+    <row r="54" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="15"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="55"/>
+    </row>
+    <row r="55" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="38"/>
+      <c r="C56" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="38"/>
+      <c r="C57" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" s="45" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="7"/>
+      <c r="C59" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="7"/>
+      <c r="C60" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="15"/>
+      <c r="C62" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="15"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="E63" s="55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="E64" s="40"/>
+    </row>
+    <row r="65" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="38"/>
+      <c r="C65" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E65" s="42"/>
+    </row>
+    <row r="66" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="38"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="E66" s="56"/>
+    </row>
+    <row r="67" s="45" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="7"/>
+      <c r="C68" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E68" s="34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="15"/>
+      <c r="C70" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E70" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="26">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
@@ -1384,6 +1873,15 @@
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/takeuforward-dsa/takeuforward-dsa.xlsx
+++ b/takeuforward-dsa/takeuforward-dsa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="190">
   <si>
     <t xml:space="preserve">Problem</t>
   </si>
@@ -575,6 +575,51 @@
   </si>
   <si>
     <t xml:space="preserve">@ use rem sum of 2 ptr value and compare rem by binary searching values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longest consecutive sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ sort the array and iterate through n to find subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create a set of the given question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if exist then find next itr exist and add up the seq length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(nlogn + n) time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ iterate through vector and find whether the current itr is first sequence by checking (itr-1)exist in set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use max fn to find the longest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n) time but unsorted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longest subarr sum equal 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use 2 for loops to find all possible subarr and find longest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ loop through the arr and find sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ now we can find longest from currind-hashindex which is max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n2)time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if the sum of curr arr is found in hashtable then from that pos to now is 0 which we need to find</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n) space O(n)time</t>
   </si>
 </sst>
 </file>
@@ -675,19 +720,19 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
@@ -732,12 +777,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -749,27 +794,127 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -777,31 +922,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -809,59 +942,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -869,66 +974,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -937,7 +994,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1038,10 +1095,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D76" activeCellId="0" sqref="D76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1063,7 +1120,7 @@
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="5" t="s">
@@ -1077,785 +1134,845 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" s="10" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" s="11" customFormat="true" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="11" t="s">
+    <row r="5" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="11" t="s">
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" s="14" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" s="15" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" s="20" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="19" t="s">
+    <row r="9" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="21" t="s">
+    <row r="10" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
+    <row r="11" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="27" t="s">
+    <row r="12" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="27" t="s">
+    <row r="13" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" s="30" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="29" t="s">
+    <row r="14" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+    <row r="15" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="11" t="s">
+    <row r="16" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="32" t="s">
+    <row r="17" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="32" t="s">
+    <row r="18" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="34"/>
-    </row>
-    <row r="19" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="E18" s="36"/>
+    </row>
+    <row r="19" s="40" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36" t="s">
+    <row r="20" s="40" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36" t="s">
+    <row r="21" s="40" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="21" t="s">
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" s="40" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="21"/>
-    </row>
-    <row r="23" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="38" t="s">
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="38"/>
-      <c r="C24" s="42" t="s">
+    <row r="24" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="41"/>
+      <c r="C24" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="45" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="38"/>
-      <c r="C25" s="42" t="s">
+    <row r="25" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="41"/>
+      <c r="C25" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="38"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44" t="s">
+    <row r="26" s="46" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="41"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="44"/>
-    </row>
-    <row r="27" s="45" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+      <c r="E26" s="47"/>
+    </row>
+    <row r="27" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7"/>
-      <c r="C28" s="11" t="s">
+    <row r="28" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8"/>
+      <c r="C28" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13" t="s">
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15" t="s">
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15"/>
-      <c r="C31" s="19" t="s">
+    <row r="31" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16"/>
+      <c r="C31" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15"/>
-      <c r="C32" s="21" t="s">
+    <row r="32" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16"/>
+      <c r="C32" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" s="39" customFormat="true" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="38" t="s">
+    <row r="33" s="42" customFormat="true" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="40"/>
-    </row>
-    <row r="34" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="38"/>
-      <c r="C34" s="42" t="s">
+      <c r="E33" s="43"/>
+    </row>
+    <row r="34" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="41"/>
+      <c r="C34" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="42"/>
-    </row>
-    <row r="35" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="38"/>
-      <c r="C35" s="42" t="s">
+      <c r="E34" s="45"/>
+    </row>
+    <row r="35" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="41"/>
+      <c r="C35" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="42"/>
-    </row>
-    <row r="36" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="38"/>
-      <c r="C36" s="44" t="s">
+      <c r="E35" s="45"/>
+    </row>
+    <row r="36" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="41"/>
+      <c r="C36" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="44"/>
-    </row>
-    <row r="37" s="45" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
+      <c r="E36" s="47"/>
+    </row>
+    <row r="37" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7"/>
-      <c r="C38" s="11" t="s">
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8"/>
+      <c r="C38" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7"/>
-      <c r="C39" s="11" t="s">
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8"/>
+      <c r="C39" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13" t="s">
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="s">
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15"/>
-      <c r="C42" s="19" t="s">
+    <row r="42" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="16"/>
+      <c r="C42" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15"/>
-      <c r="C43" s="19" t="s">
+    <row r="43" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="16"/>
+      <c r="C43" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="53" t="s">
+      <c r="D43" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15"/>
-      <c r="C44" s="21" t="s">
+    <row r="44" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="16"/>
+      <c r="C44" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="54" t="s">
+      <c r="D44" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="21"/>
-    </row>
-    <row r="45" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="38" t="s">
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="40"/>
-    </row>
-    <row r="46" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="38"/>
-      <c r="C46" s="42" t="s">
+      <c r="E45" s="43"/>
+    </row>
+    <row r="46" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="41"/>
+      <c r="C46" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="E46" s="42"/>
-    </row>
-    <row r="47" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="38"/>
-      <c r="C47" s="42" t="s">
+      <c r="E46" s="45"/>
+    </row>
+    <row r="47" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="41"/>
+      <c r="C47" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="E47" s="42"/>
-    </row>
-    <row r="48" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="38"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44" t="s">
+      <c r="E47" s="45"/>
+    </row>
+    <row r="48" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="41"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="44"/>
-    </row>
-    <row r="49" s="45" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
+      <c r="E48" s="47"/>
+    </row>
+    <row r="49" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7"/>
-      <c r="C50" s="11" t="s">
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8"/>
+      <c r="C50" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E50" s="11"/>
-    </row>
-    <row r="51" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13" t="s">
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="8"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E51" s="13"/>
-    </row>
-    <row r="52" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="s">
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="17"/>
-    </row>
-    <row r="53" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15"/>
-      <c r="C53" s="19" t="s">
+      <c r="E52" s="18"/>
+    </row>
+    <row r="53" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="16"/>
+      <c r="C53" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E53" s="19"/>
-    </row>
-    <row r="54" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55" t="s">
+      <c r="E53" s="20"/>
+    </row>
+    <row r="54" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="16"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="E54" s="55"/>
-    </row>
-    <row r="55" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="38" t="s">
+      <c r="E54" s="58"/>
+    </row>
+    <row r="55" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="40" t="s">
+      <c r="C55" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="E55" s="40" t="s">
+      <c r="E55" s="43" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="38"/>
-      <c r="C56" s="42" t="s">
+    <row r="56" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="41"/>
+      <c r="C56" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="D56" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="45" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="57" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="38"/>
-      <c r="C57" s="56" t="s">
+    <row r="57" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="41"/>
+      <c r="C57" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="56" t="s">
+      <c r="D57" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="56" t="s">
+      <c r="E57" s="59" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="58" s="45" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
+    <row r="58" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="59" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7"/>
-      <c r="C59" s="11" t="s">
+    <row r="59" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="8"/>
+      <c r="C59" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="60" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7"/>
-      <c r="C60" s="34" t="s">
+    <row r="60" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8"/>
+      <c r="C60" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="D60" s="34" t="s">
+      <c r="D60" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="E60" s="34" t="s">
+      <c r="E60" s="36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="61" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="s">
+    <row r="61" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="E61" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="62" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="15"/>
-      <c r="C62" s="19" t="s">
+    <row r="62" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="16"/>
+      <c r="C62" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="63" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="15"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55" t="s">
+    <row r="63" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="16"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="E63" s="55" t="s">
+      <c r="E63" s="58" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="64" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="38" t="s">
+    <row r="64" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="C64" s="40" t="s">
+      <c r="C64" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="40" t="s">
+      <c r="D64" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="E64" s="40"/>
-    </row>
-    <row r="65" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="38"/>
-      <c r="C65" s="42" t="s">
+      <c r="E64" s="43"/>
+    </row>
+    <row r="65" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="41"/>
+      <c r="C65" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="42" t="s">
+      <c r="D65" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="E65" s="42"/>
-    </row>
-    <row r="66" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="38"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56" t="s">
+      <c r="E65" s="45"/>
+    </row>
+    <row r="66" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="41"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="E66" s="56"/>
-    </row>
-    <row r="67" s="45" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
+      <c r="E66" s="59"/>
+    </row>
+    <row r="67" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="68" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7"/>
-      <c r="C68" s="34" t="s">
+    <row r="68" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="8"/>
+      <c r="C68" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D68" s="34" t="s">
+      <c r="D68" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="E68" s="34" t="s">
+      <c r="E68" s="36" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="69" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="15" t="s">
+    <row r="69" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="E69" s="18" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="70" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="15"/>
-      <c r="C70" s="21" t="s">
+    <row r="70" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="16"/>
+      <c r="C70" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="D70" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="E70" s="21"/>
+      <c r="E70" s="22"/>
+    </row>
+    <row r="71" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71" s="43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="41"/>
+      <c r="C72" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E72" s="45" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="73" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="41"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="E73" s="47"/>
+    </row>
+    <row r="74" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="8"/>
+      <c r="C75" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E75" s="36" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
@@ -1882,6 +1999,8 @@
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A74:A75"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/takeuforward-dsa/takeuforward-dsa.xlsx
+++ b/takeuforward-dsa/takeuforward-dsa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="196">
   <si>
     <t xml:space="preserve">Problem</t>
   </si>
@@ -620,6 +620,24 @@
   </si>
   <si>
     <t xml:space="preserve">@ takes O(n) space O(n)time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count no of subarr xor k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use 2 for loop to find all possible subarr and find xor val</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use prefix xor and store the values and count of appearance as key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ the target subarr in arr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ now if prefix xored to target gives me a value which is present in dict then it means there contains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ the count is used to get how many times it appeared</t>
   </si>
 </sst>
 </file>
@@ -1095,10 +1113,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C78" activeCellId="0" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1969,6 +1987,31 @@
       </c>
       <c r="E75" s="36" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/takeuforward-dsa/takeuforward-dsa.xlsx
+++ b/takeuforward-dsa/takeuforward-dsa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="202">
   <si>
     <t xml:space="preserve">Problem</t>
   </si>
@@ -638,6 +638,24 @@
   </si>
   <si>
     <t xml:space="preserve">@ the count is used to get how many times it appeared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longest substring without repeat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create all possible subarr and find repeating values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use 2 pointer approach add the right ptr value on bag(set)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(2*n) time and O(n) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n2) and O(n)space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if right val found on set then move left untill repeatation is not found and erase values at l ptr too</t>
   </si>
 </sst>
 </file>
@@ -693,7 +711,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -709,13 +727,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF972F"/>
-        <bgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFFFB66C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBF819E"/>
         <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB66C"/>
+        <bgColor rgb="FFFF972F"/>
       </patternFill>
     </fill>
   </fills>
@@ -795,7 +819,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1033,6 +1057,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1086,7 +1130,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1113,10 +1157,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C78" activeCellId="0" sqref="C78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E62" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E79" activeCellId="0" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1989,33 +2033,58 @@
         <v>189</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
+    <row r="76" s="61" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="62" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="3" t="s">
+    <row r="77" s="63" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="60"/>
+      <c r="C77" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="64" t="s">
         <v>195</v>
       </c>
     </row>
+    <row r="78" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="E78" s="43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="41"/>
+      <c r="C79" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="D79" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="E79" s="59"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="30">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
@@ -2044,6 +2113,8 @@
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/takeuforward-dsa/takeuforward-dsa.xlsx
+++ b/takeuforward-dsa/takeuforward-dsa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="201">
   <si>
     <t xml:space="preserve">Problem</t>
   </si>
@@ -226,7 +226,7 @@
     <t xml:space="preserve">@ create a new matrix and store the values in rotated manner </t>
   </si>
   <si>
-    <t xml:space="preserve">@ transpose matrix</t>
+    <t xml:space="preserve">@ transpose matrix (ie swap nums[i][j], nums[j][i])</t>
   </si>
   <si>
     <t xml:space="preserve">@ transpose and reverse rotates the array by 90*</t>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t xml:space="preserve">@ reverse the rows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ transpose matrix (ie swap nums[i][j], nums[j][i])</t>
   </si>
   <si>
     <t xml:space="preserve">merge overlapping intervals</t>
@@ -1159,8 +1156,8 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E62" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E79" activeCellId="0" sqref="E79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1508,120 +1505,118 @@
     <row r="29" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8"/>
       <c r="C29" s="14"/>
-      <c r="D29" s="14" t="s">
-        <v>72</v>
-      </c>
+      <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
     <row r="30" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="D30" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="E30" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="31" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16"/>
       <c r="C31" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="E31" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="32" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16"/>
       <c r="C32" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="E32" s="22" t="s">
         <v>81</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="33" s="42" customFormat="true" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="D33" s="54" t="s">
         <v>84</v>
-      </c>
-      <c r="D33" s="54" t="s">
-        <v>85</v>
       </c>
       <c r="E33" s="43"/>
     </row>
     <row r="34" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="41"/>
       <c r="C34" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="55" t="s">
         <v>86</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>87</v>
       </c>
       <c r="E34" s="45"/>
     </row>
     <row r="35" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="41"/>
       <c r="C35" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="55" t="s">
         <v>88</v>
-      </c>
-      <c r="D35" s="55" t="s">
-        <v>89</v>
       </c>
       <c r="E35" s="45"/>
     </row>
     <row r="36" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="41"/>
       <c r="C36" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="47" t="s">
         <v>90</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>91</v>
       </c>
       <c r="E36" s="47"/>
     </row>
     <row r="37" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="E37" s="10"/>
     </row>
     <row r="38" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
       <c r="C38" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="E38" s="12"/>
     </row>
     <row r="39" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8"/>
       <c r="C39" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="E39" s="12"/>
     </row>
@@ -1629,87 +1624,87 @@
       <c r="A40" s="8"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E40" s="14"/>
     </row>
     <row r="41" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="D41" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="E41" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="42" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16"/>
       <c r="C42" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="E42" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="43" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16"/>
       <c r="C43" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="56" t="s">
+      <c r="E43" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="44" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16"/>
       <c r="C44" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="57" t="s">
         <v>110</v>
-      </c>
-      <c r="D44" s="57" t="s">
-        <v>111</v>
       </c>
       <c r="E44" s="22"/>
     </row>
     <row r="45" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="D45" s="43" t="s">
         <v>113</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>114</v>
       </c>
       <c r="E45" s="43"/>
     </row>
     <row r="46" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="41"/>
       <c r="C46" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="45" t="s">
         <v>115</v>
-      </c>
-      <c r="D46" s="45" t="s">
-        <v>116</v>
       </c>
       <c r="E46" s="45"/>
     </row>
     <row r="47" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="41"/>
       <c r="C47" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="45" t="s">
         <v>117</v>
-      </c>
-      <c r="D47" s="45" t="s">
-        <v>118</v>
       </c>
       <c r="E47" s="45"/>
     </row>
@@ -1717,19 +1712,19 @@
       <c r="A48" s="41"/>
       <c r="C48" s="47"/>
       <c r="D48" s="47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E48" s="47"/>
     </row>
     <row r="49" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="D49" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="E49" s="10"/>
     </row>
@@ -1739,7 +1734,7 @@
         <v>63</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E50" s="12"/>
     </row>
@@ -1747,29 +1742,29 @@
       <c r="A51" s="8"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E51" s="14"/>
     </row>
     <row r="52" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="D52" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="E52" s="18"/>
     </row>
     <row r="53" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16"/>
       <c r="C53" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>129</v>
       </c>
       <c r="E53" s="20"/>
     </row>
@@ -1777,131 +1772,131 @@
       <c r="A54" s="16"/>
       <c r="C54" s="58"/>
       <c r="D54" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E54" s="58"/>
     </row>
     <row r="55" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="43" t="s">
+      <c r="D55" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="D55" s="43" t="s">
+      <c r="E55" s="43" t="s">
         <v>133</v>
-      </c>
-      <c r="E55" s="43" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="56" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="41"/>
       <c r="C56" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="D56" s="45" t="s">
+      <c r="E56" s="45" t="s">
         <v>136</v>
-      </c>
-      <c r="E56" s="45" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="57" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="41"/>
       <c r="C57" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="59" t="s">
+      <c r="E57" s="59" t="s">
         <v>139</v>
-      </c>
-      <c r="E57" s="59" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="58" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="D58" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="59" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8"/>
       <c r="C59" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="E59" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="60" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8"/>
       <c r="C60" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D60" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" s="36" t="s">
         <v>147</v>
-      </c>
-      <c r="E60" s="36" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="61" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="D61" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="E61" s="18" t="s">
         <v>151</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="62" s="52" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="16"/>
       <c r="C62" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="E62" s="20" t="s">
         <v>154</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="63" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="16"/>
       <c r="C63" s="58"/>
       <c r="D63" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="E63" s="58" t="s">
         <v>156</v>
-      </c>
-      <c r="E63" s="58" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="64" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="D64" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D64" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E64" s="43"/>
     </row>
@@ -1911,7 +1906,7 @@
         <v>63</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E65" s="45"/>
     </row>
@@ -1919,22 +1914,22 @@
       <c r="A66" s="41"/>
       <c r="C66" s="59"/>
       <c r="D66" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E66" s="59"/>
     </row>
     <row r="67" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="D67" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="E67" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="68" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1943,143 +1938,143 @@
         <v>63</v>
       </c>
       <c r="D68" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" s="36" t="s">
         <v>167</v>
-      </c>
-      <c r="E68" s="36" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="69" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="D69" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="E69" s="18" t="s">
         <v>171</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="70" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="16"/>
       <c r="C70" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="E70" s="22"/>
     </row>
     <row r="71" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="C71" s="43" t="s">
+      <c r="D71" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="D71" s="43" t="s">
+      <c r="E71" s="43" t="s">
         <v>177</v>
-      </c>
-      <c r="E71" s="43" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="72" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="41"/>
       <c r="C72" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="D72" s="45" t="s">
+      <c r="E72" s="45" t="s">
         <v>180</v>
-      </c>
-      <c r="E72" s="45" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="73" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="41"/>
       <c r="C73" s="47"/>
       <c r="D73" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E73" s="47"/>
     </row>
     <row r="74" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="D74" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="E74" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="75" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8"/>
       <c r="C75" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D75" s="36" t="s">
+      <c r="E75" s="36" t="s">
         <v>188</v>
-      </c>
-      <c r="E75" s="36" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="76" s="61" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="C76" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="C76" s="62" t="s">
+      <c r="D76" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D76" s="62" t="s">
+      <c r="E76" s="62" t="s">
         <v>192</v>
-      </c>
-      <c r="E76" s="62" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="77" s="63" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="60"/>
       <c r="C77" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D77" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="E77" s="64" t="s">
         <v>194</v>
-      </c>
-      <c r="E77" s="64" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="78" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C78" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="C78" s="43" t="s">
+      <c r="D78" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="D78" s="43" t="s">
+      <c r="E78" s="43" t="s">
         <v>198</v>
-      </c>
-      <c r="E78" s="43" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="79" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="41"/>
       <c r="C79" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="D79" s="59" t="s">
         <v>200</v>
-      </c>
-      <c r="D79" s="59" t="s">
-        <v>201</v>
       </c>
       <c r="E79" s="59"/>
     </row>

--- a/takeuforward-dsa/takeuforward-dsa.xlsx
+++ b/takeuforward-dsa/takeuforward-dsa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="230">
   <si>
     <t xml:space="preserve">Problem</t>
   </si>
@@ -653,6 +653,93 @@
   </si>
   <si>
     <t xml:space="preserve">@ if right val found on set then move left untill repeatation is not found and erase values at l ptr too</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reverse a linked list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ no greedy soln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ loop through untill next is null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use 3 pointers for current, previous, next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ change pointer of current to prev and change all values to next ptr cur=nxt,prev=cur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n/2) time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find middle of linked list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ find n by traversion through whole list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@use 2 pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ then n/2 it and go untill n/2 then we reach the ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@slow pointer moves once and fast ptr moves twice as slow so when fast reach n slow is at n/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge 2 sorted linked list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ no bruteforce soln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use 2 ptr and compare add smaller to result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use merge in mergesort algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete a node where head is not given but the node is given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ miss_node = node-&gt;next-&gt;value;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ convert node-&gt;next = missing node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ miss_node = node-&gt;next-&gt;next; O(1)time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add 2 nos as linked list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use 2 ptr to add </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ add result = sum%10, carry=sum/10;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ sum and carry for value greater than 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n)time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove nth node from list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use fast ptr to travel from head to n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ when fast hits null then slow is at nth node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ after use slow ptr and move simultaneously</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ delete the nth node</t>
   </si>
 </sst>
 </file>
@@ -708,7 +795,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,19 +811,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF972F"/>
-        <bgColor rgb="FFFFB66C"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBF819E"/>
         <bgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFB66C"/>
-        <bgColor rgb="FFFF972F"/>
       </patternFill>
     </fill>
   </fills>
@@ -816,7 +897,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1054,26 +1135,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1127,7 +1188,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFB66C"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1154,10 +1215,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A92" activeCellId="0" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2028,29 +2089,29 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" s="61" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="60" t="s">
+    <row r="76" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C76" s="62" t="s">
+      <c r="C76" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="D76" s="62" t="s">
+      <c r="D76" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="E76" s="62" t="s">
+      <c r="E76" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="77" s="63" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="60"/>
-      <c r="C77" s="64" t="s">
+    <row r="77" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="16"/>
+      <c r="C77" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D77" s="64" t="s">
+      <c r="D77" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="E77" s="64" t="s">
+      <c r="E77" s="22" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2078,8 +2139,140 @@
       </c>
       <c r="E79" s="59"/>
     </row>
+    <row r="80" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="10"/>
+    </row>
+    <row r="81" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="8"/>
+      <c r="C81" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D81" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="E81" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="E82" s="18"/>
+    </row>
+    <row r="83" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="16"/>
+      <c r="C83" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="E83" s="22"/>
+    </row>
+    <row r="84" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="D84" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="E84" s="43"/>
+    </row>
+    <row r="85" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="41"/>
+      <c r="C85" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="D85" s="59"/>
+      <c r="E85" s="59"/>
+    </row>
+    <row r="86" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E86" s="10"/>
+    </row>
+    <row r="87" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="8"/>
+      <c r="C87" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D87" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E87" s="36"/>
+    </row>
+    <row r="88" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E88" s="18"/>
+    </row>
+    <row r="89" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="16"/>
+      <c r="C89" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="E89" s="22"/>
+    </row>
+    <row r="90" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="C90" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="D90" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="E90" s="43"/>
+    </row>
+    <row r="91" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="41"/>
+      <c r="C91" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D91" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="E91" s="59"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="36">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
@@ -2110,6 +2303,12 @@
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/takeuforward-dsa/takeuforward-dsa.xlsx
+++ b/takeuforward-dsa/takeuforward-dsa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="201">
   <si>
     <t xml:space="preserve">Problem</t>
   </si>
@@ -653,93 +653,6 @@
   </si>
   <si>
     <t xml:space="preserve">@ if right val found on set then move left untill repeatation is not found and erase values at l ptr too</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reverse a linked list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ no greedy soln</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ loop through untill next is null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ use 3 pointers for current, previous, next</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ change pointer of current to prev and change all values to next ptr cur=nxt,prev=cur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ takes O(n/2) time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find middle of linked list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ find n by traversion through whole list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@use 2 pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ then n/2 it and go untill n/2 then we reach the ans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@slow pointer moves once and fast ptr moves twice as slow so when fast reach n slow is at n/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge 2 sorted linked list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ no bruteforce soln</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ use 2 ptr and compare add smaller to result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ use merge in mergesort algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delete a node where head is not given but the node is given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ miss_node = node-&gt;next-&gt;value;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ convert node-&gt;next = missing node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ miss_node = node-&gt;next-&gt;next; O(1)time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add 2 nos as linked list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ use 2 ptr to add </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ add result = sum%10, carry=sum/10;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ sum and carry for value greater than 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ takes O(n)time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remove nth node from list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ use fast ptr to travel from head to n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ when fast hits null then slow is at nth node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ after use slow ptr and move simultaneously</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ delete the nth node</t>
   </si>
 </sst>
 </file>
@@ -795,7 +708,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -811,13 +724,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF972F"/>
-        <bgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFFFB66C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBF819E"/>
         <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB66C"/>
+        <bgColor rgb="FFFF972F"/>
       </patternFill>
     </fill>
   </fills>
@@ -897,7 +816,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1135,6 +1054,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1188,7 +1127,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1215,10 +1154,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A92" activeCellId="0" sqref="A92"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2089,29 +2028,29 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="16" t="s">
+    <row r="76" s="61" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="E76" s="62" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="77" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="16"/>
-      <c r="C77" s="22" t="s">
+    <row r="77" s="63" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="60"/>
+      <c r="C77" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="D77" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="E77" s="22" t="s">
+      <c r="E77" s="64" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2139,140 +2078,8 @@
       </c>
       <c r="E79" s="59"/>
     </row>
-    <row r="80" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E80" s="10"/>
-    </row>
-    <row r="81" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8"/>
-      <c r="C81" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="D81" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="E81" s="36" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="82" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="E82" s="18"/>
-    </row>
-    <row r="83" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="16"/>
-      <c r="C83" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="E83" s="22"/>
-    </row>
-    <row r="84" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="C84" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="D84" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="E84" s="43"/>
-    </row>
-    <row r="85" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="41"/>
-      <c r="C85" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-    </row>
-    <row r="86" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E86" s="10"/>
-    </row>
-    <row r="87" s="50" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8"/>
-      <c r="C87" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="D87" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="E87" s="36"/>
-    </row>
-    <row r="88" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D88" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="E88" s="18"/>
-    </row>
-    <row r="89" s="53" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="16"/>
-      <c r="C89" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="E89" s="22"/>
-    </row>
-    <row r="90" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="C90" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="D90" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="E90" s="43"/>
-    </row>
-    <row r="91" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="41"/>
-      <c r="C91" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="D91" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="E91" s="59"/>
-    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="30">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
@@ -2303,12 +2110,6 @@
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/takeuforward-dsa/takeuforward-dsa.xlsx
+++ b/takeuforward-dsa/takeuforward-dsa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="309">
   <si>
     <t xml:space="preserve">Problem</t>
   </si>
@@ -1020,6 +1020,21 @@
   <si>
     <t xml:space="preserve">@ run untill end of array takes O(n)time and O(1) space</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Max consecutive ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use count to add if 1 is present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use max to find maximun count by comparing ans to count </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if 0 is present then reset count to 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n)time andO(1) space</t>
+  </si>
 </sst>
 </file>
 
@@ -1189,7 +1204,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="77">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1486,24 +1501,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1511,10 +1510,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1597,8 +1592,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A119" activeCellId="0" sqref="A119"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A106" activeCellId="0" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21193,7 +21188,7 @@
       <c r="AMI107" s="50"/>
       <c r="AMJ107" s="50"/>
     </row>
-    <row r="108" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" s="65" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="16" t="s">
         <v>272</v>
       </c>
@@ -22227,7 +22222,7 @@
       <c r="AMI108" s="51"/>
       <c r="AMJ108" s="51"/>
     </row>
-    <row r="109" s="75" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" s="54" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="16"/>
       <c r="B109" s="53"/>
       <c r="C109" s="22" t="s">
@@ -23257,7 +23252,7 @@
       <c r="AMI109" s="53"/>
       <c r="AMJ109" s="53"/>
     </row>
-    <row r="110" s="77" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" s="56" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="41" t="s">
         <v>278</v>
       </c>
@@ -23265,7 +23260,7 @@
       <c r="C110" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="D110" s="76" t="s">
+      <c r="D110" s="74" t="s">
         <v>280</v>
       </c>
       <c r="E110" s="43" t="s">
@@ -24291,7 +24286,7 @@
       <c r="AMI110" s="42"/>
       <c r="AMJ110" s="42"/>
     </row>
-    <row r="111" s="78" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="41"/>
       <c r="B111" s="46"/>
       <c r="C111" s="55" t="s">
@@ -25323,7 +25318,7 @@
       <c r="AMI111" s="46"/>
       <c r="AMJ111" s="46"/>
     </row>
-    <row r="112" s="79" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" s="73" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="8" t="s">
         <v>285</v>
       </c>
@@ -26357,7 +26352,7 @@
       <c r="AMI112" s="48"/>
       <c r="AMJ112" s="48"/>
     </row>
-    <row r="113" s="80" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="8"/>
       <c r="B113" s="50"/>
       <c r="C113" s="36" t="s">
@@ -27387,7 +27382,7 @@
       <c r="AMI113" s="50"/>
       <c r="AMJ113" s="50"/>
     </row>
-    <row r="114" s="74" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" s="65" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="16" t="s">
         <v>291</v>
       </c>
@@ -28421,7 +28416,7 @@
       <c r="AMI114" s="51"/>
       <c r="AMJ114" s="51"/>
     </row>
-    <row r="115" s="81" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="16"/>
       <c r="B115" s="52"/>
       <c r="C115" s="20" t="s">
@@ -29451,7 +29446,7 @@
       <c r="AMI115" s="52"/>
       <c r="AMJ115" s="52"/>
     </row>
-    <row r="116" s="75" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" s="54" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="16"/>
       <c r="B116" s="53"/>
       <c r="C116" s="22" t="s">
@@ -30481,7 +30476,7 @@
       <c r="AMI116" s="53"/>
       <c r="AMJ116" s="53"/>
     </row>
-    <row r="117" s="77" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" s="56" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="41" t="s">
         <v>299</v>
       </c>
@@ -31513,7 +31508,7 @@
       <c r="AMI117" s="42"/>
       <c r="AMJ117" s="42"/>
     </row>
-    <row r="118" s="78" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="41"/>
       <c r="B118" s="46"/>
       <c r="C118" s="55" t="s">
@@ -32543,10 +32538,2072 @@
       <c r="AMI118" s="46"/>
       <c r="AMJ118" s="46"/>
     </row>
+    <row r="119" s="75" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B119" s="48"/>
+      <c r="C119" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="E119" s="10"/>
+      <c r="F119" s="48"/>
+      <c r="G119" s="48"/>
+      <c r="H119" s="48"/>
+      <c r="I119" s="48"/>
+      <c r="J119" s="48"/>
+      <c r="K119" s="48"/>
+      <c r="L119" s="48"/>
+      <c r="M119" s="48"/>
+      <c r="N119" s="48"/>
+      <c r="O119" s="48"/>
+      <c r="P119" s="48"/>
+      <c r="Q119" s="48"/>
+      <c r="R119" s="48"/>
+      <c r="S119" s="48"/>
+      <c r="T119" s="48"/>
+      <c r="U119" s="48"/>
+      <c r="V119" s="48"/>
+      <c r="W119" s="48"/>
+      <c r="X119" s="48"/>
+      <c r="Y119" s="48"/>
+      <c r="Z119" s="48"/>
+      <c r="AA119" s="48"/>
+      <c r="AB119" s="48"/>
+      <c r="AC119" s="48"/>
+      <c r="AD119" s="48"/>
+      <c r="AE119" s="48"/>
+      <c r="AF119" s="48"/>
+      <c r="AG119" s="48"/>
+      <c r="AH119" s="48"/>
+      <c r="AI119" s="48"/>
+      <c r="AJ119" s="48"/>
+      <c r="AK119" s="48"/>
+      <c r="AL119" s="48"/>
+      <c r="AM119" s="48"/>
+      <c r="AN119" s="48"/>
+      <c r="AO119" s="48"/>
+      <c r="AP119" s="48"/>
+      <c r="AQ119" s="48"/>
+      <c r="AR119" s="48"/>
+      <c r="AS119" s="48"/>
+      <c r="AT119" s="48"/>
+      <c r="AU119" s="48"/>
+      <c r="AV119" s="48"/>
+      <c r="AW119" s="48"/>
+      <c r="AX119" s="48"/>
+      <c r="AY119" s="48"/>
+      <c r="AZ119" s="48"/>
+      <c r="BA119" s="48"/>
+      <c r="BB119" s="48"/>
+      <c r="BC119" s="48"/>
+      <c r="BD119" s="48"/>
+      <c r="BE119" s="48"/>
+      <c r="BF119" s="48"/>
+      <c r="BG119" s="48"/>
+      <c r="BH119" s="48"/>
+      <c r="BI119" s="48"/>
+      <c r="BJ119" s="48"/>
+      <c r="BK119" s="48"/>
+      <c r="BL119" s="48"/>
+      <c r="BM119" s="48"/>
+      <c r="BN119" s="48"/>
+      <c r="BO119" s="48"/>
+      <c r="BP119" s="48"/>
+      <c r="BQ119" s="48"/>
+      <c r="BR119" s="48"/>
+      <c r="BS119" s="48"/>
+      <c r="BT119" s="48"/>
+      <c r="BU119" s="48"/>
+      <c r="BV119" s="48"/>
+      <c r="BW119" s="48"/>
+      <c r="BX119" s="48"/>
+      <c r="BY119" s="48"/>
+      <c r="BZ119" s="48"/>
+      <c r="CA119" s="48"/>
+      <c r="CB119" s="48"/>
+      <c r="CC119" s="48"/>
+      <c r="CD119" s="48"/>
+      <c r="CE119" s="48"/>
+      <c r="CF119" s="48"/>
+      <c r="CG119" s="48"/>
+      <c r="CH119" s="48"/>
+      <c r="CI119" s="48"/>
+      <c r="CJ119" s="48"/>
+      <c r="CK119" s="48"/>
+      <c r="CL119" s="48"/>
+      <c r="CM119" s="48"/>
+      <c r="CN119" s="48"/>
+      <c r="CO119" s="48"/>
+      <c r="CP119" s="48"/>
+      <c r="CQ119" s="48"/>
+      <c r="CR119" s="48"/>
+      <c r="CS119" s="48"/>
+      <c r="CT119" s="48"/>
+      <c r="CU119" s="48"/>
+      <c r="CV119" s="48"/>
+      <c r="CW119" s="48"/>
+      <c r="CX119" s="48"/>
+      <c r="CY119" s="48"/>
+      <c r="CZ119" s="48"/>
+      <c r="DA119" s="48"/>
+      <c r="DB119" s="48"/>
+      <c r="DC119" s="48"/>
+      <c r="DD119" s="48"/>
+      <c r="DE119" s="48"/>
+      <c r="DF119" s="48"/>
+      <c r="DG119" s="48"/>
+      <c r="DH119" s="48"/>
+      <c r="DI119" s="48"/>
+      <c r="DJ119" s="48"/>
+      <c r="DK119" s="48"/>
+      <c r="DL119" s="48"/>
+      <c r="DM119" s="48"/>
+      <c r="DN119" s="48"/>
+      <c r="DO119" s="48"/>
+      <c r="DP119" s="48"/>
+      <c r="DQ119" s="48"/>
+      <c r="DR119" s="48"/>
+      <c r="DS119" s="48"/>
+      <c r="DT119" s="48"/>
+      <c r="DU119" s="48"/>
+      <c r="DV119" s="48"/>
+      <c r="DW119" s="48"/>
+      <c r="DX119" s="48"/>
+      <c r="DY119" s="48"/>
+      <c r="DZ119" s="48"/>
+      <c r="EA119" s="48"/>
+      <c r="EB119" s="48"/>
+      <c r="EC119" s="48"/>
+      <c r="ED119" s="48"/>
+      <c r="EE119" s="48"/>
+      <c r="EF119" s="48"/>
+      <c r="EG119" s="48"/>
+      <c r="EH119" s="48"/>
+      <c r="EI119" s="48"/>
+      <c r="EJ119" s="48"/>
+      <c r="EK119" s="48"/>
+      <c r="EL119" s="48"/>
+      <c r="EM119" s="48"/>
+      <c r="EN119" s="48"/>
+      <c r="EO119" s="48"/>
+      <c r="EP119" s="48"/>
+      <c r="EQ119" s="48"/>
+      <c r="ER119" s="48"/>
+      <c r="ES119" s="48"/>
+      <c r="ET119" s="48"/>
+      <c r="EU119" s="48"/>
+      <c r="EV119" s="48"/>
+      <c r="EW119" s="48"/>
+      <c r="EX119" s="48"/>
+      <c r="EY119" s="48"/>
+      <c r="EZ119" s="48"/>
+      <c r="FA119" s="48"/>
+      <c r="FB119" s="48"/>
+      <c r="FC119" s="48"/>
+      <c r="FD119" s="48"/>
+      <c r="FE119" s="48"/>
+      <c r="FF119" s="48"/>
+      <c r="FG119" s="48"/>
+      <c r="FH119" s="48"/>
+      <c r="FI119" s="48"/>
+      <c r="FJ119" s="48"/>
+      <c r="FK119" s="48"/>
+      <c r="FL119" s="48"/>
+      <c r="FM119" s="48"/>
+      <c r="FN119" s="48"/>
+      <c r="FO119" s="48"/>
+      <c r="FP119" s="48"/>
+      <c r="FQ119" s="48"/>
+      <c r="FR119" s="48"/>
+      <c r="FS119" s="48"/>
+      <c r="FT119" s="48"/>
+      <c r="FU119" s="48"/>
+      <c r="FV119" s="48"/>
+      <c r="FW119" s="48"/>
+      <c r="FX119" s="48"/>
+      <c r="FY119" s="48"/>
+      <c r="FZ119" s="48"/>
+      <c r="GA119" s="48"/>
+      <c r="GB119" s="48"/>
+      <c r="GC119" s="48"/>
+      <c r="GD119" s="48"/>
+      <c r="GE119" s="48"/>
+      <c r="GF119" s="48"/>
+      <c r="GG119" s="48"/>
+      <c r="GH119" s="48"/>
+      <c r="GI119" s="48"/>
+      <c r="GJ119" s="48"/>
+      <c r="GK119" s="48"/>
+      <c r="GL119" s="48"/>
+      <c r="GM119" s="48"/>
+      <c r="GN119" s="48"/>
+      <c r="GO119" s="48"/>
+      <c r="GP119" s="48"/>
+      <c r="GQ119" s="48"/>
+      <c r="GR119" s="48"/>
+      <c r="GS119" s="48"/>
+      <c r="GT119" s="48"/>
+      <c r="GU119" s="48"/>
+      <c r="GV119" s="48"/>
+      <c r="GW119" s="48"/>
+      <c r="GX119" s="48"/>
+      <c r="GY119" s="48"/>
+      <c r="GZ119" s="48"/>
+      <c r="HA119" s="48"/>
+      <c r="HB119" s="48"/>
+      <c r="HC119" s="48"/>
+      <c r="HD119" s="48"/>
+      <c r="HE119" s="48"/>
+      <c r="HF119" s="48"/>
+      <c r="HG119" s="48"/>
+      <c r="HH119" s="48"/>
+      <c r="HI119" s="48"/>
+      <c r="HJ119" s="48"/>
+      <c r="HK119" s="48"/>
+      <c r="HL119" s="48"/>
+      <c r="HM119" s="48"/>
+      <c r="HN119" s="48"/>
+      <c r="HO119" s="48"/>
+      <c r="HP119" s="48"/>
+      <c r="HQ119" s="48"/>
+      <c r="HR119" s="48"/>
+      <c r="HS119" s="48"/>
+      <c r="HT119" s="48"/>
+      <c r="HU119" s="48"/>
+      <c r="HV119" s="48"/>
+      <c r="HW119" s="48"/>
+      <c r="HX119" s="48"/>
+      <c r="HY119" s="48"/>
+      <c r="HZ119" s="48"/>
+      <c r="IA119" s="48"/>
+      <c r="IB119" s="48"/>
+      <c r="IC119" s="48"/>
+      <c r="ID119" s="48"/>
+      <c r="IE119" s="48"/>
+      <c r="IF119" s="48"/>
+      <c r="IG119" s="48"/>
+      <c r="IH119" s="48"/>
+      <c r="II119" s="48"/>
+      <c r="IJ119" s="48"/>
+      <c r="IK119" s="48"/>
+      <c r="IL119" s="48"/>
+      <c r="IM119" s="48"/>
+      <c r="IN119" s="48"/>
+      <c r="IO119" s="48"/>
+      <c r="IP119" s="48"/>
+      <c r="IQ119" s="48"/>
+      <c r="IR119" s="48"/>
+      <c r="IS119" s="48"/>
+      <c r="IT119" s="48"/>
+      <c r="IU119" s="48"/>
+      <c r="IV119" s="48"/>
+      <c r="IW119" s="48"/>
+      <c r="IX119" s="48"/>
+      <c r="IY119" s="48"/>
+      <c r="IZ119" s="48"/>
+      <c r="JA119" s="48"/>
+      <c r="JB119" s="48"/>
+      <c r="JC119" s="48"/>
+      <c r="JD119" s="48"/>
+      <c r="JE119" s="48"/>
+      <c r="JF119" s="48"/>
+      <c r="JG119" s="48"/>
+      <c r="JH119" s="48"/>
+      <c r="JI119" s="48"/>
+      <c r="JJ119" s="48"/>
+      <c r="JK119" s="48"/>
+      <c r="JL119" s="48"/>
+      <c r="JM119" s="48"/>
+      <c r="JN119" s="48"/>
+      <c r="JO119" s="48"/>
+      <c r="JP119" s="48"/>
+      <c r="JQ119" s="48"/>
+      <c r="JR119" s="48"/>
+      <c r="JS119" s="48"/>
+      <c r="JT119" s="48"/>
+      <c r="JU119" s="48"/>
+      <c r="JV119" s="48"/>
+      <c r="JW119" s="48"/>
+      <c r="JX119" s="48"/>
+      <c r="JY119" s="48"/>
+      <c r="JZ119" s="48"/>
+      <c r="KA119" s="48"/>
+      <c r="KB119" s="48"/>
+      <c r="KC119" s="48"/>
+      <c r="KD119" s="48"/>
+      <c r="KE119" s="48"/>
+      <c r="KF119" s="48"/>
+      <c r="KG119" s="48"/>
+      <c r="KH119" s="48"/>
+      <c r="KI119" s="48"/>
+      <c r="KJ119" s="48"/>
+      <c r="KK119" s="48"/>
+      <c r="KL119" s="48"/>
+      <c r="KM119" s="48"/>
+      <c r="KN119" s="48"/>
+      <c r="KO119" s="48"/>
+      <c r="KP119" s="48"/>
+      <c r="KQ119" s="48"/>
+      <c r="KR119" s="48"/>
+      <c r="KS119" s="48"/>
+      <c r="KT119" s="48"/>
+      <c r="KU119" s="48"/>
+      <c r="KV119" s="48"/>
+      <c r="KW119" s="48"/>
+      <c r="KX119" s="48"/>
+      <c r="KY119" s="48"/>
+      <c r="KZ119" s="48"/>
+      <c r="LA119" s="48"/>
+      <c r="LB119" s="48"/>
+      <c r="LC119" s="48"/>
+      <c r="LD119" s="48"/>
+      <c r="LE119" s="48"/>
+      <c r="LF119" s="48"/>
+      <c r="LG119" s="48"/>
+      <c r="LH119" s="48"/>
+      <c r="LI119" s="48"/>
+      <c r="LJ119" s="48"/>
+      <c r="LK119" s="48"/>
+      <c r="LL119" s="48"/>
+      <c r="LM119" s="48"/>
+      <c r="LN119" s="48"/>
+      <c r="LO119" s="48"/>
+      <c r="LP119" s="48"/>
+      <c r="LQ119" s="48"/>
+      <c r="LR119" s="48"/>
+      <c r="LS119" s="48"/>
+      <c r="LT119" s="48"/>
+      <c r="LU119" s="48"/>
+      <c r="LV119" s="48"/>
+      <c r="LW119" s="48"/>
+      <c r="LX119" s="48"/>
+      <c r="LY119" s="48"/>
+      <c r="LZ119" s="48"/>
+      <c r="MA119" s="48"/>
+      <c r="MB119" s="48"/>
+      <c r="MC119" s="48"/>
+      <c r="MD119" s="48"/>
+      <c r="ME119" s="48"/>
+      <c r="MF119" s="48"/>
+      <c r="MG119" s="48"/>
+      <c r="MH119" s="48"/>
+      <c r="MI119" s="48"/>
+      <c r="MJ119" s="48"/>
+      <c r="MK119" s="48"/>
+      <c r="ML119" s="48"/>
+      <c r="MM119" s="48"/>
+      <c r="MN119" s="48"/>
+      <c r="MO119" s="48"/>
+      <c r="MP119" s="48"/>
+      <c r="MQ119" s="48"/>
+      <c r="MR119" s="48"/>
+      <c r="MS119" s="48"/>
+      <c r="MT119" s="48"/>
+      <c r="MU119" s="48"/>
+      <c r="MV119" s="48"/>
+      <c r="MW119" s="48"/>
+      <c r="MX119" s="48"/>
+      <c r="MY119" s="48"/>
+      <c r="MZ119" s="48"/>
+      <c r="NA119" s="48"/>
+      <c r="NB119" s="48"/>
+      <c r="NC119" s="48"/>
+      <c r="ND119" s="48"/>
+      <c r="NE119" s="48"/>
+      <c r="NF119" s="48"/>
+      <c r="NG119" s="48"/>
+      <c r="NH119" s="48"/>
+      <c r="NI119" s="48"/>
+      <c r="NJ119" s="48"/>
+      <c r="NK119" s="48"/>
+      <c r="NL119" s="48"/>
+      <c r="NM119" s="48"/>
+      <c r="NN119" s="48"/>
+      <c r="NO119" s="48"/>
+      <c r="NP119" s="48"/>
+      <c r="NQ119" s="48"/>
+      <c r="NR119" s="48"/>
+      <c r="NS119" s="48"/>
+      <c r="NT119" s="48"/>
+      <c r="NU119" s="48"/>
+      <c r="NV119" s="48"/>
+      <c r="NW119" s="48"/>
+      <c r="NX119" s="48"/>
+      <c r="NY119" s="48"/>
+      <c r="NZ119" s="48"/>
+      <c r="OA119" s="48"/>
+      <c r="OB119" s="48"/>
+      <c r="OC119" s="48"/>
+      <c r="OD119" s="48"/>
+      <c r="OE119" s="48"/>
+      <c r="OF119" s="48"/>
+      <c r="OG119" s="48"/>
+      <c r="OH119" s="48"/>
+      <c r="OI119" s="48"/>
+      <c r="OJ119" s="48"/>
+      <c r="OK119" s="48"/>
+      <c r="OL119" s="48"/>
+      <c r="OM119" s="48"/>
+      <c r="ON119" s="48"/>
+      <c r="OO119" s="48"/>
+      <c r="OP119" s="48"/>
+      <c r="OQ119" s="48"/>
+      <c r="OR119" s="48"/>
+      <c r="OS119" s="48"/>
+      <c r="OT119" s="48"/>
+      <c r="OU119" s="48"/>
+      <c r="OV119" s="48"/>
+      <c r="OW119" s="48"/>
+      <c r="OX119" s="48"/>
+      <c r="OY119" s="48"/>
+      <c r="OZ119" s="48"/>
+      <c r="PA119" s="48"/>
+      <c r="PB119" s="48"/>
+      <c r="PC119" s="48"/>
+      <c r="PD119" s="48"/>
+      <c r="PE119" s="48"/>
+      <c r="PF119" s="48"/>
+      <c r="PG119" s="48"/>
+      <c r="PH119" s="48"/>
+      <c r="PI119" s="48"/>
+      <c r="PJ119" s="48"/>
+      <c r="PK119" s="48"/>
+      <c r="PL119" s="48"/>
+      <c r="PM119" s="48"/>
+      <c r="PN119" s="48"/>
+      <c r="PO119" s="48"/>
+      <c r="PP119" s="48"/>
+      <c r="PQ119" s="48"/>
+      <c r="PR119" s="48"/>
+      <c r="PS119" s="48"/>
+      <c r="PT119" s="48"/>
+      <c r="PU119" s="48"/>
+      <c r="PV119" s="48"/>
+      <c r="PW119" s="48"/>
+      <c r="PX119" s="48"/>
+      <c r="PY119" s="48"/>
+      <c r="PZ119" s="48"/>
+      <c r="QA119" s="48"/>
+      <c r="QB119" s="48"/>
+      <c r="QC119" s="48"/>
+      <c r="QD119" s="48"/>
+      <c r="QE119" s="48"/>
+      <c r="QF119" s="48"/>
+      <c r="QG119" s="48"/>
+      <c r="QH119" s="48"/>
+      <c r="QI119" s="48"/>
+      <c r="QJ119" s="48"/>
+      <c r="QK119" s="48"/>
+      <c r="QL119" s="48"/>
+      <c r="QM119" s="48"/>
+      <c r="QN119" s="48"/>
+      <c r="QO119" s="48"/>
+      <c r="QP119" s="48"/>
+      <c r="QQ119" s="48"/>
+      <c r="QR119" s="48"/>
+      <c r="QS119" s="48"/>
+      <c r="QT119" s="48"/>
+      <c r="QU119" s="48"/>
+      <c r="QV119" s="48"/>
+      <c r="QW119" s="48"/>
+      <c r="QX119" s="48"/>
+      <c r="QY119" s="48"/>
+      <c r="QZ119" s="48"/>
+      <c r="RA119" s="48"/>
+      <c r="RB119" s="48"/>
+      <c r="RC119" s="48"/>
+      <c r="RD119" s="48"/>
+      <c r="RE119" s="48"/>
+      <c r="RF119" s="48"/>
+      <c r="RG119" s="48"/>
+      <c r="RH119" s="48"/>
+      <c r="RI119" s="48"/>
+      <c r="RJ119" s="48"/>
+      <c r="RK119" s="48"/>
+      <c r="RL119" s="48"/>
+      <c r="RM119" s="48"/>
+      <c r="RN119" s="48"/>
+      <c r="RO119" s="48"/>
+      <c r="RP119" s="48"/>
+      <c r="RQ119" s="48"/>
+      <c r="RR119" s="48"/>
+      <c r="RS119" s="48"/>
+      <c r="RT119" s="48"/>
+      <c r="RU119" s="48"/>
+      <c r="RV119" s="48"/>
+      <c r="RW119" s="48"/>
+      <c r="RX119" s="48"/>
+      <c r="RY119" s="48"/>
+      <c r="RZ119" s="48"/>
+      <c r="SA119" s="48"/>
+      <c r="SB119" s="48"/>
+      <c r="SC119" s="48"/>
+      <c r="SD119" s="48"/>
+      <c r="SE119" s="48"/>
+      <c r="SF119" s="48"/>
+      <c r="SG119" s="48"/>
+      <c r="SH119" s="48"/>
+      <c r="SI119" s="48"/>
+      <c r="SJ119" s="48"/>
+      <c r="SK119" s="48"/>
+      <c r="SL119" s="48"/>
+      <c r="SM119" s="48"/>
+      <c r="SN119" s="48"/>
+      <c r="SO119" s="48"/>
+      <c r="SP119" s="48"/>
+      <c r="SQ119" s="48"/>
+      <c r="SR119" s="48"/>
+      <c r="SS119" s="48"/>
+      <c r="ST119" s="48"/>
+      <c r="SU119" s="48"/>
+      <c r="SV119" s="48"/>
+      <c r="SW119" s="48"/>
+      <c r="SX119" s="48"/>
+      <c r="SY119" s="48"/>
+      <c r="SZ119" s="48"/>
+      <c r="TA119" s="48"/>
+      <c r="TB119" s="48"/>
+      <c r="TC119" s="48"/>
+      <c r="TD119" s="48"/>
+      <c r="TE119" s="48"/>
+      <c r="TF119" s="48"/>
+      <c r="TG119" s="48"/>
+      <c r="TH119" s="48"/>
+      <c r="TI119" s="48"/>
+      <c r="TJ119" s="48"/>
+      <c r="TK119" s="48"/>
+      <c r="TL119" s="48"/>
+      <c r="TM119" s="48"/>
+      <c r="TN119" s="48"/>
+      <c r="TO119" s="48"/>
+      <c r="TP119" s="48"/>
+      <c r="TQ119" s="48"/>
+      <c r="TR119" s="48"/>
+      <c r="TS119" s="48"/>
+      <c r="TT119" s="48"/>
+      <c r="TU119" s="48"/>
+      <c r="TV119" s="48"/>
+      <c r="TW119" s="48"/>
+      <c r="TX119" s="48"/>
+      <c r="TY119" s="48"/>
+      <c r="TZ119" s="48"/>
+      <c r="UA119" s="48"/>
+      <c r="UB119" s="48"/>
+      <c r="UC119" s="48"/>
+      <c r="UD119" s="48"/>
+      <c r="UE119" s="48"/>
+      <c r="UF119" s="48"/>
+      <c r="UG119" s="48"/>
+      <c r="UH119" s="48"/>
+      <c r="UI119" s="48"/>
+      <c r="UJ119" s="48"/>
+      <c r="UK119" s="48"/>
+      <c r="UL119" s="48"/>
+      <c r="UM119" s="48"/>
+      <c r="UN119" s="48"/>
+      <c r="UO119" s="48"/>
+      <c r="UP119" s="48"/>
+      <c r="UQ119" s="48"/>
+      <c r="UR119" s="48"/>
+      <c r="US119" s="48"/>
+      <c r="UT119" s="48"/>
+      <c r="UU119" s="48"/>
+      <c r="UV119" s="48"/>
+      <c r="UW119" s="48"/>
+      <c r="UX119" s="48"/>
+      <c r="UY119" s="48"/>
+      <c r="UZ119" s="48"/>
+      <c r="VA119" s="48"/>
+      <c r="VB119" s="48"/>
+      <c r="VC119" s="48"/>
+      <c r="VD119" s="48"/>
+      <c r="VE119" s="48"/>
+      <c r="VF119" s="48"/>
+      <c r="VG119" s="48"/>
+      <c r="VH119" s="48"/>
+      <c r="VI119" s="48"/>
+      <c r="VJ119" s="48"/>
+      <c r="VK119" s="48"/>
+      <c r="VL119" s="48"/>
+      <c r="VM119" s="48"/>
+      <c r="VN119" s="48"/>
+      <c r="VO119" s="48"/>
+      <c r="VP119" s="48"/>
+      <c r="VQ119" s="48"/>
+      <c r="VR119" s="48"/>
+      <c r="VS119" s="48"/>
+      <c r="VT119" s="48"/>
+      <c r="VU119" s="48"/>
+      <c r="VV119" s="48"/>
+      <c r="VW119" s="48"/>
+      <c r="VX119" s="48"/>
+      <c r="VY119" s="48"/>
+      <c r="VZ119" s="48"/>
+      <c r="WA119" s="48"/>
+      <c r="WB119" s="48"/>
+      <c r="WC119" s="48"/>
+      <c r="WD119" s="48"/>
+      <c r="WE119" s="48"/>
+      <c r="WF119" s="48"/>
+      <c r="WG119" s="48"/>
+      <c r="WH119" s="48"/>
+      <c r="WI119" s="48"/>
+      <c r="WJ119" s="48"/>
+      <c r="WK119" s="48"/>
+      <c r="WL119" s="48"/>
+      <c r="WM119" s="48"/>
+      <c r="WN119" s="48"/>
+      <c r="WO119" s="48"/>
+      <c r="WP119" s="48"/>
+      <c r="WQ119" s="48"/>
+      <c r="WR119" s="48"/>
+      <c r="WS119" s="48"/>
+      <c r="WT119" s="48"/>
+      <c r="WU119" s="48"/>
+      <c r="WV119" s="48"/>
+      <c r="WW119" s="48"/>
+      <c r="WX119" s="48"/>
+      <c r="WY119" s="48"/>
+      <c r="WZ119" s="48"/>
+      <c r="XA119" s="48"/>
+      <c r="XB119" s="48"/>
+      <c r="XC119" s="48"/>
+      <c r="XD119" s="48"/>
+      <c r="XE119" s="48"/>
+      <c r="XF119" s="48"/>
+      <c r="XG119" s="48"/>
+      <c r="XH119" s="48"/>
+      <c r="XI119" s="48"/>
+      <c r="XJ119" s="48"/>
+      <c r="XK119" s="48"/>
+      <c r="XL119" s="48"/>
+      <c r="XM119" s="48"/>
+      <c r="XN119" s="48"/>
+      <c r="XO119" s="48"/>
+      <c r="XP119" s="48"/>
+      <c r="XQ119" s="48"/>
+      <c r="XR119" s="48"/>
+      <c r="XS119" s="48"/>
+      <c r="XT119" s="48"/>
+      <c r="XU119" s="48"/>
+      <c r="XV119" s="48"/>
+      <c r="XW119" s="48"/>
+      <c r="XX119" s="48"/>
+      <c r="XY119" s="48"/>
+      <c r="XZ119" s="48"/>
+      <c r="YA119" s="48"/>
+      <c r="YB119" s="48"/>
+      <c r="YC119" s="48"/>
+      <c r="YD119" s="48"/>
+      <c r="YE119" s="48"/>
+      <c r="YF119" s="48"/>
+      <c r="YG119" s="48"/>
+      <c r="YH119" s="48"/>
+      <c r="YI119" s="48"/>
+      <c r="YJ119" s="48"/>
+      <c r="YK119" s="48"/>
+      <c r="YL119" s="48"/>
+      <c r="YM119" s="48"/>
+      <c r="YN119" s="48"/>
+      <c r="YO119" s="48"/>
+      <c r="YP119" s="48"/>
+      <c r="YQ119" s="48"/>
+      <c r="YR119" s="48"/>
+      <c r="YS119" s="48"/>
+      <c r="YT119" s="48"/>
+      <c r="YU119" s="48"/>
+      <c r="YV119" s="48"/>
+      <c r="YW119" s="48"/>
+      <c r="YX119" s="48"/>
+      <c r="YY119" s="48"/>
+      <c r="YZ119" s="48"/>
+      <c r="ZA119" s="48"/>
+      <c r="ZB119" s="48"/>
+      <c r="ZC119" s="48"/>
+      <c r="ZD119" s="48"/>
+      <c r="ZE119" s="48"/>
+      <c r="ZF119" s="48"/>
+      <c r="ZG119" s="48"/>
+      <c r="ZH119" s="48"/>
+      <c r="ZI119" s="48"/>
+      <c r="ZJ119" s="48"/>
+      <c r="ZK119" s="48"/>
+      <c r="ZL119" s="48"/>
+      <c r="ZM119" s="48"/>
+      <c r="ZN119" s="48"/>
+      <c r="ZO119" s="48"/>
+      <c r="ZP119" s="48"/>
+      <c r="ZQ119" s="48"/>
+      <c r="ZR119" s="48"/>
+      <c r="ZS119" s="48"/>
+      <c r="ZT119" s="48"/>
+      <c r="ZU119" s="48"/>
+      <c r="ZV119" s="48"/>
+      <c r="ZW119" s="48"/>
+      <c r="ZX119" s="48"/>
+      <c r="ZY119" s="48"/>
+      <c r="ZZ119" s="48"/>
+      <c r="AAA119" s="48"/>
+      <c r="AAB119" s="48"/>
+      <c r="AAC119" s="48"/>
+      <c r="AAD119" s="48"/>
+      <c r="AAE119" s="48"/>
+      <c r="AAF119" s="48"/>
+      <c r="AAG119" s="48"/>
+      <c r="AAH119" s="48"/>
+      <c r="AAI119" s="48"/>
+      <c r="AAJ119" s="48"/>
+      <c r="AAK119" s="48"/>
+      <c r="AAL119" s="48"/>
+      <c r="AAM119" s="48"/>
+      <c r="AAN119" s="48"/>
+      <c r="AAO119" s="48"/>
+      <c r="AAP119" s="48"/>
+      <c r="AAQ119" s="48"/>
+      <c r="AAR119" s="48"/>
+      <c r="AAS119" s="48"/>
+      <c r="AAT119" s="48"/>
+      <c r="AAU119" s="48"/>
+      <c r="AAV119" s="48"/>
+      <c r="AAW119" s="48"/>
+      <c r="AAX119" s="48"/>
+      <c r="AAY119" s="48"/>
+      <c r="AAZ119" s="48"/>
+      <c r="ABA119" s="48"/>
+      <c r="ABB119" s="48"/>
+      <c r="ABC119" s="48"/>
+      <c r="ABD119" s="48"/>
+      <c r="ABE119" s="48"/>
+      <c r="ABF119" s="48"/>
+      <c r="ABG119" s="48"/>
+      <c r="ABH119" s="48"/>
+      <c r="ABI119" s="48"/>
+      <c r="ABJ119" s="48"/>
+      <c r="ABK119" s="48"/>
+      <c r="ABL119" s="48"/>
+      <c r="ABM119" s="48"/>
+      <c r="ABN119" s="48"/>
+      <c r="ABO119" s="48"/>
+      <c r="ABP119" s="48"/>
+      <c r="ABQ119" s="48"/>
+      <c r="ABR119" s="48"/>
+      <c r="ABS119" s="48"/>
+      <c r="ABT119" s="48"/>
+      <c r="ABU119" s="48"/>
+      <c r="ABV119" s="48"/>
+      <c r="ABW119" s="48"/>
+      <c r="ABX119" s="48"/>
+      <c r="ABY119" s="48"/>
+      <c r="ABZ119" s="48"/>
+      <c r="ACA119" s="48"/>
+      <c r="ACB119" s="48"/>
+      <c r="ACC119" s="48"/>
+      <c r="ACD119" s="48"/>
+      <c r="ACE119" s="48"/>
+      <c r="ACF119" s="48"/>
+      <c r="ACG119" s="48"/>
+      <c r="ACH119" s="48"/>
+      <c r="ACI119" s="48"/>
+      <c r="ACJ119" s="48"/>
+      <c r="ACK119" s="48"/>
+      <c r="ACL119" s="48"/>
+      <c r="ACM119" s="48"/>
+      <c r="ACN119" s="48"/>
+      <c r="ACO119" s="48"/>
+      <c r="ACP119" s="48"/>
+      <c r="ACQ119" s="48"/>
+      <c r="ACR119" s="48"/>
+      <c r="ACS119" s="48"/>
+      <c r="ACT119" s="48"/>
+      <c r="ACU119" s="48"/>
+      <c r="ACV119" s="48"/>
+      <c r="ACW119" s="48"/>
+      <c r="ACX119" s="48"/>
+      <c r="ACY119" s="48"/>
+      <c r="ACZ119" s="48"/>
+      <c r="ADA119" s="48"/>
+      <c r="ADB119" s="48"/>
+      <c r="ADC119" s="48"/>
+      <c r="ADD119" s="48"/>
+      <c r="ADE119" s="48"/>
+      <c r="ADF119" s="48"/>
+      <c r="ADG119" s="48"/>
+      <c r="ADH119" s="48"/>
+      <c r="ADI119" s="48"/>
+      <c r="ADJ119" s="48"/>
+      <c r="ADK119" s="48"/>
+      <c r="ADL119" s="48"/>
+      <c r="ADM119" s="48"/>
+      <c r="ADN119" s="48"/>
+      <c r="ADO119" s="48"/>
+      <c r="ADP119" s="48"/>
+      <c r="ADQ119" s="48"/>
+      <c r="ADR119" s="48"/>
+      <c r="ADS119" s="48"/>
+      <c r="ADT119" s="48"/>
+      <c r="ADU119" s="48"/>
+      <c r="ADV119" s="48"/>
+      <c r="ADW119" s="48"/>
+      <c r="ADX119" s="48"/>
+      <c r="ADY119" s="48"/>
+      <c r="ADZ119" s="48"/>
+      <c r="AEA119" s="48"/>
+      <c r="AEB119" s="48"/>
+      <c r="AEC119" s="48"/>
+      <c r="AED119" s="48"/>
+      <c r="AEE119" s="48"/>
+      <c r="AEF119" s="48"/>
+      <c r="AEG119" s="48"/>
+      <c r="AEH119" s="48"/>
+      <c r="AEI119" s="48"/>
+      <c r="AEJ119" s="48"/>
+      <c r="AEK119" s="48"/>
+      <c r="AEL119" s="48"/>
+      <c r="AEM119" s="48"/>
+      <c r="AEN119" s="48"/>
+      <c r="AEO119" s="48"/>
+      <c r="AEP119" s="48"/>
+      <c r="AEQ119" s="48"/>
+      <c r="AER119" s="48"/>
+      <c r="AES119" s="48"/>
+      <c r="AET119" s="48"/>
+      <c r="AEU119" s="48"/>
+      <c r="AEV119" s="48"/>
+      <c r="AEW119" s="48"/>
+      <c r="AEX119" s="48"/>
+      <c r="AEY119" s="48"/>
+      <c r="AEZ119" s="48"/>
+      <c r="AFA119" s="48"/>
+      <c r="AFB119" s="48"/>
+      <c r="AFC119" s="48"/>
+      <c r="AFD119" s="48"/>
+      <c r="AFE119" s="48"/>
+      <c r="AFF119" s="48"/>
+      <c r="AFG119" s="48"/>
+      <c r="AFH119" s="48"/>
+      <c r="AFI119" s="48"/>
+      <c r="AFJ119" s="48"/>
+      <c r="AFK119" s="48"/>
+      <c r="AFL119" s="48"/>
+      <c r="AFM119" s="48"/>
+      <c r="AFN119" s="48"/>
+      <c r="AFO119" s="48"/>
+      <c r="AFP119" s="48"/>
+      <c r="AFQ119" s="48"/>
+      <c r="AFR119" s="48"/>
+      <c r="AFS119" s="48"/>
+      <c r="AFT119" s="48"/>
+      <c r="AFU119" s="48"/>
+      <c r="AFV119" s="48"/>
+      <c r="AFW119" s="48"/>
+      <c r="AFX119" s="48"/>
+      <c r="AFY119" s="48"/>
+      <c r="AFZ119" s="48"/>
+      <c r="AGA119" s="48"/>
+      <c r="AGB119" s="48"/>
+      <c r="AGC119" s="48"/>
+      <c r="AGD119" s="48"/>
+      <c r="AGE119" s="48"/>
+      <c r="AGF119" s="48"/>
+      <c r="AGG119" s="48"/>
+      <c r="AGH119" s="48"/>
+      <c r="AGI119" s="48"/>
+      <c r="AGJ119" s="48"/>
+      <c r="AGK119" s="48"/>
+      <c r="AGL119" s="48"/>
+      <c r="AGM119" s="48"/>
+      <c r="AGN119" s="48"/>
+      <c r="AGO119" s="48"/>
+      <c r="AGP119" s="48"/>
+      <c r="AGQ119" s="48"/>
+      <c r="AGR119" s="48"/>
+      <c r="AGS119" s="48"/>
+      <c r="AGT119" s="48"/>
+      <c r="AGU119" s="48"/>
+      <c r="AGV119" s="48"/>
+      <c r="AGW119" s="48"/>
+      <c r="AGX119" s="48"/>
+      <c r="AGY119" s="48"/>
+      <c r="AGZ119" s="48"/>
+      <c r="AHA119" s="48"/>
+      <c r="AHB119" s="48"/>
+      <c r="AHC119" s="48"/>
+      <c r="AHD119" s="48"/>
+      <c r="AHE119" s="48"/>
+      <c r="AHF119" s="48"/>
+      <c r="AHG119" s="48"/>
+      <c r="AHH119" s="48"/>
+      <c r="AHI119" s="48"/>
+      <c r="AHJ119" s="48"/>
+      <c r="AHK119" s="48"/>
+      <c r="AHL119" s="48"/>
+      <c r="AHM119" s="48"/>
+      <c r="AHN119" s="48"/>
+      <c r="AHO119" s="48"/>
+      <c r="AHP119" s="48"/>
+      <c r="AHQ119" s="48"/>
+      <c r="AHR119" s="48"/>
+      <c r="AHS119" s="48"/>
+      <c r="AHT119" s="48"/>
+      <c r="AHU119" s="48"/>
+      <c r="AHV119" s="48"/>
+      <c r="AHW119" s="48"/>
+      <c r="AHX119" s="48"/>
+      <c r="AHY119" s="48"/>
+      <c r="AHZ119" s="48"/>
+      <c r="AIA119" s="48"/>
+      <c r="AIB119" s="48"/>
+      <c r="AIC119" s="48"/>
+      <c r="AID119" s="48"/>
+      <c r="AIE119" s="48"/>
+      <c r="AIF119" s="48"/>
+      <c r="AIG119" s="48"/>
+      <c r="AIH119" s="48"/>
+      <c r="AII119" s="48"/>
+      <c r="AIJ119" s="48"/>
+      <c r="AIK119" s="48"/>
+      <c r="AIL119" s="48"/>
+      <c r="AIM119" s="48"/>
+      <c r="AIN119" s="48"/>
+      <c r="AIO119" s="48"/>
+      <c r="AIP119" s="48"/>
+      <c r="AIQ119" s="48"/>
+      <c r="AIR119" s="48"/>
+      <c r="AIS119" s="48"/>
+      <c r="AIT119" s="48"/>
+      <c r="AIU119" s="48"/>
+      <c r="AIV119" s="48"/>
+      <c r="AIW119" s="48"/>
+      <c r="AIX119" s="48"/>
+      <c r="AIY119" s="48"/>
+      <c r="AIZ119" s="48"/>
+      <c r="AJA119" s="48"/>
+      <c r="AJB119" s="48"/>
+      <c r="AJC119" s="48"/>
+      <c r="AJD119" s="48"/>
+      <c r="AJE119" s="48"/>
+      <c r="AJF119" s="48"/>
+      <c r="AJG119" s="48"/>
+      <c r="AJH119" s="48"/>
+      <c r="AJI119" s="48"/>
+      <c r="AJJ119" s="48"/>
+      <c r="AJK119" s="48"/>
+      <c r="AJL119" s="48"/>
+      <c r="AJM119" s="48"/>
+      <c r="AJN119" s="48"/>
+      <c r="AJO119" s="48"/>
+      <c r="AJP119" s="48"/>
+      <c r="AJQ119" s="48"/>
+      <c r="AJR119" s="48"/>
+      <c r="AJS119" s="48"/>
+      <c r="AJT119" s="48"/>
+      <c r="AJU119" s="48"/>
+      <c r="AJV119" s="48"/>
+      <c r="AJW119" s="48"/>
+      <c r="AJX119" s="48"/>
+      <c r="AJY119" s="48"/>
+      <c r="AJZ119" s="48"/>
+      <c r="AKA119" s="48"/>
+      <c r="AKB119" s="48"/>
+      <c r="AKC119" s="48"/>
+      <c r="AKD119" s="48"/>
+      <c r="AKE119" s="48"/>
+      <c r="AKF119" s="48"/>
+      <c r="AKG119" s="48"/>
+      <c r="AKH119" s="48"/>
+      <c r="AKI119" s="48"/>
+      <c r="AKJ119" s="48"/>
+      <c r="AKK119" s="48"/>
+      <c r="AKL119" s="48"/>
+      <c r="AKM119" s="48"/>
+      <c r="AKN119" s="48"/>
+      <c r="AKO119" s="48"/>
+      <c r="AKP119" s="48"/>
+      <c r="AKQ119" s="48"/>
+      <c r="AKR119" s="48"/>
+      <c r="AKS119" s="48"/>
+      <c r="AKT119" s="48"/>
+      <c r="AKU119" s="48"/>
+      <c r="AKV119" s="48"/>
+      <c r="AKW119" s="48"/>
+      <c r="AKX119" s="48"/>
+      <c r="AKY119" s="48"/>
+      <c r="AKZ119" s="48"/>
+      <c r="ALA119" s="48"/>
+      <c r="ALB119" s="48"/>
+      <c r="ALC119" s="48"/>
+      <c r="ALD119" s="48"/>
+      <c r="ALE119" s="48"/>
+      <c r="ALF119" s="48"/>
+      <c r="ALG119" s="48"/>
+      <c r="ALH119" s="48"/>
+      <c r="ALI119" s="48"/>
+      <c r="ALJ119" s="48"/>
+      <c r="ALK119" s="48"/>
+      <c r="ALL119" s="48"/>
+      <c r="ALM119" s="48"/>
+      <c r="ALN119" s="48"/>
+      <c r="ALO119" s="48"/>
+      <c r="ALP119" s="48"/>
+      <c r="ALQ119" s="48"/>
+      <c r="ALR119" s="48"/>
+      <c r="ALS119" s="48"/>
+      <c r="ALT119" s="48"/>
+      <c r="ALU119" s="48"/>
+      <c r="ALV119" s="48"/>
+      <c r="ALW119" s="48"/>
+      <c r="ALX119" s="48"/>
+      <c r="ALY119" s="48"/>
+      <c r="ALZ119" s="48"/>
+      <c r="AMA119" s="48"/>
+      <c r="AMB119" s="48"/>
+      <c r="AMC119" s="48"/>
+      <c r="AMD119" s="48"/>
+      <c r="AME119" s="48"/>
+      <c r="AMF119" s="48"/>
+      <c r="AMG119" s="48"/>
+      <c r="AMH119" s="48"/>
+      <c r="AMI119" s="48"/>
+      <c r="AMJ119" s="48"/>
+    </row>
+    <row r="120" s="76" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="8"/>
+      <c r="B120" s="50"/>
+      <c r="C120" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="D120" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="E120" s="36"/>
+      <c r="F120" s="50"/>
+      <c r="G120" s="50"/>
+      <c r="H120" s="50"/>
+      <c r="I120" s="50"/>
+      <c r="J120" s="50"/>
+      <c r="K120" s="50"/>
+      <c r="L120" s="50"/>
+      <c r="M120" s="50"/>
+      <c r="N120" s="50"/>
+      <c r="O120" s="50"/>
+      <c r="P120" s="50"/>
+      <c r="Q120" s="50"/>
+      <c r="R120" s="50"/>
+      <c r="S120" s="50"/>
+      <c r="T120" s="50"/>
+      <c r="U120" s="50"/>
+      <c r="V120" s="50"/>
+      <c r="W120" s="50"/>
+      <c r="X120" s="50"/>
+      <c r="Y120" s="50"/>
+      <c r="Z120" s="50"/>
+      <c r="AA120" s="50"/>
+      <c r="AB120" s="50"/>
+      <c r="AC120" s="50"/>
+      <c r="AD120" s="50"/>
+      <c r="AE120" s="50"/>
+      <c r="AF120" s="50"/>
+      <c r="AG120" s="50"/>
+      <c r="AH120" s="50"/>
+      <c r="AI120" s="50"/>
+      <c r="AJ120" s="50"/>
+      <c r="AK120" s="50"/>
+      <c r="AL120" s="50"/>
+      <c r="AM120" s="50"/>
+      <c r="AN120" s="50"/>
+      <c r="AO120" s="50"/>
+      <c r="AP120" s="50"/>
+      <c r="AQ120" s="50"/>
+      <c r="AR120" s="50"/>
+      <c r="AS120" s="50"/>
+      <c r="AT120" s="50"/>
+      <c r="AU120" s="50"/>
+      <c r="AV120" s="50"/>
+      <c r="AW120" s="50"/>
+      <c r="AX120" s="50"/>
+      <c r="AY120" s="50"/>
+      <c r="AZ120" s="50"/>
+      <c r="BA120" s="50"/>
+      <c r="BB120" s="50"/>
+      <c r="BC120" s="50"/>
+      <c r="BD120" s="50"/>
+      <c r="BE120" s="50"/>
+      <c r="BF120" s="50"/>
+      <c r="BG120" s="50"/>
+      <c r="BH120" s="50"/>
+      <c r="BI120" s="50"/>
+      <c r="BJ120" s="50"/>
+      <c r="BK120" s="50"/>
+      <c r="BL120" s="50"/>
+      <c r="BM120" s="50"/>
+      <c r="BN120" s="50"/>
+      <c r="BO120" s="50"/>
+      <c r="BP120" s="50"/>
+      <c r="BQ120" s="50"/>
+      <c r="BR120" s="50"/>
+      <c r="BS120" s="50"/>
+      <c r="BT120" s="50"/>
+      <c r="BU120" s="50"/>
+      <c r="BV120" s="50"/>
+      <c r="BW120" s="50"/>
+      <c r="BX120" s="50"/>
+      <c r="BY120" s="50"/>
+      <c r="BZ120" s="50"/>
+      <c r="CA120" s="50"/>
+      <c r="CB120" s="50"/>
+      <c r="CC120" s="50"/>
+      <c r="CD120" s="50"/>
+      <c r="CE120" s="50"/>
+      <c r="CF120" s="50"/>
+      <c r="CG120" s="50"/>
+      <c r="CH120" s="50"/>
+      <c r="CI120" s="50"/>
+      <c r="CJ120" s="50"/>
+      <c r="CK120" s="50"/>
+      <c r="CL120" s="50"/>
+      <c r="CM120" s="50"/>
+      <c r="CN120" s="50"/>
+      <c r="CO120" s="50"/>
+      <c r="CP120" s="50"/>
+      <c r="CQ120" s="50"/>
+      <c r="CR120" s="50"/>
+      <c r="CS120" s="50"/>
+      <c r="CT120" s="50"/>
+      <c r="CU120" s="50"/>
+      <c r="CV120" s="50"/>
+      <c r="CW120" s="50"/>
+      <c r="CX120" s="50"/>
+      <c r="CY120" s="50"/>
+      <c r="CZ120" s="50"/>
+      <c r="DA120" s="50"/>
+      <c r="DB120" s="50"/>
+      <c r="DC120" s="50"/>
+      <c r="DD120" s="50"/>
+      <c r="DE120" s="50"/>
+      <c r="DF120" s="50"/>
+      <c r="DG120" s="50"/>
+      <c r="DH120" s="50"/>
+      <c r="DI120" s="50"/>
+      <c r="DJ120" s="50"/>
+      <c r="DK120" s="50"/>
+      <c r="DL120" s="50"/>
+      <c r="DM120" s="50"/>
+      <c r="DN120" s="50"/>
+      <c r="DO120" s="50"/>
+      <c r="DP120" s="50"/>
+      <c r="DQ120" s="50"/>
+      <c r="DR120" s="50"/>
+      <c r="DS120" s="50"/>
+      <c r="DT120" s="50"/>
+      <c r="DU120" s="50"/>
+      <c r="DV120" s="50"/>
+      <c r="DW120" s="50"/>
+      <c r="DX120" s="50"/>
+      <c r="DY120" s="50"/>
+      <c r="DZ120" s="50"/>
+      <c r="EA120" s="50"/>
+      <c r="EB120" s="50"/>
+      <c r="EC120" s="50"/>
+      <c r="ED120" s="50"/>
+      <c r="EE120" s="50"/>
+      <c r="EF120" s="50"/>
+      <c r="EG120" s="50"/>
+      <c r="EH120" s="50"/>
+      <c r="EI120" s="50"/>
+      <c r="EJ120" s="50"/>
+      <c r="EK120" s="50"/>
+      <c r="EL120" s="50"/>
+      <c r="EM120" s="50"/>
+      <c r="EN120" s="50"/>
+      <c r="EO120" s="50"/>
+      <c r="EP120" s="50"/>
+      <c r="EQ120" s="50"/>
+      <c r="ER120" s="50"/>
+      <c r="ES120" s="50"/>
+      <c r="ET120" s="50"/>
+      <c r="EU120" s="50"/>
+      <c r="EV120" s="50"/>
+      <c r="EW120" s="50"/>
+      <c r="EX120" s="50"/>
+      <c r="EY120" s="50"/>
+      <c r="EZ120" s="50"/>
+      <c r="FA120" s="50"/>
+      <c r="FB120" s="50"/>
+      <c r="FC120" s="50"/>
+      <c r="FD120" s="50"/>
+      <c r="FE120" s="50"/>
+      <c r="FF120" s="50"/>
+      <c r="FG120" s="50"/>
+      <c r="FH120" s="50"/>
+      <c r="FI120" s="50"/>
+      <c r="FJ120" s="50"/>
+      <c r="FK120" s="50"/>
+      <c r="FL120" s="50"/>
+      <c r="FM120" s="50"/>
+      <c r="FN120" s="50"/>
+      <c r="FO120" s="50"/>
+      <c r="FP120" s="50"/>
+      <c r="FQ120" s="50"/>
+      <c r="FR120" s="50"/>
+      <c r="FS120" s="50"/>
+      <c r="FT120" s="50"/>
+      <c r="FU120" s="50"/>
+      <c r="FV120" s="50"/>
+      <c r="FW120" s="50"/>
+      <c r="FX120" s="50"/>
+      <c r="FY120" s="50"/>
+      <c r="FZ120" s="50"/>
+      <c r="GA120" s="50"/>
+      <c r="GB120" s="50"/>
+      <c r="GC120" s="50"/>
+      <c r="GD120" s="50"/>
+      <c r="GE120" s="50"/>
+      <c r="GF120" s="50"/>
+      <c r="GG120" s="50"/>
+      <c r="GH120" s="50"/>
+      <c r="GI120" s="50"/>
+      <c r="GJ120" s="50"/>
+      <c r="GK120" s="50"/>
+      <c r="GL120" s="50"/>
+      <c r="GM120" s="50"/>
+      <c r="GN120" s="50"/>
+      <c r="GO120" s="50"/>
+      <c r="GP120" s="50"/>
+      <c r="GQ120" s="50"/>
+      <c r="GR120" s="50"/>
+      <c r="GS120" s="50"/>
+      <c r="GT120" s="50"/>
+      <c r="GU120" s="50"/>
+      <c r="GV120" s="50"/>
+      <c r="GW120" s="50"/>
+      <c r="GX120" s="50"/>
+      <c r="GY120" s="50"/>
+      <c r="GZ120" s="50"/>
+      <c r="HA120" s="50"/>
+      <c r="HB120" s="50"/>
+      <c r="HC120" s="50"/>
+      <c r="HD120" s="50"/>
+      <c r="HE120" s="50"/>
+      <c r="HF120" s="50"/>
+      <c r="HG120" s="50"/>
+      <c r="HH120" s="50"/>
+      <c r="HI120" s="50"/>
+      <c r="HJ120" s="50"/>
+      <c r="HK120" s="50"/>
+      <c r="HL120" s="50"/>
+      <c r="HM120" s="50"/>
+      <c r="HN120" s="50"/>
+      <c r="HO120" s="50"/>
+      <c r="HP120" s="50"/>
+      <c r="HQ120" s="50"/>
+      <c r="HR120" s="50"/>
+      <c r="HS120" s="50"/>
+      <c r="HT120" s="50"/>
+      <c r="HU120" s="50"/>
+      <c r="HV120" s="50"/>
+      <c r="HW120" s="50"/>
+      <c r="HX120" s="50"/>
+      <c r="HY120" s="50"/>
+      <c r="HZ120" s="50"/>
+      <c r="IA120" s="50"/>
+      <c r="IB120" s="50"/>
+      <c r="IC120" s="50"/>
+      <c r="ID120" s="50"/>
+      <c r="IE120" s="50"/>
+      <c r="IF120" s="50"/>
+      <c r="IG120" s="50"/>
+      <c r="IH120" s="50"/>
+      <c r="II120" s="50"/>
+      <c r="IJ120" s="50"/>
+      <c r="IK120" s="50"/>
+      <c r="IL120" s="50"/>
+      <c r="IM120" s="50"/>
+      <c r="IN120" s="50"/>
+      <c r="IO120" s="50"/>
+      <c r="IP120" s="50"/>
+      <c r="IQ120" s="50"/>
+      <c r="IR120" s="50"/>
+      <c r="IS120" s="50"/>
+      <c r="IT120" s="50"/>
+      <c r="IU120" s="50"/>
+      <c r="IV120" s="50"/>
+      <c r="IW120" s="50"/>
+      <c r="IX120" s="50"/>
+      <c r="IY120" s="50"/>
+      <c r="IZ120" s="50"/>
+      <c r="JA120" s="50"/>
+      <c r="JB120" s="50"/>
+      <c r="JC120" s="50"/>
+      <c r="JD120" s="50"/>
+      <c r="JE120" s="50"/>
+      <c r="JF120" s="50"/>
+      <c r="JG120" s="50"/>
+      <c r="JH120" s="50"/>
+      <c r="JI120" s="50"/>
+      <c r="JJ120" s="50"/>
+      <c r="JK120" s="50"/>
+      <c r="JL120" s="50"/>
+      <c r="JM120" s="50"/>
+      <c r="JN120" s="50"/>
+      <c r="JO120" s="50"/>
+      <c r="JP120" s="50"/>
+      <c r="JQ120" s="50"/>
+      <c r="JR120" s="50"/>
+      <c r="JS120" s="50"/>
+      <c r="JT120" s="50"/>
+      <c r="JU120" s="50"/>
+      <c r="JV120" s="50"/>
+      <c r="JW120" s="50"/>
+      <c r="JX120" s="50"/>
+      <c r="JY120" s="50"/>
+      <c r="JZ120" s="50"/>
+      <c r="KA120" s="50"/>
+      <c r="KB120" s="50"/>
+      <c r="KC120" s="50"/>
+      <c r="KD120" s="50"/>
+      <c r="KE120" s="50"/>
+      <c r="KF120" s="50"/>
+      <c r="KG120" s="50"/>
+      <c r="KH120" s="50"/>
+      <c r="KI120" s="50"/>
+      <c r="KJ120" s="50"/>
+      <c r="KK120" s="50"/>
+      <c r="KL120" s="50"/>
+      <c r="KM120" s="50"/>
+      <c r="KN120" s="50"/>
+      <c r="KO120" s="50"/>
+      <c r="KP120" s="50"/>
+      <c r="KQ120" s="50"/>
+      <c r="KR120" s="50"/>
+      <c r="KS120" s="50"/>
+      <c r="KT120" s="50"/>
+      <c r="KU120" s="50"/>
+      <c r="KV120" s="50"/>
+      <c r="KW120" s="50"/>
+      <c r="KX120" s="50"/>
+      <c r="KY120" s="50"/>
+      <c r="KZ120" s="50"/>
+      <c r="LA120" s="50"/>
+      <c r="LB120" s="50"/>
+      <c r="LC120" s="50"/>
+      <c r="LD120" s="50"/>
+      <c r="LE120" s="50"/>
+      <c r="LF120" s="50"/>
+      <c r="LG120" s="50"/>
+      <c r="LH120" s="50"/>
+      <c r="LI120" s="50"/>
+      <c r="LJ120" s="50"/>
+      <c r="LK120" s="50"/>
+      <c r="LL120" s="50"/>
+      <c r="LM120" s="50"/>
+      <c r="LN120" s="50"/>
+      <c r="LO120" s="50"/>
+      <c r="LP120" s="50"/>
+      <c r="LQ120" s="50"/>
+      <c r="LR120" s="50"/>
+      <c r="LS120" s="50"/>
+      <c r="LT120" s="50"/>
+      <c r="LU120" s="50"/>
+      <c r="LV120" s="50"/>
+      <c r="LW120" s="50"/>
+      <c r="LX120" s="50"/>
+      <c r="LY120" s="50"/>
+      <c r="LZ120" s="50"/>
+      <c r="MA120" s="50"/>
+      <c r="MB120" s="50"/>
+      <c r="MC120" s="50"/>
+      <c r="MD120" s="50"/>
+      <c r="ME120" s="50"/>
+      <c r="MF120" s="50"/>
+      <c r="MG120" s="50"/>
+      <c r="MH120" s="50"/>
+      <c r="MI120" s="50"/>
+      <c r="MJ120" s="50"/>
+      <c r="MK120" s="50"/>
+      <c r="ML120" s="50"/>
+      <c r="MM120" s="50"/>
+      <c r="MN120" s="50"/>
+      <c r="MO120" s="50"/>
+      <c r="MP120" s="50"/>
+      <c r="MQ120" s="50"/>
+      <c r="MR120" s="50"/>
+      <c r="MS120" s="50"/>
+      <c r="MT120" s="50"/>
+      <c r="MU120" s="50"/>
+      <c r="MV120" s="50"/>
+      <c r="MW120" s="50"/>
+      <c r="MX120" s="50"/>
+      <c r="MY120" s="50"/>
+      <c r="MZ120" s="50"/>
+      <c r="NA120" s="50"/>
+      <c r="NB120" s="50"/>
+      <c r="NC120" s="50"/>
+      <c r="ND120" s="50"/>
+      <c r="NE120" s="50"/>
+      <c r="NF120" s="50"/>
+      <c r="NG120" s="50"/>
+      <c r="NH120" s="50"/>
+      <c r="NI120" s="50"/>
+      <c r="NJ120" s="50"/>
+      <c r="NK120" s="50"/>
+      <c r="NL120" s="50"/>
+      <c r="NM120" s="50"/>
+      <c r="NN120" s="50"/>
+      <c r="NO120" s="50"/>
+      <c r="NP120" s="50"/>
+      <c r="NQ120" s="50"/>
+      <c r="NR120" s="50"/>
+      <c r="NS120" s="50"/>
+      <c r="NT120" s="50"/>
+      <c r="NU120" s="50"/>
+      <c r="NV120" s="50"/>
+      <c r="NW120" s="50"/>
+      <c r="NX120" s="50"/>
+      <c r="NY120" s="50"/>
+      <c r="NZ120" s="50"/>
+      <c r="OA120" s="50"/>
+      <c r="OB120" s="50"/>
+      <c r="OC120" s="50"/>
+      <c r="OD120" s="50"/>
+      <c r="OE120" s="50"/>
+      <c r="OF120" s="50"/>
+      <c r="OG120" s="50"/>
+      <c r="OH120" s="50"/>
+      <c r="OI120" s="50"/>
+      <c r="OJ120" s="50"/>
+      <c r="OK120" s="50"/>
+      <c r="OL120" s="50"/>
+      <c r="OM120" s="50"/>
+      <c r="ON120" s="50"/>
+      <c r="OO120" s="50"/>
+      <c r="OP120" s="50"/>
+      <c r="OQ120" s="50"/>
+      <c r="OR120" s="50"/>
+      <c r="OS120" s="50"/>
+      <c r="OT120" s="50"/>
+      <c r="OU120" s="50"/>
+      <c r="OV120" s="50"/>
+      <c r="OW120" s="50"/>
+      <c r="OX120" s="50"/>
+      <c r="OY120" s="50"/>
+      <c r="OZ120" s="50"/>
+      <c r="PA120" s="50"/>
+      <c r="PB120" s="50"/>
+      <c r="PC120" s="50"/>
+      <c r="PD120" s="50"/>
+      <c r="PE120" s="50"/>
+      <c r="PF120" s="50"/>
+      <c r="PG120" s="50"/>
+      <c r="PH120" s="50"/>
+      <c r="PI120" s="50"/>
+      <c r="PJ120" s="50"/>
+      <c r="PK120" s="50"/>
+      <c r="PL120" s="50"/>
+      <c r="PM120" s="50"/>
+      <c r="PN120" s="50"/>
+      <c r="PO120" s="50"/>
+      <c r="PP120" s="50"/>
+      <c r="PQ120" s="50"/>
+      <c r="PR120" s="50"/>
+      <c r="PS120" s="50"/>
+      <c r="PT120" s="50"/>
+      <c r="PU120" s="50"/>
+      <c r="PV120" s="50"/>
+      <c r="PW120" s="50"/>
+      <c r="PX120" s="50"/>
+      <c r="PY120" s="50"/>
+      <c r="PZ120" s="50"/>
+      <c r="QA120" s="50"/>
+      <c r="QB120" s="50"/>
+      <c r="QC120" s="50"/>
+      <c r="QD120" s="50"/>
+      <c r="QE120" s="50"/>
+      <c r="QF120" s="50"/>
+      <c r="QG120" s="50"/>
+      <c r="QH120" s="50"/>
+      <c r="QI120" s="50"/>
+      <c r="QJ120" s="50"/>
+      <c r="QK120" s="50"/>
+      <c r="QL120" s="50"/>
+      <c r="QM120" s="50"/>
+      <c r="QN120" s="50"/>
+      <c r="QO120" s="50"/>
+      <c r="QP120" s="50"/>
+      <c r="QQ120" s="50"/>
+      <c r="QR120" s="50"/>
+      <c r="QS120" s="50"/>
+      <c r="QT120" s="50"/>
+      <c r="QU120" s="50"/>
+      <c r="QV120" s="50"/>
+      <c r="QW120" s="50"/>
+      <c r="QX120" s="50"/>
+      <c r="QY120" s="50"/>
+      <c r="QZ120" s="50"/>
+      <c r="RA120" s="50"/>
+      <c r="RB120" s="50"/>
+      <c r="RC120" s="50"/>
+      <c r="RD120" s="50"/>
+      <c r="RE120" s="50"/>
+      <c r="RF120" s="50"/>
+      <c r="RG120" s="50"/>
+      <c r="RH120" s="50"/>
+      <c r="RI120" s="50"/>
+      <c r="RJ120" s="50"/>
+      <c r="RK120" s="50"/>
+      <c r="RL120" s="50"/>
+      <c r="RM120" s="50"/>
+      <c r="RN120" s="50"/>
+      <c r="RO120" s="50"/>
+      <c r="RP120" s="50"/>
+      <c r="RQ120" s="50"/>
+      <c r="RR120" s="50"/>
+      <c r="RS120" s="50"/>
+      <c r="RT120" s="50"/>
+      <c r="RU120" s="50"/>
+      <c r="RV120" s="50"/>
+      <c r="RW120" s="50"/>
+      <c r="RX120" s="50"/>
+      <c r="RY120" s="50"/>
+      <c r="RZ120" s="50"/>
+      <c r="SA120" s="50"/>
+      <c r="SB120" s="50"/>
+      <c r="SC120" s="50"/>
+      <c r="SD120" s="50"/>
+      <c r="SE120" s="50"/>
+      <c r="SF120" s="50"/>
+      <c r="SG120" s="50"/>
+      <c r="SH120" s="50"/>
+      <c r="SI120" s="50"/>
+      <c r="SJ120" s="50"/>
+      <c r="SK120" s="50"/>
+      <c r="SL120" s="50"/>
+      <c r="SM120" s="50"/>
+      <c r="SN120" s="50"/>
+      <c r="SO120" s="50"/>
+      <c r="SP120" s="50"/>
+      <c r="SQ120" s="50"/>
+      <c r="SR120" s="50"/>
+      <c r="SS120" s="50"/>
+      <c r="ST120" s="50"/>
+      <c r="SU120" s="50"/>
+      <c r="SV120" s="50"/>
+      <c r="SW120" s="50"/>
+      <c r="SX120" s="50"/>
+      <c r="SY120" s="50"/>
+      <c r="SZ120" s="50"/>
+      <c r="TA120" s="50"/>
+      <c r="TB120" s="50"/>
+      <c r="TC120" s="50"/>
+      <c r="TD120" s="50"/>
+      <c r="TE120" s="50"/>
+      <c r="TF120" s="50"/>
+      <c r="TG120" s="50"/>
+      <c r="TH120" s="50"/>
+      <c r="TI120" s="50"/>
+      <c r="TJ120" s="50"/>
+      <c r="TK120" s="50"/>
+      <c r="TL120" s="50"/>
+      <c r="TM120" s="50"/>
+      <c r="TN120" s="50"/>
+      <c r="TO120" s="50"/>
+      <c r="TP120" s="50"/>
+      <c r="TQ120" s="50"/>
+      <c r="TR120" s="50"/>
+      <c r="TS120" s="50"/>
+      <c r="TT120" s="50"/>
+      <c r="TU120" s="50"/>
+      <c r="TV120" s="50"/>
+      <c r="TW120" s="50"/>
+      <c r="TX120" s="50"/>
+      <c r="TY120" s="50"/>
+      <c r="TZ120" s="50"/>
+      <c r="UA120" s="50"/>
+      <c r="UB120" s="50"/>
+      <c r="UC120" s="50"/>
+      <c r="UD120" s="50"/>
+      <c r="UE120" s="50"/>
+      <c r="UF120" s="50"/>
+      <c r="UG120" s="50"/>
+      <c r="UH120" s="50"/>
+      <c r="UI120" s="50"/>
+      <c r="UJ120" s="50"/>
+      <c r="UK120" s="50"/>
+      <c r="UL120" s="50"/>
+      <c r="UM120" s="50"/>
+      <c r="UN120" s="50"/>
+      <c r="UO120" s="50"/>
+      <c r="UP120" s="50"/>
+      <c r="UQ120" s="50"/>
+      <c r="UR120" s="50"/>
+      <c r="US120" s="50"/>
+      <c r="UT120" s="50"/>
+      <c r="UU120" s="50"/>
+      <c r="UV120" s="50"/>
+      <c r="UW120" s="50"/>
+      <c r="UX120" s="50"/>
+      <c r="UY120" s="50"/>
+      <c r="UZ120" s="50"/>
+      <c r="VA120" s="50"/>
+      <c r="VB120" s="50"/>
+      <c r="VC120" s="50"/>
+      <c r="VD120" s="50"/>
+      <c r="VE120" s="50"/>
+      <c r="VF120" s="50"/>
+      <c r="VG120" s="50"/>
+      <c r="VH120" s="50"/>
+      <c r="VI120" s="50"/>
+      <c r="VJ120" s="50"/>
+      <c r="VK120" s="50"/>
+      <c r="VL120" s="50"/>
+      <c r="VM120" s="50"/>
+      <c r="VN120" s="50"/>
+      <c r="VO120" s="50"/>
+      <c r="VP120" s="50"/>
+      <c r="VQ120" s="50"/>
+      <c r="VR120" s="50"/>
+      <c r="VS120" s="50"/>
+      <c r="VT120" s="50"/>
+      <c r="VU120" s="50"/>
+      <c r="VV120" s="50"/>
+      <c r="VW120" s="50"/>
+      <c r="VX120" s="50"/>
+      <c r="VY120" s="50"/>
+      <c r="VZ120" s="50"/>
+      <c r="WA120" s="50"/>
+      <c r="WB120" s="50"/>
+      <c r="WC120" s="50"/>
+      <c r="WD120" s="50"/>
+      <c r="WE120" s="50"/>
+      <c r="WF120" s="50"/>
+      <c r="WG120" s="50"/>
+      <c r="WH120" s="50"/>
+      <c r="WI120" s="50"/>
+      <c r="WJ120" s="50"/>
+      <c r="WK120" s="50"/>
+      <c r="WL120" s="50"/>
+      <c r="WM120" s="50"/>
+      <c r="WN120" s="50"/>
+      <c r="WO120" s="50"/>
+      <c r="WP120" s="50"/>
+      <c r="WQ120" s="50"/>
+      <c r="WR120" s="50"/>
+      <c r="WS120" s="50"/>
+      <c r="WT120" s="50"/>
+      <c r="WU120" s="50"/>
+      <c r="WV120" s="50"/>
+      <c r="WW120" s="50"/>
+      <c r="WX120" s="50"/>
+      <c r="WY120" s="50"/>
+      <c r="WZ120" s="50"/>
+      <c r="XA120" s="50"/>
+      <c r="XB120" s="50"/>
+      <c r="XC120" s="50"/>
+      <c r="XD120" s="50"/>
+      <c r="XE120" s="50"/>
+      <c r="XF120" s="50"/>
+      <c r="XG120" s="50"/>
+      <c r="XH120" s="50"/>
+      <c r="XI120" s="50"/>
+      <c r="XJ120" s="50"/>
+      <c r="XK120" s="50"/>
+      <c r="XL120" s="50"/>
+      <c r="XM120" s="50"/>
+      <c r="XN120" s="50"/>
+      <c r="XO120" s="50"/>
+      <c r="XP120" s="50"/>
+      <c r="XQ120" s="50"/>
+      <c r="XR120" s="50"/>
+      <c r="XS120" s="50"/>
+      <c r="XT120" s="50"/>
+      <c r="XU120" s="50"/>
+      <c r="XV120" s="50"/>
+      <c r="XW120" s="50"/>
+      <c r="XX120" s="50"/>
+      <c r="XY120" s="50"/>
+      <c r="XZ120" s="50"/>
+      <c r="YA120" s="50"/>
+      <c r="YB120" s="50"/>
+      <c r="YC120" s="50"/>
+      <c r="YD120" s="50"/>
+      <c r="YE120" s="50"/>
+      <c r="YF120" s="50"/>
+      <c r="YG120" s="50"/>
+      <c r="YH120" s="50"/>
+      <c r="YI120" s="50"/>
+      <c r="YJ120" s="50"/>
+      <c r="YK120" s="50"/>
+      <c r="YL120" s="50"/>
+      <c r="YM120" s="50"/>
+      <c r="YN120" s="50"/>
+      <c r="YO120" s="50"/>
+      <c r="YP120" s="50"/>
+      <c r="YQ120" s="50"/>
+      <c r="YR120" s="50"/>
+      <c r="YS120" s="50"/>
+      <c r="YT120" s="50"/>
+      <c r="YU120" s="50"/>
+      <c r="YV120" s="50"/>
+      <c r="YW120" s="50"/>
+      <c r="YX120" s="50"/>
+      <c r="YY120" s="50"/>
+      <c r="YZ120" s="50"/>
+      <c r="ZA120" s="50"/>
+      <c r="ZB120" s="50"/>
+      <c r="ZC120" s="50"/>
+      <c r="ZD120" s="50"/>
+      <c r="ZE120" s="50"/>
+      <c r="ZF120" s="50"/>
+      <c r="ZG120" s="50"/>
+      <c r="ZH120" s="50"/>
+      <c r="ZI120" s="50"/>
+      <c r="ZJ120" s="50"/>
+      <c r="ZK120" s="50"/>
+      <c r="ZL120" s="50"/>
+      <c r="ZM120" s="50"/>
+      <c r="ZN120" s="50"/>
+      <c r="ZO120" s="50"/>
+      <c r="ZP120" s="50"/>
+      <c r="ZQ120" s="50"/>
+      <c r="ZR120" s="50"/>
+      <c r="ZS120" s="50"/>
+      <c r="ZT120" s="50"/>
+      <c r="ZU120" s="50"/>
+      <c r="ZV120" s="50"/>
+      <c r="ZW120" s="50"/>
+      <c r="ZX120" s="50"/>
+      <c r="ZY120" s="50"/>
+      <c r="ZZ120" s="50"/>
+      <c r="AAA120" s="50"/>
+      <c r="AAB120" s="50"/>
+      <c r="AAC120" s="50"/>
+      <c r="AAD120" s="50"/>
+      <c r="AAE120" s="50"/>
+      <c r="AAF120" s="50"/>
+      <c r="AAG120" s="50"/>
+      <c r="AAH120" s="50"/>
+      <c r="AAI120" s="50"/>
+      <c r="AAJ120" s="50"/>
+      <c r="AAK120" s="50"/>
+      <c r="AAL120" s="50"/>
+      <c r="AAM120" s="50"/>
+      <c r="AAN120" s="50"/>
+      <c r="AAO120" s="50"/>
+      <c r="AAP120" s="50"/>
+      <c r="AAQ120" s="50"/>
+      <c r="AAR120" s="50"/>
+      <c r="AAS120" s="50"/>
+      <c r="AAT120" s="50"/>
+      <c r="AAU120" s="50"/>
+      <c r="AAV120" s="50"/>
+      <c r="AAW120" s="50"/>
+      <c r="AAX120" s="50"/>
+      <c r="AAY120" s="50"/>
+      <c r="AAZ120" s="50"/>
+      <c r="ABA120" s="50"/>
+      <c r="ABB120" s="50"/>
+      <c r="ABC120" s="50"/>
+      <c r="ABD120" s="50"/>
+      <c r="ABE120" s="50"/>
+      <c r="ABF120" s="50"/>
+      <c r="ABG120" s="50"/>
+      <c r="ABH120" s="50"/>
+      <c r="ABI120" s="50"/>
+      <c r="ABJ120" s="50"/>
+      <c r="ABK120" s="50"/>
+      <c r="ABL120" s="50"/>
+      <c r="ABM120" s="50"/>
+      <c r="ABN120" s="50"/>
+      <c r="ABO120" s="50"/>
+      <c r="ABP120" s="50"/>
+      <c r="ABQ120" s="50"/>
+      <c r="ABR120" s="50"/>
+      <c r="ABS120" s="50"/>
+      <c r="ABT120" s="50"/>
+      <c r="ABU120" s="50"/>
+      <c r="ABV120" s="50"/>
+      <c r="ABW120" s="50"/>
+      <c r="ABX120" s="50"/>
+      <c r="ABY120" s="50"/>
+      <c r="ABZ120" s="50"/>
+      <c r="ACA120" s="50"/>
+      <c r="ACB120" s="50"/>
+      <c r="ACC120" s="50"/>
+      <c r="ACD120" s="50"/>
+      <c r="ACE120" s="50"/>
+      <c r="ACF120" s="50"/>
+      <c r="ACG120" s="50"/>
+      <c r="ACH120" s="50"/>
+      <c r="ACI120" s="50"/>
+      <c r="ACJ120" s="50"/>
+      <c r="ACK120" s="50"/>
+      <c r="ACL120" s="50"/>
+      <c r="ACM120" s="50"/>
+      <c r="ACN120" s="50"/>
+      <c r="ACO120" s="50"/>
+      <c r="ACP120" s="50"/>
+      <c r="ACQ120" s="50"/>
+      <c r="ACR120" s="50"/>
+      <c r="ACS120" s="50"/>
+      <c r="ACT120" s="50"/>
+      <c r="ACU120" s="50"/>
+      <c r="ACV120" s="50"/>
+      <c r="ACW120" s="50"/>
+      <c r="ACX120" s="50"/>
+      <c r="ACY120" s="50"/>
+      <c r="ACZ120" s="50"/>
+      <c r="ADA120" s="50"/>
+      <c r="ADB120" s="50"/>
+      <c r="ADC120" s="50"/>
+      <c r="ADD120" s="50"/>
+      <c r="ADE120" s="50"/>
+      <c r="ADF120" s="50"/>
+      <c r="ADG120" s="50"/>
+      <c r="ADH120" s="50"/>
+      <c r="ADI120" s="50"/>
+      <c r="ADJ120" s="50"/>
+      <c r="ADK120" s="50"/>
+      <c r="ADL120" s="50"/>
+      <c r="ADM120" s="50"/>
+      <c r="ADN120" s="50"/>
+      <c r="ADO120" s="50"/>
+      <c r="ADP120" s="50"/>
+      <c r="ADQ120" s="50"/>
+      <c r="ADR120" s="50"/>
+      <c r="ADS120" s="50"/>
+      <c r="ADT120" s="50"/>
+      <c r="ADU120" s="50"/>
+      <c r="ADV120" s="50"/>
+      <c r="ADW120" s="50"/>
+      <c r="ADX120" s="50"/>
+      <c r="ADY120" s="50"/>
+      <c r="ADZ120" s="50"/>
+      <c r="AEA120" s="50"/>
+      <c r="AEB120" s="50"/>
+      <c r="AEC120" s="50"/>
+      <c r="AED120" s="50"/>
+      <c r="AEE120" s="50"/>
+      <c r="AEF120" s="50"/>
+      <c r="AEG120" s="50"/>
+      <c r="AEH120" s="50"/>
+      <c r="AEI120" s="50"/>
+      <c r="AEJ120" s="50"/>
+      <c r="AEK120" s="50"/>
+      <c r="AEL120" s="50"/>
+      <c r="AEM120" s="50"/>
+      <c r="AEN120" s="50"/>
+      <c r="AEO120" s="50"/>
+      <c r="AEP120" s="50"/>
+      <c r="AEQ120" s="50"/>
+      <c r="AER120" s="50"/>
+      <c r="AES120" s="50"/>
+      <c r="AET120" s="50"/>
+      <c r="AEU120" s="50"/>
+      <c r="AEV120" s="50"/>
+      <c r="AEW120" s="50"/>
+      <c r="AEX120" s="50"/>
+      <c r="AEY120" s="50"/>
+      <c r="AEZ120" s="50"/>
+      <c r="AFA120" s="50"/>
+      <c r="AFB120" s="50"/>
+      <c r="AFC120" s="50"/>
+      <c r="AFD120" s="50"/>
+      <c r="AFE120" s="50"/>
+      <c r="AFF120" s="50"/>
+      <c r="AFG120" s="50"/>
+      <c r="AFH120" s="50"/>
+      <c r="AFI120" s="50"/>
+      <c r="AFJ120" s="50"/>
+      <c r="AFK120" s="50"/>
+      <c r="AFL120" s="50"/>
+      <c r="AFM120" s="50"/>
+      <c r="AFN120" s="50"/>
+      <c r="AFO120" s="50"/>
+      <c r="AFP120" s="50"/>
+      <c r="AFQ120" s="50"/>
+      <c r="AFR120" s="50"/>
+      <c r="AFS120" s="50"/>
+      <c r="AFT120" s="50"/>
+      <c r="AFU120" s="50"/>
+      <c r="AFV120" s="50"/>
+      <c r="AFW120" s="50"/>
+      <c r="AFX120" s="50"/>
+      <c r="AFY120" s="50"/>
+      <c r="AFZ120" s="50"/>
+      <c r="AGA120" s="50"/>
+      <c r="AGB120" s="50"/>
+      <c r="AGC120" s="50"/>
+      <c r="AGD120" s="50"/>
+      <c r="AGE120" s="50"/>
+      <c r="AGF120" s="50"/>
+      <c r="AGG120" s="50"/>
+      <c r="AGH120" s="50"/>
+      <c r="AGI120" s="50"/>
+      <c r="AGJ120" s="50"/>
+      <c r="AGK120" s="50"/>
+      <c r="AGL120" s="50"/>
+      <c r="AGM120" s="50"/>
+      <c r="AGN120" s="50"/>
+      <c r="AGO120" s="50"/>
+      <c r="AGP120" s="50"/>
+      <c r="AGQ120" s="50"/>
+      <c r="AGR120" s="50"/>
+      <c r="AGS120" s="50"/>
+      <c r="AGT120" s="50"/>
+      <c r="AGU120" s="50"/>
+      <c r="AGV120" s="50"/>
+      <c r="AGW120" s="50"/>
+      <c r="AGX120" s="50"/>
+      <c r="AGY120" s="50"/>
+      <c r="AGZ120" s="50"/>
+      <c r="AHA120" s="50"/>
+      <c r="AHB120" s="50"/>
+      <c r="AHC120" s="50"/>
+      <c r="AHD120" s="50"/>
+      <c r="AHE120" s="50"/>
+      <c r="AHF120" s="50"/>
+      <c r="AHG120" s="50"/>
+      <c r="AHH120" s="50"/>
+      <c r="AHI120" s="50"/>
+      <c r="AHJ120" s="50"/>
+      <c r="AHK120" s="50"/>
+      <c r="AHL120" s="50"/>
+      <c r="AHM120" s="50"/>
+      <c r="AHN120" s="50"/>
+      <c r="AHO120" s="50"/>
+      <c r="AHP120" s="50"/>
+      <c r="AHQ120" s="50"/>
+      <c r="AHR120" s="50"/>
+      <c r="AHS120" s="50"/>
+      <c r="AHT120" s="50"/>
+      <c r="AHU120" s="50"/>
+      <c r="AHV120" s="50"/>
+      <c r="AHW120" s="50"/>
+      <c r="AHX120" s="50"/>
+      <c r="AHY120" s="50"/>
+      <c r="AHZ120" s="50"/>
+      <c r="AIA120" s="50"/>
+      <c r="AIB120" s="50"/>
+      <c r="AIC120" s="50"/>
+      <c r="AID120" s="50"/>
+      <c r="AIE120" s="50"/>
+      <c r="AIF120" s="50"/>
+      <c r="AIG120" s="50"/>
+      <c r="AIH120" s="50"/>
+      <c r="AII120" s="50"/>
+      <c r="AIJ120" s="50"/>
+      <c r="AIK120" s="50"/>
+      <c r="AIL120" s="50"/>
+      <c r="AIM120" s="50"/>
+      <c r="AIN120" s="50"/>
+      <c r="AIO120" s="50"/>
+      <c r="AIP120" s="50"/>
+      <c r="AIQ120" s="50"/>
+      <c r="AIR120" s="50"/>
+      <c r="AIS120" s="50"/>
+      <c r="AIT120" s="50"/>
+      <c r="AIU120" s="50"/>
+      <c r="AIV120" s="50"/>
+      <c r="AIW120" s="50"/>
+      <c r="AIX120" s="50"/>
+      <c r="AIY120" s="50"/>
+      <c r="AIZ120" s="50"/>
+      <c r="AJA120" s="50"/>
+      <c r="AJB120" s="50"/>
+      <c r="AJC120" s="50"/>
+      <c r="AJD120" s="50"/>
+      <c r="AJE120" s="50"/>
+      <c r="AJF120" s="50"/>
+      <c r="AJG120" s="50"/>
+      <c r="AJH120" s="50"/>
+      <c r="AJI120" s="50"/>
+      <c r="AJJ120" s="50"/>
+      <c r="AJK120" s="50"/>
+      <c r="AJL120" s="50"/>
+      <c r="AJM120" s="50"/>
+      <c r="AJN120" s="50"/>
+      <c r="AJO120" s="50"/>
+      <c r="AJP120" s="50"/>
+      <c r="AJQ120" s="50"/>
+      <c r="AJR120" s="50"/>
+      <c r="AJS120" s="50"/>
+      <c r="AJT120" s="50"/>
+      <c r="AJU120" s="50"/>
+      <c r="AJV120" s="50"/>
+      <c r="AJW120" s="50"/>
+      <c r="AJX120" s="50"/>
+      <c r="AJY120" s="50"/>
+      <c r="AJZ120" s="50"/>
+      <c r="AKA120" s="50"/>
+      <c r="AKB120" s="50"/>
+      <c r="AKC120" s="50"/>
+      <c r="AKD120" s="50"/>
+      <c r="AKE120" s="50"/>
+      <c r="AKF120" s="50"/>
+      <c r="AKG120" s="50"/>
+      <c r="AKH120" s="50"/>
+      <c r="AKI120" s="50"/>
+      <c r="AKJ120" s="50"/>
+      <c r="AKK120" s="50"/>
+      <c r="AKL120" s="50"/>
+      <c r="AKM120" s="50"/>
+      <c r="AKN120" s="50"/>
+      <c r="AKO120" s="50"/>
+      <c r="AKP120" s="50"/>
+      <c r="AKQ120" s="50"/>
+      <c r="AKR120" s="50"/>
+      <c r="AKS120" s="50"/>
+      <c r="AKT120" s="50"/>
+      <c r="AKU120" s="50"/>
+      <c r="AKV120" s="50"/>
+      <c r="AKW120" s="50"/>
+      <c r="AKX120" s="50"/>
+      <c r="AKY120" s="50"/>
+      <c r="AKZ120" s="50"/>
+      <c r="ALA120" s="50"/>
+      <c r="ALB120" s="50"/>
+      <c r="ALC120" s="50"/>
+      <c r="ALD120" s="50"/>
+      <c r="ALE120" s="50"/>
+      <c r="ALF120" s="50"/>
+      <c r="ALG120" s="50"/>
+      <c r="ALH120" s="50"/>
+      <c r="ALI120" s="50"/>
+      <c r="ALJ120" s="50"/>
+      <c r="ALK120" s="50"/>
+      <c r="ALL120" s="50"/>
+      <c r="ALM120" s="50"/>
+      <c r="ALN120" s="50"/>
+      <c r="ALO120" s="50"/>
+      <c r="ALP120" s="50"/>
+      <c r="ALQ120" s="50"/>
+      <c r="ALR120" s="50"/>
+      <c r="ALS120" s="50"/>
+      <c r="ALT120" s="50"/>
+      <c r="ALU120" s="50"/>
+      <c r="ALV120" s="50"/>
+      <c r="ALW120" s="50"/>
+      <c r="ALX120" s="50"/>
+      <c r="ALY120" s="50"/>
+      <c r="ALZ120" s="50"/>
+      <c r="AMA120" s="50"/>
+      <c r="AMB120" s="50"/>
+      <c r="AMC120" s="50"/>
+      <c r="AMD120" s="50"/>
+      <c r="AME120" s="50"/>
+      <c r="AMF120" s="50"/>
+      <c r="AMG120" s="50"/>
+      <c r="AMH120" s="50"/>
+      <c r="AMI120" s="50"/>
+      <c r="AMJ120" s="50"/>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="49">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
@@ -32595,6 +34652,7 @@
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="A114:A116"/>
     <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A119:A120"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/takeuforward-dsa/takeuforward-dsa.xlsx
+++ b/takeuforward-dsa/takeuforward-dsa.xlsx
@@ -1321,7 +1321,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1344,6 +1344,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBF819E"/>
         <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF10D0C"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
@@ -1415,7 +1421,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1568,27 +1574,31 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1613,7 +1623,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFF10D0C"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1679,8 +1689,8 @@
   </sheetPr>
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A108" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A125" activeCellId="0" sqref="A125"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A131" activeCellId="0" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2064,7 +2074,7 @@
       </c>
     </row>
     <row r="33" s="33" customFormat="true" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="38" t="s">
         <v>82</v>
       </c>
       <c r="C33" s="34" t="s">
@@ -2076,7 +2086,7 @@
       <c r="E33" s="34"/>
     </row>
     <row r="34" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="32"/>
+      <c r="A34" s="38"/>
       <c r="C34" s="36" t="s">
         <v>85</v>
       </c>
@@ -2086,7 +2096,7 @@
       <c r="E34" s="36"/>
     </row>
     <row r="35" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="32"/>
+      <c r="A35" s="38"/>
       <c r="C35" s="36" t="s">
         <v>87</v>
       </c>
@@ -2096,7 +2106,7 @@
       <c r="E35" s="36"/>
     </row>
     <row r="36" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="32"/>
+      <c r="A36" s="38"/>
       <c r="C36" s="37" t="s">
         <v>89</v>
       </c>
@@ -2312,13 +2322,13 @@
     </row>
     <row r="57" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="32"/>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D57" s="38" t="s">
+      <c r="D57" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="E57" s="38" t="s">
+      <c r="E57" s="39" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2419,11 +2429,11 @@
     </row>
     <row r="66" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="32"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38" t="s">
+      <c r="C66" s="39"/>
+      <c r="D66" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E66" s="38"/>
+      <c r="E66" s="39"/>
     </row>
     <row r="67" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
@@ -2560,7 +2570,7 @@
       </c>
     </row>
     <row r="78" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="32" t="s">
+      <c r="A78" s="38" t="s">
         <v>195</v>
       </c>
       <c r="C78" s="34" t="s">
@@ -2574,14 +2584,14 @@
       </c>
     </row>
     <row r="79" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="32"/>
-      <c r="C79" s="38" t="s">
+      <c r="A79" s="38"/>
+      <c r="C79" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="D79" s="38" t="s">
+      <c r="D79" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="E79" s="38"/>
+      <c r="E79" s="39"/>
     </row>
     <row r="80" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
@@ -2643,11 +2653,11 @@
     </row>
     <row r="85" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="32"/>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
     </row>
     <row r="86" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
@@ -2719,33 +2729,33 @@
     </row>
     <row r="92" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="32"/>
-      <c r="C92" s="38" t="s">
+      <c r="C92" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="D92" s="38" t="s">
+      <c r="D92" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="E92" s="38"/>
-    </row>
-    <row r="93" s="40" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="39" t="s">
+      <c r="E92" s="39"/>
+    </row>
+    <row r="93" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="C93" s="41" t="s">
+      <c r="C93" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="D93" s="41" t="s">
+      <c r="D93" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="E93" s="41"/>
-    </row>
-    <row r="94" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="39"/>
-      <c r="C94" s="43" t="s">
+      <c r="E93" s="42"/>
+    </row>
+    <row r="94" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="40"/>
+      <c r="C94" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="44"/>
     </row>
     <row r="95" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="14" t="s">
@@ -2783,13 +2793,13 @@
     </row>
     <row r="98" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="32"/>
-      <c r="C98" s="38" t="s">
+      <c r="C98" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="D98" s="38" t="s">
+      <c r="D98" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="E98" s="38"/>
+      <c r="E98" s="39"/>
     </row>
     <row r="99" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="s">
@@ -2863,13 +2873,13 @@
     </row>
     <row r="105" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="32"/>
-      <c r="C105" s="38" t="s">
+      <c r="C105" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D105" s="38" t="s">
+      <c r="D105" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="E105" s="38"/>
+      <c r="E105" s="39"/>
     </row>
     <row r="106" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
@@ -2937,13 +2947,13 @@
     </row>
     <row r="111" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="32"/>
-      <c r="C111" s="38" t="s">
+      <c r="C111" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="D111" s="38" t="s">
+      <c r="D111" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="E111" s="38" t="s">
+      <c r="E111" s="39" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2972,7 +2982,7 @@
       <c r="E113" s="29"/>
     </row>
     <row r="114" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="38" t="s">
         <v>291</v>
       </c>
       <c r="C114" s="16" t="s">
@@ -2986,7 +2996,7 @@
       </c>
     </row>
     <row r="115" s="19" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="14"/>
+      <c r="A115" s="38"/>
       <c r="C115" s="18" t="s">
         <v>295</v>
       </c>
@@ -2996,7 +3006,7 @@
       <c r="E115" s="18"/>
     </row>
     <row r="116" s="21" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="14"/>
+      <c r="A116" s="38"/>
       <c r="C116" s="20" t="s">
         <v>297</v>
       </c>
@@ -3019,13 +3029,13 @@
     </row>
     <row r="118" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="32"/>
-      <c r="C118" s="38" t="s">
+      <c r="C118" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="D118" s="38" t="s">
+      <c r="D118" s="39" t="s">
         <v>303</v>
       </c>
-      <c r="E118" s="38"/>
+      <c r="E118" s="39"/>
     </row>
     <row r="119" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
@@ -3076,7 +3086,7 @@
       </c>
     </row>
     <row r="123" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="44" t="s">
+      <c r="A123" s="45" t="s">
         <v>315</v>
       </c>
       <c r="C123" s="36" t="s">
@@ -3090,7 +3100,7 @@
       </c>
     </row>
     <row r="124" s="35" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="44"/>
+      <c r="A124" s="45"/>
       <c r="C124" s="36" t="s">
         <v>319</v>
       </c>
@@ -3123,7 +3133,7 @@
       </c>
     </row>
     <row r="127" s="19" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="45" t="s">
+      <c r="A127" s="46" t="s">
         <v>327</v>
       </c>
       <c r="C127" s="19" t="s">
@@ -3137,7 +3147,7 @@
       </c>
     </row>
     <row r="128" s="19" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="45"/>
+      <c r="A128" s="46"/>
       <c r="C128" s="19" t="s">
         <v>330</v>
       </c>
@@ -3146,7 +3156,7 @@
       </c>
     </row>
     <row r="129" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="44" t="s">
+      <c r="A129" s="45" t="s">
         <v>332</v>
       </c>
       <c r="C129" s="35" t="s">
@@ -3157,7 +3167,7 @@
       </c>
     </row>
     <row r="130" s="35" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="44"/>
+      <c r="A130" s="45"/>
       <c r="C130" s="35" t="s">
         <v>335</v>
       </c>

--- a/takeuforward-dsa/takeuforward-dsa.xlsx
+++ b/takeuforward-dsa/takeuforward-dsa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="367">
   <si>
     <t xml:space="preserve">Problem</t>
   </si>
@@ -1259,6 +1259,96 @@
   </si>
   <si>
     <t xml:space="preserve">@ takes O(rupees) time and O(1)space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subset sums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ find every subset using 2 for loops and add those values which sum up as ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ do using recursion add the sum along with going through values by either choosing or not choosing this creates a recursion tree. Finally return all values when arr index is end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n2) time complexity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ the sum at index at end is found and returned.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subset -2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create all possible subset and put in a set to get unique subsets and return the  values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use a for loop in the recursion to run the index value once and when it is repeated you can skip the value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ the set takes nlogn to find equal values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ we avoid situations of duplication from the root itself takes O(2^n)time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combination sum 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ choose element from array and reduce target as recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if element greater than target then break the loop. Sort the array before recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ when target reaches zero add the combination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ now you can find every combination from the array by choosing or not choosing the element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combination sum 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ sort the question array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if element greater than target then break the loop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ now choose to select the elements which are small and move to other elements by reducing target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ get the values where target reaches zero. This can be achieved by recursion O(2^n) time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palindrome partiton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use a for loop to split strings from start to the particular index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ now you can find every palindrome partition of the given string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if the start to index is palindrome then move to index+1 as start. Start storing as well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(2^n) time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kth permutaton sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create a vector int with numbers 1 to n and multiply factorial along with it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ find a value which element can be placed first this can be identified by dividing the kth value by the occurance of the number (ie factorial of remaining )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ now we follow a pattern on permutation so we find the value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ after finding the value we remove the number from set and divide the factorial by the number of rem element. By this way we can achieve kth permutation.</t>
   </si>
 </sst>
 </file>
@@ -1421,7 +1511,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1603,10 +1693,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1687,10 +1773,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A131" activeCellId="0" sqref="A131"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A143" activeCellId="0" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3132,51 +3218,171 @@
         <v>326</v>
       </c>
     </row>
-    <row r="127" s="19" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="46" t="s">
+    <row r="127" s="17" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C127" s="19" t="s">
+      <c r="C127" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D127" s="19" t="s">
+      <c r="D127" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="E127" s="19" t="s">
+      <c r="E127" s="17" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="128" s="19" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="46"/>
-      <c r="C128" s="19" t="s">
+    <row r="128" s="21" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="14"/>
+      <c r="C128" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="D128" s="19" t="s">
+      <c r="D128" s="21" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="129" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="45" t="s">
+    <row r="129" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="C129" s="35" t="s">
+      <c r="C129" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="D129" s="35" t="s">
+      <c r="D129" s="33" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="130" s="35" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="45"/>
-      <c r="C130" s="35" t="s">
+    <row r="130" s="37" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="32"/>
+      <c r="C130" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="D130" s="35" t="s">
+      <c r="D130" s="37" t="s">
         <v>336</v>
       </c>
     </row>
+    <row r="131" s="10" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="132" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="7"/>
+      <c r="C132" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="133" s="17" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="134" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="14"/>
+      <c r="C134" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="135" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="C135" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D135" s="33" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="136" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="32"/>
+      <c r="C136" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="D136" s="37" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="137" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="138" s="13" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="7"/>
+      <c r="C138" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="139" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="140" s="21" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="14"/>
+      <c r="C140" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="141" s="33" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="C141" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="D141" s="33" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="142" s="37" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="32"/>
+      <c r="C142" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="D142" s="37" t="s">
+        <v>366</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="60">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
@@ -3231,6 +3437,12 @@
     <mergeCell ref="A125:A126"/>
     <mergeCell ref="A127:A128"/>
     <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/takeuforward-dsa/takeuforward-dsa.xlsx
+++ b/takeuforward-dsa/takeuforward-dsa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="392">
   <si>
     <t xml:space="preserve">Problem</t>
   </si>
@@ -1349,6 +1349,81 @@
   </si>
   <si>
     <t xml:space="preserve">@ after finding the value we remove the number from set and divide the factorial by the number of rem element. By this way we can achieve kth permutation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print all permutation of array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ using recursion we find every permutation of given number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ swap the element with the loop element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use a for loop for every element from current position| (curPos, i)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ run the loop untill if it reaches the end then push it to print or add in answer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nqueens problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ using recursion we find every row and column to place queen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ set the queen’s condition no attack places and if it satisfies add it and go to nxt col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ go through every col as recursion and row as for loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ the place where all condition satisfies is when the row and col reaches the end. Then store the ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudoku solver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ using recursion we find 1-9 possiblities to be placed in empty space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if it exceeds 1-9 then return false (ie backtrack) and change prev value thus by this way we achieve sudoku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if it satisfies the sudoku conditions (row, col, arr) then go into another recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ when it reaches end return true which will be sent to first without backtracking we get the ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rat in a maze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ we let the rat run through all possiblities(ie recursion values)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ when the rat reaches the destination point store the pathway in answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ we also block the edges and note down last path to avoid during way search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(4^n) time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">word break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ similar to palindrome partition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use for loop to find all possible values present in string from dict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ splice the array and find whether the value is in dictionary then move the cur index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if all exists in dictionary and string points empty return true. Or else return false</t>
   </si>
 </sst>
 </file>
@@ -1664,12 +1739,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1773,10 +1848,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A143" activeCellId="0" sqref="A143"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A95" activeCellId="0" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2160,7 +2235,7 @@
       </c>
     </row>
     <row r="33" s="33" customFormat="true" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="32" t="s">
         <v>82</v>
       </c>
       <c r="C33" s="34" t="s">
@@ -2172,7 +2247,7 @@
       <c r="E33" s="34"/>
     </row>
     <row r="34" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="38"/>
+      <c r="A34" s="32"/>
       <c r="C34" s="36" t="s">
         <v>85</v>
       </c>
@@ -2182,7 +2257,7 @@
       <c r="E34" s="36"/>
     </row>
     <row r="35" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="38"/>
+      <c r="A35" s="32"/>
       <c r="C35" s="36" t="s">
         <v>87</v>
       </c>
@@ -2192,7 +2267,7 @@
       <c r="E35" s="36"/>
     </row>
     <row r="36" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="38"/>
+      <c r="A36" s="32"/>
       <c r="C36" s="37" t="s">
         <v>89</v>
       </c>
@@ -2408,13 +2483,13 @@
     </row>
     <row r="57" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="32"/>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="D57" s="39" t="s">
+      <c r="D57" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="E57" s="39" t="s">
+      <c r="E57" s="38" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2515,11 +2590,11 @@
     </row>
     <row r="66" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="32"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39" t="s">
+      <c r="C66" s="38"/>
+      <c r="D66" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="E66" s="39"/>
+      <c r="E66" s="38"/>
     </row>
     <row r="67" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
@@ -2656,7 +2731,7 @@
       </c>
     </row>
     <row r="78" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="38" t="s">
+      <c r="A78" s="39" t="s">
         <v>195</v>
       </c>
       <c r="C78" s="34" t="s">
@@ -2670,14 +2745,14 @@
       </c>
     </row>
     <row r="79" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="38"/>
-      <c r="C79" s="39" t="s">
+      <c r="A79" s="39"/>
+      <c r="C79" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="D79" s="39" t="s">
+      <c r="D79" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="E79" s="39"/>
+      <c r="E79" s="38"/>
     </row>
     <row r="80" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
@@ -2739,11 +2814,11 @@
     </row>
     <row r="85" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="32"/>
-      <c r="C85" s="39" t="s">
+      <c r="C85" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
     </row>
     <row r="86" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
@@ -2815,13 +2890,13 @@
     </row>
     <row r="92" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="32"/>
-      <c r="C92" s="39" t="s">
+      <c r="C92" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="D92" s="39" t="s">
+      <c r="D92" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="E92" s="39"/>
+      <c r="E92" s="38"/>
     </row>
     <row r="93" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="40" t="s">
@@ -2879,13 +2954,13 @@
     </row>
     <row r="98" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="32"/>
-      <c r="C98" s="39" t="s">
+      <c r="C98" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="D98" s="39" t="s">
+      <c r="D98" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="E98" s="39"/>
+      <c r="E98" s="38"/>
     </row>
     <row r="99" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="s">
@@ -2959,13 +3034,13 @@
     </row>
     <row r="105" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="32"/>
-      <c r="C105" s="39" t="s">
+      <c r="C105" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="D105" s="39" t="s">
+      <c r="D105" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="E105" s="39"/>
+      <c r="E105" s="38"/>
     </row>
     <row r="106" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
@@ -3033,13 +3108,13 @@
     </row>
     <row r="111" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="32"/>
-      <c r="C111" s="39" t="s">
+      <c r="C111" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="D111" s="39" t="s">
+      <c r="D111" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="E111" s="39" t="s">
+      <c r="E111" s="38" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3068,7 +3143,7 @@
       <c r="E113" s="29"/>
     </row>
     <row r="114" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="38" t="s">
+      <c r="A114" s="39" t="s">
         <v>291</v>
       </c>
       <c r="C114" s="16" t="s">
@@ -3082,7 +3157,7 @@
       </c>
     </row>
     <row r="115" s="19" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="38"/>
+      <c r="A115" s="39"/>
       <c r="C115" s="18" t="s">
         <v>295</v>
       </c>
@@ -3092,7 +3167,7 @@
       <c r="E115" s="18"/>
     </row>
     <row r="116" s="21" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="38"/>
+      <c r="A116" s="39"/>
       <c r="C116" s="20" t="s">
         <v>297</v>
       </c>
@@ -3115,13 +3190,13 @@
     </row>
     <row r="118" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="32"/>
-      <c r="C118" s="39" t="s">
+      <c r="C118" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="D118" s="39" t="s">
+      <c r="D118" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="E118" s="39"/>
+      <c r="E118" s="38"/>
     </row>
     <row r="119" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
@@ -3381,8 +3456,117 @@
         <v>366</v>
       </c>
     </row>
+    <row r="143" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="144" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="7"/>
+      <c r="C144" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="D144" s="13" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="145" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E145" s="17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="146" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="14"/>
+      <c r="C146" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="D146" s="21" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="147" s="33" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="D147" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="E147" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="148" s="37" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="32"/>
+      <c r="C148" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="D148" s="37" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="149" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="150" s="13" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="7"/>
+      <c r="C150" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="151" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="152" s="21" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="14"/>
+      <c r="C152" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="65">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
@@ -3443,6 +3627,11 @@
     <mergeCell ref="A137:A138"/>
     <mergeCell ref="A139:A140"/>
     <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A151:A152"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/takeuforward-dsa/takeuforward-dsa.xlsx
+++ b/takeuforward-dsa/takeuforward-dsa.xlsx
@@ -1850,8 +1850,8 @@
   </sheetPr>
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A95" activeCellId="0" sqref="A95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A179" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A154" activeCellId="0" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3143,7 +3143,7 @@
       <c r="E113" s="29"/>
     </row>
     <row r="114" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="39" t="s">
+      <c r="A114" s="14" t="s">
         <v>291</v>
       </c>
       <c r="C114" s="16" t="s">
@@ -3157,7 +3157,7 @@
       </c>
     </row>
     <row r="115" s="19" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="39"/>
+      <c r="A115" s="14"/>
       <c r="C115" s="18" t="s">
         <v>295</v>
       </c>
@@ -3167,7 +3167,7 @@
       <c r="E115" s="18"/>
     </row>
     <row r="116" s="21" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="39"/>
+      <c r="A116" s="14"/>
       <c r="C116" s="20" t="s">
         <v>297</v>
       </c>

--- a/takeuforward-dsa/takeuforward-dsa.xlsx
+++ b/takeuforward-dsa/takeuforward-dsa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="442">
   <si>
     <t xml:space="preserve">Problem</t>
   </si>
@@ -1424,6 +1424,156 @@
   </si>
   <si>
     <t xml:space="preserve">@ if all exists in dictionary and string points empty return true. Or else return false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nthroot of integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ find manually by for loop from 2 to n value. And find out the answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use binary search to find nth root. Create a search space where the difference between low and high is 1e-6(the precision of nth root)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ to find whether mid value is greater than given n multiply the value by m times and return it to check if its greater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ set low as 1 and high as given number and start binary search if the mid value is greater than n then do high = mid, else set low=mid. At the end you will reach the value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(mlogn) time and O(1) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matrix median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ put every element to a list and sort the list in ascending order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use binary search set low as min(arr[i][0], minimum) and high as (arr[i][n], maximum) ie. Search space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ to find the count of the given value we use binary search to find the number and subtracting the position to count.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ The mid is m/2th element. Takes O(n^2)time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ now find the number of elements which are lower in specific row for all rows. If count is greater than m/2 then reduce high to mid-1 else low to mid+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ creating a specific function for finding count (upper_bound in c++). takes O(mlogn(nlogn))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find element appears once rest appear twice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use hashmap to store all value and go through map find which element has 1 count return it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use binary search to find the element. On observation sorted left side of element has order like arr[mid]==arr[mid-1] and mid is even whereas after crossing the element the arr[mid]==arr[mid+1] and mid is odd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ we can use xor property to set find array[mid+1] or mid-1 based on the even/odd of mid instead creating seperate function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ or use xor property on every array such that duplicates cancel each other and last element is found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ we use this property to find the value using binary search to check whether mid lies in left or right by adding one to next value. If true then do low = mid+1 else high = mid -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(logn) time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search element in sorted rotated array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use linear search to find the value present in it. Takes O(n) time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ we can use binary search in this case. We can confirm from observation any one of the mid left or right must be sorted if it is sorted that can be taken as a another binary search value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ or else we can find whether the target is present between its high value and middle if it does then set high = mid-1 or low = mid+1 for above condn. Takes O(logn) time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median of 2 sorted arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ merge two arrays and find the median values using formula. If even m/2th term else m/2th and m/2+1th term/2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ we split both the arrays such that arr cut1+arr cut2 = m+n+1/2th element. After splitting we compare the median 4 co ordinates such that l1&lt;=r2 and l2&lt;=r1. If true then return the m+n/2th element if odd then m+n+1/2 and +1th element by 2 as answer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ we set m+n+1/2 as total since we consider only left co ordinate to find the median and change left value accordingly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ merging takes O(n+m log(n+m)) time and extra space which is bad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if condition fails such that left &gt; right we reduce low = cut1-1 else high = cut1+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ we also set cut values as int min if no need of array and int max if right side no need. Also cut1==m?, cut2==n?. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kth element of two sorted arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ similar to the top question </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ similar to top question. But the low and high can be set by the following</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ the values take as same it takes O(n+m log n+m) time and O(1) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n+m log(m+n)) time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if low value of array is greater than arr1 then it is waste of time to search on it so we set it to max(0, k-arr1.size())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if high value of array is greater than k but we only need to traverse upto k thus min(arr2.size(), k)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allocation min pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ split the allocation by every value and find min  of them uses dp i think so.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ from min pages to max page create a search space from start page to sum of all page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ to find whether the mid page can allocate the books for students we calculate by going through all books if current page plus addon book is less then we</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n!)time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ now find mid of pages and check whether untill mid page can i allocate as per request. If it is greater than it set high = mid else set low = mid+1. Return low as answer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aggressive cows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ find every possible split and find the value with max allocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use binary search add search space as lowest dist , highest distance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ else if it cant be placed then set low = mid+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ check for the condition for mid value. If cows can be placed within the spaces then reduce the size to min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ we find the count by setting condition if no of cows placed within distance less than mid return false else true if &gt;=given mid. Takes O(nlogn)</t>
   </si>
 </sst>
 </file>
@@ -1486,7 +1636,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1502,7 +1652,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF972F"/>
-        <bgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFFFB66C"/>
       </patternFill>
     </fill>
     <fill>
@@ -1521,6 +1671,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBBE33D"/>
         <bgColor rgb="FFD4EA6B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB66C"/>
+        <bgColor rgb="FFFF972F"/>
       </patternFill>
     </fill>
   </fills>
@@ -1586,7 +1742,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1769,6 +1925,26 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1821,7 +1997,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FFBBE33D"/>
@@ -1848,10 +2024,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A179" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A154" activeCellId="0" sqref="A154"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3565,8 +3741,208 @@
         <v>391</v>
       </c>
     </row>
+    <row r="153" s="33" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="D153" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="E153" s="33" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="154" s="37" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="32"/>
+      <c r="C154" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="D154" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="E154" s="37" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="155" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="156" s="13" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="7"/>
+      <c r="C156" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="D156" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="E156" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="157" s="17" customFormat="true" ht="35.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="D157" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="E157" s="17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="158" s="21" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="14"/>
+      <c r="C158" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="E158" s="21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="159" s="33" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="C159" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="D159" s="33" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="160" s="37" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="32"/>
+      <c r="D160" s="37" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="161" s="10" customFormat="true" ht="35.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="162" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="7"/>
+      <c r="C162" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="E162" s="13" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="163" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="C163" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="D163" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="E163" s="47" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="164" s="48" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="46"/>
+      <c r="C164" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="D164" s="48" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="165" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="46"/>
+      <c r="C165" s="50"/>
+      <c r="D165" s="49" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="166" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A166" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="C166" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="D166" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="E166" s="33" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="167" s="37" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="32"/>
+      <c r="C167" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="D167" s="37" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="168" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="169" s="13" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="7"/>
+      <c r="C169" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D169" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="E169" s="13" t="s">
+        <v>441</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="73">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
@@ -3632,6 +4008,14 @@
     <mergeCell ref="A147:A148"/>
     <mergeCell ref="A149:A150"/>
     <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A168:A169"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/takeuforward-dsa/takeuforward-dsa.xlsx
+++ b/takeuforward-dsa/takeuforward-dsa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="480">
   <si>
     <t xml:space="preserve">Problem</t>
   </si>
@@ -1574,6 +1574,150 @@
   </si>
   <si>
     <t xml:space="preserve">@ we find the count by setting condition if no of cows placed within distance less than mid return false else true if &gt;=given mid. Takes O(nlogn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max/min heap impl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ heap implementation using arrays.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ for queue implementation use 2 ptr front and rear for insert and pop return arr[front] for top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ for stack is simple to set on arrays. Add elements at last at pop make 0 then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use i%n to find front and rear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ reduce size; for top return arr[size]. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(1) for insert and delete.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kth largest element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ bruteforce is to sort the array and return kth element which is kth max </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use a max heap and pop the top untill k then return the top which is answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ maybe set required since duplication can be present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(nlogn) time and O(n) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max sum combination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ find every possible sum and sort based on result then return result upto k as ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use a heap to store all the sum values and pop untill k return the result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(nlogn) time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find median from datastream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ this question is hard to understand but yes solvable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ to sort the array on insert as well as find median in O(1)time a heap datastructure is vital and helpful here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if the total array is set to odd then we can return the max heap’s top value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create a min heap and maxheap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ so we use min arr for minimum among the maximums and max array for maximum among the minimums (important keypoint)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ or else we find the median by max heap top+min heap top / 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ median is the middle value of sorted array(question is unsorted)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ consider all elements are smaller and push in max heap. If size of max heap is greater than min heap then pop the max value and push to minheap.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ the main takeaway is that the maxheap size must be less than minheap size (diff b/w them should be 0 or 1) maxheap&gt;minheap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge k sorted arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ its merge sort algorithm but implemented in bad way so bad it is confusing too</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ now pop the max heap and store in ans check which element is poped and increase its ptr+1 continue this until it reaches empty(both heap and arrptr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ best case can be 3 or more array simultaneous calculation i think so</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ for all 3 arrays this is procedure</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">@ use 3 ptr and store the array 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> value to maxheap</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">k most frequent elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create a hashmap to store all count of particular element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ the top pair count and the element is returned which is ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create up a pair and put it in a heap based on count.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ time complexity O(nlogn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ pop the maxheap untill k and return the top pair</t>
   </si>
 </sst>
 </file>
@@ -1636,7 +1780,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1659,12 +1803,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBF819E"/>
         <bgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF10D0C"/>
-        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
@@ -1742,7 +1880,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1903,6 +2041,26 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1911,7 +2069,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1919,31 +2077,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1960,7 +2094,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFF10D0C"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -2024,10 +2158,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A170" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A187" activeCellId="0" sqref="A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2907,7 +3041,7 @@
       </c>
     </row>
     <row r="78" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="39" t="s">
+      <c r="A78" s="32" t="s">
         <v>195</v>
       </c>
       <c r="C78" s="34" t="s">
@@ -2921,7 +3055,7 @@
       </c>
     </row>
     <row r="79" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="39"/>
+      <c r="A79" s="32"/>
       <c r="C79" s="38" t="s">
         <v>199</v>
       </c>
@@ -3074,25 +3208,25 @@
       </c>
       <c r="E92" s="38"/>
     </row>
-    <row r="93" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="40" t="s">
+    <row r="93" s="40" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="C93" s="42" t="s">
+      <c r="C93" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="D93" s="42" t="s">
+      <c r="D93" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="E93" s="42"/>
-    </row>
-    <row r="94" s="43" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="40"/>
-      <c r="C94" s="44" t="s">
+      <c r="E93" s="41"/>
+    </row>
+    <row r="94" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="39"/>
+      <c r="C94" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="D94" s="44"/>
-      <c r="E94" s="44"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
     </row>
     <row r="95" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="14" t="s">
@@ -3423,7 +3557,7 @@
       </c>
     </row>
     <row r="123" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="45" t="s">
+      <c r="A123" s="44" t="s">
         <v>315</v>
       </c>
       <c r="C123" s="36" t="s">
@@ -3437,7 +3571,7 @@
       </c>
     </row>
     <row r="124" s="35" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="45"/>
+      <c r="A124" s="44"/>
       <c r="C124" s="36" t="s">
         <v>319</v>
       </c>
@@ -3862,33 +3996,33 @@
         <v>422</v>
       </c>
     </row>
-    <row r="163" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="46" t="s">
+    <row r="163" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="45" t="s">
         <v>423</v>
       </c>
-      <c r="C163" s="47" t="s">
+      <c r="C163" s="46" t="s">
         <v>424</v>
       </c>
-      <c r="D163" s="47" t="s">
+      <c r="D163" s="46" t="s">
         <v>425</v>
       </c>
-      <c r="E163" s="47" t="s">
+      <c r="E163" s="46" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="164" s="48" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="46"/>
-      <c r="C164" s="48" t="s">
+    <row r="164" s="47" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="45"/>
+      <c r="C164" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="D164" s="48" t="s">
+      <c r="D164" s="47" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="165" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="46"/>
-      <c r="C165" s="50"/>
-      <c r="D165" s="49" t="s">
+    <row r="165" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="45"/>
+      <c r="C165" s="49"/>
+      <c r="D165" s="48" t="s">
         <v>429</v>
       </c>
     </row>
@@ -3941,8 +4075,170 @@
         <v>441</v>
       </c>
     </row>
+    <row r="170" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="45" t="s">
+        <v>442</v>
+      </c>
+      <c r="C170" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="D170" s="46" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="171" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="45"/>
+      <c r="C171" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="D171" s="47" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="172" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="45"/>
+      <c r="C172" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="D172" s="48" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="173" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="C173" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="D173" s="33" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="174" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="32"/>
+      <c r="C174" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="D174" s="37" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="175" s="40" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="39" t="s">
+        <v>454</v>
+      </c>
+      <c r="C175" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="D175" s="40" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="176" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="39"/>
+      <c r="C176" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="D176" s="42" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="177" s="46" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="45" t="s">
+        <v>458</v>
+      </c>
+      <c r="C177" s="46" t="s">
+        <v>459</v>
+      </c>
+      <c r="D177" s="46" t="s">
+        <v>460</v>
+      </c>
+      <c r="E177" s="46" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="178" s="47" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="45"/>
+      <c r="C178" s="47" t="s">
+        <v>462</v>
+      </c>
+      <c r="D178" s="47" t="s">
+        <v>463</v>
+      </c>
+      <c r="E178" s="47" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="179" s="48" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="45"/>
+      <c r="C179" s="48" t="s">
+        <v>465</v>
+      </c>
+      <c r="D179" s="48" t="s">
+        <v>466</v>
+      </c>
+      <c r="E179" s="48" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="180" s="33" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="C180" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="D180" s="33" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="181" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="32"/>
+      <c r="C181" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="D181" s="35" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="182" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="32"/>
+      <c r="C182" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="D182" s="37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="183" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="184" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="7"/>
+      <c r="C184" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="185" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="7"/>
+      <c r="C185" s="13" t="s">
+        <v>479</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="73">
+  <mergeCells count="79">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
@@ -4016,6 +4312,12 @@
     <mergeCell ref="A163:A165"/>
     <mergeCell ref="A166:A167"/>
     <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="A183:A185"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/takeuforward-dsa/takeuforward-dsa.xlsx
+++ b/takeuforward-dsa/takeuforward-dsa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="609">
   <si>
     <t xml:space="preserve">Problem</t>
   </si>
@@ -1718,6 +1718,543 @@
   </si>
   <si>
     <t xml:space="preserve">@ pop the maxheap untill k and return the top pair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implement stack using arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create a array and push the values to the end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ for removal set the topmost value to -1 and reduce ptr and size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ maintain size and a pointer to note down the last position of add/removal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n) space and O(1)time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if user asks specific method add the pointer and size to add the value inside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implement queue using arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create a array and 2 ptr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ for removal make ptr1 value as -1 and add ptr1 by 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ user ptr1 as start node and ptr2 as end node as for a queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ there will be an edge case where ptr1 gets till size and ptr2 is at max size in these cases we can tackle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ when a user add a value increase ptr 2 and set value for it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ by using modulo of the given capacity of the queue such that ptr1-ptr2 == size. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">implement stack using queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ insert the value in the queue at back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n) for every removal 2 times to rotate and rerotate the queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ during removal rotate the entire queue by size-1 times and then return the value which is LIFO in nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implement queue using stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ during insert push the values in stack 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(2n) time and O(2n) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ when on removal push every element from stack1 to stack 2 unitll it is empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ when it is empty remove stack 2 top which is the first inserted value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced paranthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create a stack to store the open bracket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if stack is empty then it is balanced or else unbalanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if close bracket occurs then pop the open bracket and go to nxt value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if stack is empty before end bracket then return unbalanced/false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ then continue till the end of string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">next greater element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ using a monotonically greater stack from behind 2n </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n) time an dO(n) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ we can find the greater element from behind to start such that we find the element very greater from the index </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort a stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ we can sort a stack using recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ push the value in the stack as ordered way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create a top element n and go on recursion untill stack is empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ check whether the top value is less than the nth value of inserting stack if yes then push it or else </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create recursion on this stack untill the top value is set to its correct position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">next smaller element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create a stack and start iteration from 0 to end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ now it will form next smaller element based on the current index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ now store the elements in the stack as per small order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if cur element is greater than stack then remove all element greater than start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRU Cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ lru cache is a important problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ since it is the condition of the cache to be remembered for calling it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ we have to create a hashmap and a doubly linked list fot this </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ it takes O(1) time and O(n) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ in get method if map doesnt contain value return -1 or return the map value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ similarly for insert create a new node and store in the head. If overflow then remove the tail value LRU i mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ but for every calling of get method you have to send the node to the start </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest rectangle in histogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create a stack to store the next smaller value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ thus we return the diff multiplied by len to give max area of rectangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ after going through entire array from reverse find the smaller value in both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(3n) time and O(n) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ the difference b/w both direction is the rectangle size of that particular len</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sliding window maximum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create a queue to store the value if the ptr contain size of window-1 then </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n) time and O(n) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ subtract and remove the last value by popping the first. A deque will be useful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implement min stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@  use sort stack in the insertion of the values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ everything similar to stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotten oranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use a queue to store the next values and run loop untill empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ now the queue is pushed and rotten one is deleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ add timer when fresh oranges are present near rotten ones after every addn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ run this same  loop untill queue becomes empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ return the max time among the finding calculation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock span problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create a pair of stack and store the values and count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ return the addn of every stock span</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if top value of stack is less than the stack new value add it to the new pair +1 and go on the path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find maximum and minimum of every window size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use queue and stack problem in this question sliding window and for loops for every window size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n*n) time and O(n) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">celebrity problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create a stack and store every index of the array find whether top and top-1 values [0][1] and [1][0] contain 1 if it contains then add that into stack </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(m+n) time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ continue this untill you find a celebrity who has 0 in everything </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reverse words in string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create 2 ptr values start and end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ now push the substring to a string ans and append the substring like ans = substr+ans</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">@ move start clear out the spaces before start of the 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> word</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">@ thus we can reverse the entire string and get the answer </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">@ then set 2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ptr at that letter and go untill a space is occured</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">longest palindrome in string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ go through entire array and select a particular string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ run 2 while loops as even and odd calcuate the max palindrome value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ then return the max which is the answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roman to integer and viceversa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ to calculate roman to int we create hashmap for roman literals and go through array from start </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n) and O(1) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ when the s[i+1] is greater than s[i] then minus that particular value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implement atoi/strstr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ remove spaces before start of the string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ thus we arrive at the current value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ check if only string in between 0-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ to avoid overflow of number INTMAX we divide intmax/10 and check whether cur is greater than intmax return it or else if nxt number is close to remainder of intmax return it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ then we can find the number by calculation *10+cur value-’0’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ check for the symbol before the value too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longest common prefix</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">@ set 2 ptr from 0</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> arr and 1-nth aray</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create common prefix by checking untill where it is same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use a for loop from 1 to n and check for same prefixes using 2 ptr approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ finally u will arrive at a value where both will be same </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ return it that will be the answer(takes O(n) time and O(n) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check for anagrams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create a 256 size array for every character in the string with boolean values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ now in the second string continue till the end of the array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(256*3) time and space</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">@ go through 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> array and add 1 to it</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">@ now u have to subtract the values.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">@ after going through every array adding  1 to found characters get to 2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> string</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">@ run another loop to find the arr has 0 in it if it is continued to be 0 return true orelse return false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count and say</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ from string starting from 3 to n set start as 11 and add $ to the end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n*m) time ans O(n) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ now start counting . If the cur string is not equal to str-1 then add it to new tmp then add count and value as string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ thus after each iteration move new tmp as ans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">compare version number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ create a integer n and m for both version of string to be compared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ if at all anything greater and less than return the value accordingly or else continue to nxt value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ continue untill the string comes to end </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ find the number before each dot in the string then compare both numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ 0 before the number  values nothing in here </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ return the values accordingly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ takes O(n*m) time and space</t>
   </si>
 </sst>
 </file>
@@ -2158,10 +2695,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F185"/>
+  <dimension ref="A1:F250"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A170" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A187" activeCellId="0" sqref="A187"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A230" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A251" activeCellId="0" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4237,8 +4774,581 @@
         <v>479</v>
       </c>
     </row>
+    <row r="186" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="45" t="s">
+        <v>480</v>
+      </c>
+      <c r="C186" s="46" t="s">
+        <v>481</v>
+      </c>
+      <c r="D186" s="46" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="187" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="45"/>
+      <c r="C187" s="47" t="s">
+        <v>483</v>
+      </c>
+      <c r="D187" s="47" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="188" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="45"/>
+      <c r="C188" s="48" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="189" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="C189" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="D189" s="33" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="190" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="32"/>
+      <c r="C190" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="D190" s="35" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="191" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="32"/>
+      <c r="C191" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="D191" s="37" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="192" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="193" s="13" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="7"/>
+      <c r="C193" s="13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="194" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="45" t="s">
+        <v>497</v>
+      </c>
+      <c r="C194" s="46" t="s">
+        <v>498</v>
+      </c>
+      <c r="D194" s="46" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="195" s="47" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="45"/>
+      <c r="C195" s="47" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="196" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="45"/>
+      <c r="C196" s="48" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="197" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="C197" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="D197" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="198" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="32"/>
+      <c r="C198" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="D198" s="35" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="199" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="32"/>
+      <c r="C199" s="37" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="200" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="201" s="13" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="7"/>
+      <c r="C201" s="13" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="202" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A202" s="45" t="s">
+        <v>512</v>
+      </c>
+      <c r="C202" s="46" t="s">
+        <v>513</v>
+      </c>
+      <c r="D202" s="46" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="203" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="45"/>
+      <c r="C203" s="47" t="s">
+        <v>515</v>
+      </c>
+      <c r="D203" s="47" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="204" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="45"/>
+      <c r="D204" s="48" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="205" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A205" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="C205" s="33" t="s">
+        <v>519</v>
+      </c>
+      <c r="D205" s="33" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="206" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="32"/>
+      <c r="C206" s="35" t="s">
+        <v>521</v>
+      </c>
+      <c r="D206" s="35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="207" s="37" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="32"/>
+      <c r="C207" s="37" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="208" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A208" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="209" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="7"/>
+      <c r="C209" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="D209" s="12" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="210" s="12" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="7"/>
+      <c r="C210" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D210" s="12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="211" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="7"/>
+      <c r="C211" s="13" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="212" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A212" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="C212" s="46" t="s">
+        <v>532</v>
+      </c>
+      <c r="D212" s="46" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="213" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="45"/>
+      <c r="C213" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="D213" s="47" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="214" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="45"/>
+      <c r="C214" s="48" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="215" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A215" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="C215" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="D215" s="33" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="216" s="37" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="32"/>
+      <c r="C216" s="37" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="217" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A217" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="D217" s="10" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="218" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="7"/>
+      <c r="C218" s="13" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="219" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A219" s="45" t="s">
+        <v>544</v>
+      </c>
+      <c r="C219" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D219" s="46" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="220" s="47" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="45"/>
+      <c r="C220" s="47" t="s">
+        <v>547</v>
+      </c>
+      <c r="D220" s="47" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="221" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="45"/>
+      <c r="D221" s="48" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="222" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A222" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="C222" s="33" t="s">
+        <v>551</v>
+      </c>
+      <c r="D222" s="33" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="223" s="37" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="32"/>
+      <c r="C223" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="D223" s="37" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="224" s="10" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A224" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="225" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="7"/>
+      <c r="C225" s="13" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="226" s="46" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A226" s="45" t="s">
+        <v>557</v>
+      </c>
+      <c r="C226" s="46" t="s">
+        <v>558</v>
+      </c>
+      <c r="D226" s="46" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="227" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="45"/>
+      <c r="C227" s="48" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="228" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A228" s="32" t="s">
+        <v>561</v>
+      </c>
+      <c r="C228" s="33" t="s">
+        <v>562</v>
+      </c>
+      <c r="D228" s="33" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="229" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="32"/>
+      <c r="C229" s="35" t="s">
+        <v>564</v>
+      </c>
+      <c r="D229" s="35" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="230" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="32"/>
+      <c r="C230" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="D230" s="37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="231" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A231" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="D231" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="232" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="7"/>
+      <c r="C232" s="12" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="233" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="7"/>
+      <c r="C233" s="13" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="234" s="46" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A234" s="45" t="s">
+        <v>571</v>
+      </c>
+      <c r="C234" s="46" t="s">
+        <v>572</v>
+      </c>
+      <c r="D234" s="46" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="235" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="45"/>
+      <c r="C235" s="48" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="236" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A236" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="C236" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="D236" s="33" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="237" s="35" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="32"/>
+      <c r="C237" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="D237" s="35" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="238" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="32"/>
+      <c r="C238" s="37" t="s">
+        <v>580</v>
+      </c>
+      <c r="D238" s="37" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="239" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A239" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="D239" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="240" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="7"/>
+      <c r="C240" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="D240" s="12" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="241" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="7"/>
+      <c r="D241" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="242" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A242" s="45" t="s">
+        <v>588</v>
+      </c>
+      <c r="C242" s="46" t="s">
+        <v>589</v>
+      </c>
+      <c r="D242" s="46" t="s">
+        <v>590</v>
+      </c>
+      <c r="E242" s="46" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="243" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="45"/>
+      <c r="C243" s="47" t="s">
+        <v>592</v>
+      </c>
+      <c r="D243" s="47" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="244" s="48" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="45"/>
+      <c r="C244" s="48" t="s">
+        <v>594</v>
+      </c>
+      <c r="D244" s="48" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="245" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A245" s="32" t="s">
+        <v>596</v>
+      </c>
+      <c r="C245" s="33" t="s">
+        <v>597</v>
+      </c>
+      <c r="D245" s="33" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="246" s="35" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="32"/>
+      <c r="C246" s="35" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="247" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="32"/>
+      <c r="C247" s="37" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="248" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A248" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="D248" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="E248" s="10" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="249" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="7"/>
+      <c r="C249" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="D249" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="E249" s="12" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="250" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="7"/>
+      <c r="E250" s="13" t="s">
+        <v>608</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="103">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
@@ -4318,6 +5428,30 @@
     <mergeCell ref="A177:A179"/>
     <mergeCell ref="A180:A182"/>
     <mergeCell ref="A183:A185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="A194:A196"/>
+    <mergeCell ref="A197:A199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="A205:A207"/>
+    <mergeCell ref="A208:A211"/>
+    <mergeCell ref="A212:A214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="A219:A221"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="A228:A230"/>
+    <mergeCell ref="A231:A233"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="A236:A238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A242:A244"/>
+    <mergeCell ref="A245:A247"/>
+    <mergeCell ref="A248:A250"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/takeuforward-dsa/takeuforward-dsa.xlsx
+++ b/takeuforward-dsa/takeuforward-dsa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="607">
   <si>
     <t xml:space="preserve">Problem</t>
   </si>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">@ swap i and j and reverse from j+1</t>
   </si>
   <si>
-    <t xml:space="preserve">@ we reverse the values after j+1 to descending so it can be greater than que but smaller than ans(ie next perm)</t>
+    <t xml:space="preserve">@ we reverse the values after j+1 to descending so it can be greater than que but smaller than ans(i.e. next perm)</t>
   </si>
   <si>
     <t xml:space="preserve">kandane algorithm</t>
@@ -217,7 +217,7 @@
     <t xml:space="preserve">@ create a max_profit which calculates max of profits made</t>
   </si>
   <si>
-    <t xml:space="preserve">@ if buy is more than sell change buy price as sell price( ie change pointer)</t>
+    <t xml:space="preserve">@ if buy is more than sell change buy price as sell price( i.e. change pointer)</t>
   </si>
   <si>
     <t xml:space="preserve">rotate matrix</t>
@@ -226,7 +226,7 @@
     <t xml:space="preserve">@ create a new matrix and store the values in rotated manner </t>
   </si>
   <si>
-    <t xml:space="preserve">@ transpose matrix (ie swap nums[i][j], nums[j][i])</t>
+    <t xml:space="preserve">@ transpose matrix (i.e. swap nums[i][j], nums[j][i])</t>
   </si>
   <si>
     <t xml:space="preserve">@ transpose and reverse rotates the array by 90*</t>
@@ -247,25 +247,25 @@
     <t xml:space="preserve">@ loop through the array</t>
   </si>
   <si>
-    <t xml:space="preserve">@ tempInterval second index = max(loop second index, tempInterval second index)</t>
+    <t xml:space="preserve">@ temp Interval second index = max(loop second index, temp Interval second index)</t>
   </si>
   <si>
     <t xml:space="preserve">@ take two for loops and loop through entire array for each one interval</t>
   </si>
   <si>
-    <t xml:space="preserve">@ create a tempInterval as interval[0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ else then push to new ans array and tempIndex = current interval</t>
+    <t xml:space="preserve">@ create a temp Interval as interval[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ else then push to new ans array and temp Index = current interval</t>
   </si>
   <si>
     <t xml:space="preserve">@ takes O(n2) time and O(n) space</t>
   </si>
   <si>
-    <t xml:space="preserve">@ if tempInterval second interval &gt; looping value first index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ push last tempIndex to ans then return ans</t>
+    <t xml:space="preserve">@ if temp Interval second interval &gt; looping value first index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ push last temp Index to ans then return ans</t>
   </si>
   <si>
     <t xml:space="preserve">merge sorted arrays</t>
@@ -331,7 +331,7 @@
     <t xml:space="preserve">@ sort the array and iterate through arr</t>
   </si>
   <si>
-    <t xml:space="preserve">@ create a slow ptr and fast ptr(ie slow travels 1 but fast travels 2)</t>
+    <t xml:space="preserve">@ create a slow ptr and fast ptr(i.e. slow travels 1 but fast travels 2)</t>
   </si>
   <si>
     <t xml:space="preserve">@ if val[i] == val[i+1] then return duplicate value</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">@ map with 0 is missing and with 2 is repeating number</t>
   </si>
   <si>
-    <t xml:space="preserve">@ xor method is there but rare case</t>
+    <t xml:space="preserve">@ XOR method is there but rare case</t>
   </si>
   <si>
     <t xml:space="preserve">inversion of array</t>
@@ -409,7 +409,7 @@
     <t xml:space="preserve">@ in this way we can achieve count using O(n logn)</t>
   </si>
   <si>
-    <t xml:space="preserve">search in 2d matrix</t>
+    <t xml:space="preserve">search in 2d matrix(sorted rows)</t>
   </si>
   <si>
     <t xml:space="preserve">@ loop through entire array and search for the element</t>
@@ -418,7 +418,7 @@
     <t xml:space="preserve">@ use binary search in this matrix</t>
   </si>
   <si>
-    <t xml:space="preserve">@ you can change the binarysearch_index  by using divide and remainder of index with columns</t>
+    <t xml:space="preserve">@ you can change the binary search_index  by using divide and remainder of index with columns</t>
   </si>
   <si>
     <t xml:space="preserve">@ row = index/nColumns, col = index%nColumns</t>
@@ -448,7 +448,7 @@
     <t xml:space="preserve">@ use hashmap on array element find the count</t>
   </si>
   <si>
-    <t xml:space="preserve">@ use moore voting algo</t>
+    <t xml:space="preserve">@ use Moore voting algo</t>
   </si>
   <si>
     <t xml:space="preserve">@ set count++ if element equals to arr element</t>
@@ -517,7 +517,7 @@
     <t xml:space="preserve">@ we can simply find by m+n-2Cm-1 or m+n-2Cn-1</t>
   </si>
   <si>
-    <t xml:space="preserve">@ takes O(nxm) time</t>
+    <t xml:space="preserve">@ takes O(nm) time</t>
   </si>
   <si>
     <t xml:space="preserve">@ use for loop to find ncr</t>
@@ -529,9 +529,6 @@
     <t xml:space="preserve">@ use 2 for loops to satisfy given condition</t>
   </si>
   <si>
-    <t xml:space="preserve">@ use mergesort algorithm</t>
-  </si>
-  <si>
     <t xml:space="preserve">@ when the array is splitted use the condition to calculate the count of array</t>
   </si>
   <si>
@@ -544,7 +541,7 @@
     <t xml:space="preserve">@ use 2 for loops and find all possible sum value</t>
   </si>
   <si>
-    <t xml:space="preserve">@ create a hashmap put condition first</t>
+    <t xml:space="preserve">@ create a hash map put condition first</t>
   </si>
   <si>
     <t xml:space="preserve">@ if (arr[target-arrval]!=end)ans.push</t>
@@ -625,7 +622,7 @@
     <t xml:space="preserve">@ use 2 for loop to find all possible subarr and find xor val</t>
   </si>
   <si>
-    <t xml:space="preserve">@ use prefix xor and store the values and count of appearance as key</t>
+    <t xml:space="preserve">@ use prefix XOR and store the values and count of appearance as key</t>
   </si>
   <si>
     <t xml:space="preserve">@ the target subarr in arr</t>
@@ -652,7 +649,7 @@
     <t xml:space="preserve">@ takes O(n2) and O(n)space</t>
   </si>
   <si>
-    <t xml:space="preserve">@ if right val found on set then move left untill repeatation is not found and erase values at l ptr too</t>
+    <t xml:space="preserve">@ if right val found on set then move left until repeatation is not found and erase values at l ptr too</t>
   </si>
   <si>
     <t xml:space="preserve">reverse a linked list</t>
@@ -661,13 +658,13 @@
     <t xml:space="preserve">@ no greedy soln</t>
   </si>
   <si>
-    <t xml:space="preserve">@ loop through untill next is null</t>
+    <t xml:space="preserve">@ loop through until next is null</t>
   </si>
   <si>
     <t xml:space="preserve">@ use 3 pointers for current, previous, next</t>
   </si>
   <si>
-    <t xml:space="preserve">@ change pointer of current to prev and change all values to next ptr cur=nxt,prev=cur</t>
+    <t xml:space="preserve">@ change pointer of current to perv and change all values to next ptr cur=nxt,prev=cur</t>
   </si>
   <si>
     <t xml:space="preserve">@ takes O(n/2) time</t>
@@ -679,13 +676,13 @@
     <t xml:space="preserve">@ find n by traversion through whole list</t>
   </si>
   <si>
-    <t xml:space="preserve">@use 2 pointer</t>
+    <t xml:space="preserve">use 2 pointer</t>
   </si>
   <si>
     <t xml:space="preserve">@ then n/2 it and go untill n/2 then we reach the ans</t>
   </si>
   <si>
-    <t xml:space="preserve">@slow pointer moves once and fast ptr moves twice as slow so when fast reach n slow is at n/2</t>
+    <t xml:space="preserve">slow pointer moves once and fast ptr moves twice as slow so when fast reach n slow is at n/2</t>
   </si>
   <si>
     <t xml:space="preserve">Merge 2 sorted linked list</t>
@@ -879,7 +876,7 @@
     <t xml:space="preserve">@ use hashmap to store nodes and when repeated node is present return it</t>
   </si>
   <si>
-    <t xml:space="preserve">@ floyd cycle detection algo</t>
+    <t xml:space="preserve">@ Floyd cycle detection algo</t>
   </si>
   <si>
     <t xml:space="preserve">@ O(n)time and O(1) space</t>
@@ -1018,7 +1015,7 @@
     <t xml:space="preserve">@ run fast untill arr[slow] != arr[fast]</t>
   </si>
   <si>
-    <t xml:space="preserve">@ run untill end of array takes O(n)time and O(1) space</t>
+    <t xml:space="preserve">@ run until end of array takes O(n)time and O(1) space</t>
   </si>
   <si>
     <t xml:space="preserve"> Max consecutive ones</t>
@@ -1027,13 +1024,13 @@
     <t xml:space="preserve">@ use count to add if 1 is present</t>
   </si>
   <si>
-    <t xml:space="preserve">@ use max to find maximun count by comparing ans to count </t>
+    <t xml:space="preserve">@ use max to find maximum count by comparing ans to count </t>
   </si>
   <si>
     <t xml:space="preserve">@ if 0 is present then reset count to 0</t>
   </si>
   <si>
-    <t xml:space="preserve">@ takes O(n)time andO(1) space</t>
+    <t xml:space="preserve">@ takes O(n)time and O(1) space</t>
   </si>
   <si>
     <t xml:space="preserve">n meetings in one room (also activity selection similar approach)</t>
@@ -1237,7 +1234,7 @@
     <t xml:space="preserve">@ in this specific problem the sort function for this values must be based on value per weight</t>
   </si>
   <si>
-    <t xml:space="preserve">@ if current weight added to total is less then or equal to add the enitre weight and value</t>
+    <t xml:space="preserve">@ if current weight added to total is less then or equal to add the entire weight and value</t>
   </si>
   <si>
     <t xml:space="preserve">@ after sorting based on value per weight then add up the weight to get the soln</t>
@@ -1252,7 +1249,7 @@
     <t xml:space="preserve">@ sort the array in descending order</t>
   </si>
   <si>
-    <t xml:space="preserve">@ continue this untill it reaches 0</t>
+    <t xml:space="preserve">@ continue this until it reaches 0</t>
   </si>
   <si>
     <t xml:space="preserve">@ now find if arr notes is less than given rupee add coin and reduce that rupees</t>
@@ -1342,7 +1339,7 @@
     <t xml:space="preserve">@ create a vector int with numbers 1 to n and multiply factorial along with it</t>
   </si>
   <si>
-    <t xml:space="preserve">@ find a value which element can be placed first this can be identified by dividing the kth value by the occurance of the number (ie factorial of remaining )</t>
+    <t xml:space="preserve">@ find a value which element can be placed first this can be identified by dividing the kth value by the occurrence of the number (i.e. factorial of remaining )</t>
   </si>
   <si>
     <t xml:space="preserve">@ now we follow a pattern on permutation so we find the value</t>
@@ -1363,7 +1360,7 @@
     <t xml:space="preserve">@ use a for loop for every element from current position| (curPos, i)</t>
   </si>
   <si>
-    <t xml:space="preserve">@ run the loop untill if it reaches the end then push it to print or add in answer.</t>
+    <t xml:space="preserve">@ run the loop until if it reaches the end then push it to print or add in answer.</t>
   </si>
   <si>
     <t xml:space="preserve">Nqueens problem</t>
@@ -1387,7 +1384,7 @@
     <t xml:space="preserve">@ using recursion we find 1-9 possiblities to be placed in empty space</t>
   </si>
   <si>
-    <t xml:space="preserve">@ if it exceeds 1-9 then return false (ie backtrack) and change prev value thus by this way we achieve sudoku</t>
+    <t xml:space="preserve">@ if it exceeds 1-9 then return false (i.e. backtrack) and change prev value thus by this way we achieve sudoku</t>
   </si>
   <si>
     <t xml:space="preserve">@ if it satisfies the sudoku conditions (row, col, arr) then go into another recursion</t>
@@ -1399,7 +1396,7 @@
     <t xml:space="preserve">rat in a maze</t>
   </si>
   <si>
-    <t xml:space="preserve">@ we let the rat run through all possiblities(ie recursion values)</t>
+    <t xml:space="preserve">@ we let the rat run through all possibilities(i.e. recursion values)</t>
   </si>
   <si>
     <t xml:space="preserve">@ when the rat reaches the destination point store the pathway in answer</t>
@@ -1450,7 +1447,7 @@
     <t xml:space="preserve">@ put every element to a list and sort the list in ascending order</t>
   </si>
   <si>
-    <t xml:space="preserve">@ use binary search set low as min(arr[i][0], minimum) and high as (arr[i][n], maximum) ie. Search space</t>
+    <t xml:space="preserve">@ use binary search set low as min(arr[i][0], minimum) and high as (arr[i][n], maximum) i.e. Search space</t>
   </si>
   <si>
     <t xml:space="preserve">@ to find the count of the given value we use binary search to find the number and subtracting the position to count.</t>
@@ -1468,7 +1465,7 @@
     <t xml:space="preserve">find element appears once rest appear twice</t>
   </si>
   <si>
-    <t xml:space="preserve">@ use hashmap to store all value and go through map find which element has 1 count return it</t>
+    <t xml:space="preserve">@ use hash map to store all value and go through map find which element has 1 count return it</t>
   </si>
   <si>
     <t xml:space="preserve">@ use binary search to find the element. On observation sorted left side of element has order like arr[mid]==arr[mid-1] and mid is even whereas after crossing the element the arr[mid]==arr[mid+1] and mid is odd.</t>
@@ -1477,7 +1474,7 @@
     <t xml:space="preserve">@ we can use xor property to set find array[mid+1] or mid-1 based on the even/odd of mid instead creating seperate function</t>
   </si>
   <si>
-    <t xml:space="preserve">@ or use xor property on every array such that duplicates cancel each other and last element is found</t>
+    <t xml:space="preserve">@ or use XOR property on every array such that duplicates cancel each other and last element is found</t>
   </si>
   <si>
     <t xml:space="preserve">@ we use this property to find the value using binary search to check whether mid lies in left or right by adding one to next value. If true then do low = mid+1 else high = mid -1</t>
@@ -1537,7 +1534,7 @@
     <t xml:space="preserve">@ if low value of array is greater than arr1 then it is waste of time to search on it so we set it to max(0, k-arr1.size())</t>
   </si>
   <si>
-    <t xml:space="preserve">@ if high value of array is greater than k but we only need to traverse upto k thus min(arr2.size(), k)</t>
+    <t xml:space="preserve">@ if high value of array is greater than k but we only need to traverse up to k thus min(arr2.size(), k)</t>
   </si>
   <si>
     <t xml:space="preserve">allocation min pages</t>
@@ -1555,7 +1552,7 @@
     <t xml:space="preserve">@ takes O(n!)time.</t>
   </si>
   <si>
-    <t xml:space="preserve">@ now find mid of pages and check whether untill mid page can i allocate as per request. If it is greater than it set high = mid else set low = mid+1. Return low as answer. </t>
+    <t xml:space="preserve">@ now find mid of pages and check whether until mid page can i allocate as per request. If it is greater than it set high = mid else set low = mid+1. Return low as answer. </t>
   </si>
   <si>
     <t xml:space="preserve">aggressive cows</t>
@@ -1600,10 +1597,10 @@
     <t xml:space="preserve">kth largest element</t>
   </si>
   <si>
-    <t xml:space="preserve">@ bruteforce is to sort the array and return kth element which is kth max </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ use a max heap and pop the top untill k then return the top which is answer</t>
+    <t xml:space="preserve">@ brute force is to sort the array and return kth element which is kth max </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use a max heap and pop the top until k then return the top which is answer</t>
   </si>
   <si>
     <t xml:space="preserve">@ maybe set required since duplication can be present</t>
@@ -1615,10 +1612,10 @@
     <t xml:space="preserve">max sum combination</t>
   </si>
   <si>
-    <t xml:space="preserve">@ find every possible sum and sort based on result then return result upto k as ans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ use a heap to store all the sum values and pop untill k return the result</t>
+    <t xml:space="preserve">@ find every possible sum and sort based on result then return result up to k as ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ use a heap to store all the sum values and pop until k return the result</t>
   </si>
   <si>
     <t xml:space="preserve">@ takes O(nlogn) time.</t>
@@ -1630,16 +1627,16 @@
     <t xml:space="preserve">@ this question is hard to understand but yes solvable</t>
   </si>
   <si>
-    <t xml:space="preserve">@ to sort the array on insert as well as find median in O(1)time a heap datastructure is vital and helpful here</t>
+    <t xml:space="preserve">@ to sort the array on insert as well as find median in O(1)time a heap data structure is vital and helpful here</t>
   </si>
   <si>
     <t xml:space="preserve">@ if the total array is set to odd then we can return the max heap’s top value</t>
   </si>
   <si>
-    <t xml:space="preserve">@ create a min heap and maxheap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ so we use min arr for minimum among the maximums and max array for maximum among the minimums (important keypoint)</t>
+    <t xml:space="preserve">@ create a min heap and max heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ so we use min arr for minimum among the maximums and max array for maximum among the minimums (important key point)</t>
   </si>
   <si>
     <t xml:space="preserve">@ or else we find the median by max heap top+min heap top / 2.</t>
@@ -1648,7 +1645,7 @@
     <t xml:space="preserve">@ median is the middle value of sorted array(question is unsorted)</t>
   </si>
   <si>
-    <t xml:space="preserve">@ consider all elements are smaller and push in max heap. If size of max heap is greater than min heap then pop the max value and push to minheap.</t>
+    <t xml:space="preserve">@ consider all elements are smaller and push in max heap. If size of max heap is greater than min heap then pop the max value and push to min heap.</t>
   </si>
   <si>
     <t xml:space="preserve">@ the main takeaway is that the maxheap size must be less than minheap size (diff b/w them should be 0 or 1) maxheap&gt;minheap</t>
@@ -1698,14 +1695,14 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> value to maxheap</t>
+      <t xml:space="preserve"> value to max heap</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">k most frequent elements</t>
   </si>
   <si>
-    <t xml:space="preserve">@ create a hashmap to store all count of particular element</t>
+    <t xml:space="preserve">@ create a hash map to store all count of particular element</t>
   </si>
   <si>
     <t xml:space="preserve">@ the top pair count and the element is returned which is ans</t>
@@ -1717,7 +1714,7 @@
     <t xml:space="preserve">@ time complexity O(nlogn)</t>
   </si>
   <si>
-    <t xml:space="preserve">@ pop the maxheap untill k and return the top pair</t>
+    <t xml:space="preserve">@ pop the max heap until k and return the top pair</t>
   </si>
   <si>
     <t xml:space="preserve">implement stack using arrays</t>
@@ -1765,7 +1762,7 @@
     <t xml:space="preserve">@ insert the value in the queue at back</t>
   </si>
   <si>
-    <t xml:space="preserve">@ takes O(n) for every removal 2 times to rotate and rerotate the queue</t>
+    <t xml:space="preserve">@ takes O(n) for every removal 2 times to rotate and re rotate the queue</t>
   </si>
   <si>
     <t xml:space="preserve">@ during removal rotate the entire queue by size-1 times and then return the value which is LIFO in nature</t>
@@ -1780,7 +1777,7 @@
     <t xml:space="preserve">@ takes O(2n) time and O(2n) space</t>
   </si>
   <si>
-    <t xml:space="preserve">@ when on removal push every element from stack1 to stack 2 unitll it is empty</t>
+    <t xml:space="preserve">@ when on removal push every element from stack1 to stack 2 untill it is empty</t>
   </si>
   <si>
     <t xml:space="preserve">@ when it is empty remove stack 2 top which is the first inserted value</t>
@@ -1795,7 +1792,7 @@
     <t xml:space="preserve">@ if stack is empty then it is balanced or else unbalanced</t>
   </si>
   <si>
-    <t xml:space="preserve">@ if close bracket occurs then pop the open bracket and go to nxt value</t>
+    <t xml:space="preserve">@ if close bracket occurs then pop the open bracket and go to next value</t>
   </si>
   <si>
     <t xml:space="preserve">@ if stack is empty before end bracket then return unbalanced/false</t>
@@ -1810,7 +1807,7 @@
     <t xml:space="preserve">@ using a monotonically greater stack from behind 2n </t>
   </si>
   <si>
-    <t xml:space="preserve">@ takes O(n) time an dO(n) space</t>
+    <t xml:space="preserve">@ takes O(n) time and O(n) space</t>
   </si>
   <si>
     <t xml:space="preserve">@ we can find the greater element from behind to start such that we find the element very greater from the index </t>
@@ -1825,13 +1822,13 @@
     <t xml:space="preserve">@ push the value in the stack as ordered way</t>
   </si>
   <si>
-    <t xml:space="preserve">@ create a top element n and go on recursion untill stack is empty</t>
+    <t xml:space="preserve">@ create a top element n and go on recursion until stack is empty</t>
   </si>
   <si>
     <t xml:space="preserve">@ check whether the top value is less than the nth value of inserting stack if yes then push it or else </t>
   </si>
   <si>
-    <t xml:space="preserve">@ create recursion on this stack untill the top value is set to its correct position</t>
+    <t xml:space="preserve">@ create recursion on this stack until the top value is set to its correct position</t>
   </si>
   <si>
     <t xml:space="preserve">next smaller element</t>
@@ -1858,13 +1855,13 @@
     <t xml:space="preserve">@ since it is the condition of the cache to be remembered for calling it</t>
   </si>
   <si>
-    <t xml:space="preserve">@ we have to create a hashmap and a doubly linked list fot this </t>
+    <t xml:space="preserve">@ we have to create a hash map and a doubly linked list for this </t>
   </si>
   <si>
     <t xml:space="preserve">@ it takes O(1) time and O(n) space</t>
   </si>
   <si>
-    <t xml:space="preserve">@ in get method if map doesnt contain value return -1 or return the map value</t>
+    <t xml:space="preserve">@ in get method if map doesn't contain value return -1 or return the map value</t>
   </si>
   <si>
     <t xml:space="preserve">@ similarly for insert create a new node and store in the head. If overflow then remove the tail value LRU i mean</t>
@@ -1888,7 +1885,7 @@
     <t xml:space="preserve">@ takes O(3n) time and O(n) space</t>
   </si>
   <si>
-    <t xml:space="preserve">@ the difference b/w both direction is the rectangle size of that particular len</t>
+    <t xml:space="preserve">@ the difference b/w both direction is the rectangle size of that particular Len</t>
   </si>
   <si>
     <t xml:space="preserve">Sliding window maximum</t>
@@ -1897,10 +1894,7 @@
     <t xml:space="preserve">@ create a queue to store the value if the ptr contain size of window-1 then </t>
   </si>
   <si>
-    <t xml:space="preserve">@ takes O(n) time and O(n) space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ subtract and remove the last value by popping the first. A deque will be useful</t>
+    <t xml:space="preserve">@ subtract and remove the last value by popping the first. A dequeue will be useful</t>
   </si>
   <si>
     <t xml:space="preserve">implement min stack</t>
@@ -1915,16 +1909,16 @@
     <t xml:space="preserve">rotten oranges</t>
   </si>
   <si>
-    <t xml:space="preserve">@ use a queue to store the next values and run loop untill empty</t>
+    <t xml:space="preserve">@ use a queue to store the next values and run loop until empty</t>
   </si>
   <si>
     <t xml:space="preserve">@ now the queue is pushed and rotten one is deleted</t>
   </si>
   <si>
-    <t xml:space="preserve">@ add timer when fresh oranges are present near rotten ones after every addn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ run this same  loop untill queue becomes empty</t>
+    <t xml:space="preserve">@ add timer when fresh oranges are present near rotten ones after every addition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ run this same  loop until queue becomes empty</t>
   </si>
   <si>
     <t xml:space="preserve">@ return the max time among the finding calculation </t>
@@ -1960,7 +1954,7 @@
     <t xml:space="preserve">@ takes O(m+n) time</t>
   </si>
   <si>
-    <t xml:space="preserve">@ continue this untill you find a celebrity who has 0 in everything </t>
+    <t xml:space="preserve">@ continue this until you find a celebrity who has 0 in everything </t>
   </si>
   <si>
     <t xml:space="preserve">reverse words in string</t>
@@ -2037,7 +2031,7 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ptr at that letter and go untill a space is occured</t>
+      <t xml:space="preserve"> ptr at that letter and go until a space is occurred</t>
     </r>
   </si>
   <si>
@@ -2047,7 +2041,7 @@
     <t xml:space="preserve">@ go through entire array and select a particular string</t>
   </si>
   <si>
-    <t xml:space="preserve">@ run 2 while loops as even and odd calcuate the max palindrome value</t>
+    <t xml:space="preserve">@ run 2 while loops as even and odd calculate the max palindrome value</t>
   </si>
   <si>
     <t xml:space="preserve">@ then return the max which is the answer</t>
@@ -2056,7 +2050,7 @@
     <t xml:space="preserve">roman to integer and viceversa</t>
   </si>
   <si>
-    <t xml:space="preserve">@ to calculate roman to int we create hashmap for roman literals and go through array from start </t>
+    <t xml:space="preserve">@ to calculate Roman to int we create hash map for Roman literals and go through array from start </t>
   </si>
   <si>
     <t xml:space="preserve">@ takes O(n) and O(1) space</t>
@@ -2118,11 +2112,11 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> arr and 1-nth aray</t>
+      <t xml:space="preserve"> arr and 1-nth array</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">@ create common prefix by checking untill where it is same</t>
+    <t xml:space="preserve">@ create common prefix by checking until where it is same</t>
   </si>
   <si>
     <t xml:space="preserve">@ use a for loop from 1 to n and check for same prefixes using 2 ptr approach</t>
@@ -2215,7 +2209,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">@ run another loop to find the arr has 0 in it if it is continued to be 0 return true orelse return false</t>
+    <t xml:space="preserve">@ run another loop to find the arr has 0 in it if it is continued to be 0 return true or else return false</t>
   </si>
   <si>
     <t xml:space="preserve">count and say</t>
@@ -2317,7 +2311,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2333,7 +2327,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF972F"/>
-        <bgColor rgb="FFFFB66C"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
@@ -2348,14 +2342,8 @@
         <bgColor rgb="FFD4EA6B"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFB66C"/>
-        <bgColor rgb="FFFF972F"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2385,8 +2373,22 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
@@ -2417,7 +2419,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2450,7 +2452,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2462,6 +2464,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2470,7 +2476,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2478,7 +2484,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2490,6 +2496,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2498,11 +2508,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2510,7 +2524,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2522,24 +2536,20 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2566,11 +2576,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2586,11 +2596,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2598,23 +2608,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2668,7 +2662,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFB66C"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FFBBE33D"/>
@@ -2697,8 +2691,8 @@
   </sheetPr>
   <dimension ref="A1:F250"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A230" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A251" activeCellId="0" sqref="A251"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A227" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A252" activeCellId="0" sqref="A252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2752,267 +2746,267 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" s="13" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" s="14" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="D7" s="13" t="s">
+      <c r="B7" s="11"/>
+      <c r="D7" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+    <row r="8" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="18" t="s">
+    <row r="9" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="20" t="s">
+    <row r="10" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
+    <row r="11" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="25" t="s">
+    <row r="12" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="25" t="s">
+    <row r="13" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="26" t="s">
+    <row r="14" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" s="30" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="30" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="30" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="30" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="11" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="29"/>
-    </row>
-    <row r="19" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="18" t="s">
+    <row r="20" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="18" t="s">
+    <row r="21" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="20" t="s">
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="32" t="s">
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="32"/>
-      <c r="C24" s="36" t="s">
+    <row r="24" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="34"/>
+      <c r="C24" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="32"/>
-      <c r="C25" s="36" t="s">
+    <row r="25" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="34"/>
+      <c r="C25" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" s="37" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="32"/>
-      <c r="D26" s="37" t="s">
+    <row r="26" s="39" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="34"/>
+      <c r="D26" s="39" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3030,95 +3024,95 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="s">
+    <row r="30" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
-      <c r="C31" s="18" t="s">
+    <row r="31" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="15"/>
+      <c r="C31" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14"/>
-      <c r="C32" s="20" t="s">
+    <row r="32" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="15"/>
+      <c r="C32" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" s="33" customFormat="true" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="32" t="s">
+    <row r="33" s="35" customFormat="true" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="34"/>
-    </row>
-    <row r="34" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="32"/>
-      <c r="C34" s="36" t="s">
+      <c r="E33" s="36"/>
+    </row>
+    <row r="34" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="34"/>
+      <c r="C34" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="36"/>
-    </row>
-    <row r="35" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="32"/>
-      <c r="C35" s="36" t="s">
+      <c r="E34" s="38"/>
+    </row>
+    <row r="35" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="34"/>
+      <c r="C35" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="36"/>
-    </row>
-    <row r="36" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="32"/>
-      <c r="C36" s="37" t="s">
+      <c r="E35" s="38"/>
+    </row>
+    <row r="36" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="34"/>
+      <c r="C36" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="39" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3134,115 +3128,115 @@
       </c>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7"/>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7"/>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7"/>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="s">
+    <row r="41" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14"/>
-      <c r="C42" s="18" t="s">
+    <row r="42" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="15"/>
+      <c r="C42" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="43" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14"/>
-      <c r="C43" s="18" t="s">
+    <row r="43" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="15"/>
+      <c r="C43" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="44" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14"/>
-      <c r="C44" s="20" t="s">
+    <row r="44" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="15"/>
+      <c r="C44" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="20"/>
-    </row>
-    <row r="45" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="32" t="s">
+      <c r="E44" s="23"/>
+    </row>
+    <row r="45" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="E45" s="34"/>
-    </row>
-    <row r="46" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="32"/>
-      <c r="C46" s="36" t="s">
+      <c r="E45" s="36"/>
+    </row>
+    <row r="46" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="34"/>
+      <c r="C46" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="36" t="s">
+      <c r="D46" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="36"/>
-    </row>
-    <row r="47" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="32"/>
-      <c r="C47" s="36" t="s">
+      <c r="E46" s="38"/>
+    </row>
+    <row r="47" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="34"/>
+      <c r="C47" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="D47" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="E47" s="36"/>
-    </row>
-    <row r="48" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="32"/>
-      <c r="D48" s="37" t="s">
+      <c r="E47" s="38"/>
+    </row>
+    <row r="48" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="34"/>
+      <c r="D48" s="39" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3258,85 +3252,85 @@
       </c>
       <c r="E49" s="9"/>
     </row>
-    <row r="50" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7"/>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="11"/>
-    </row>
-    <row r="51" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7"/>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="s">
+    <row r="52" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E52" s="16"/>
-    </row>
-    <row r="53" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14"/>
-      <c r="C53" s="18" t="s">
+      <c r="E52" s="17"/>
+    </row>
+    <row r="53" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="15"/>
+      <c r="C53" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="E53" s="18"/>
-    </row>
-    <row r="54" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14"/>
-      <c r="D54" s="21" t="s">
+      <c r="E53" s="20"/>
+    </row>
+    <row r="54" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="15"/>
+      <c r="D54" s="24" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="55" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="32" t="s">
+    <row r="55" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="D55" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="34" t="s">
+      <c r="E55" s="36" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="56" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="32"/>
-      <c r="C56" s="36" t="s">
+    <row r="56" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="34"/>
+      <c r="C56" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="D56" s="36" t="s">
+      <c r="D56" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="38" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="57" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="32"/>
-      <c r="C57" s="38" t="s">
+    <row r="57" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="34"/>
+      <c r="C57" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="D57" s="38" t="s">
+      <c r="D57" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="E57" s="38" t="s">
+      <c r="E57" s="40" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3354,2012 +3348,2007 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7"/>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="60" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7"/>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="E60" s="29" t="s">
+      <c r="E60" s="32" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="61" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14" t="s">
+    <row r="61" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="17" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="62" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="14"/>
-      <c r="C62" s="18" t="s">
+    <row r="62" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="15"/>
+      <c r="C62" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="20" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="63" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="14"/>
-      <c r="D63" s="21" t="s">
+    <row r="63" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="15"/>
+      <c r="D63" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="E63" s="24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="64" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="32" t="s">
+    <row r="64" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D64" s="34" t="s">
+      <c r="D64" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" s="36"/>
+    </row>
+    <row r="65" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="34"/>
+      <c r="C65" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E64" s="34"/>
-    </row>
-    <row r="65" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="32"/>
-      <c r="C65" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" s="36" t="s">
+      <c r="E65" s="38"/>
+    </row>
+    <row r="66" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="34"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="E65" s="36"/>
-    </row>
-    <row r="66" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="32"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="E66" s="38"/>
+      <c r="E66" s="40"/>
     </row>
     <row r="67" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="D67" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="E67" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E67" s="9" t="s">
+    </row>
+    <row r="68" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="7"/>
+      <c r="C68" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="32" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="68" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7"/>
-      <c r="C68" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D68" s="29" t="s">
+      <c r="E68" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="E68" s="29" t="s">
+    </row>
+    <row r="69" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="15" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="69" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14" t="s">
+      <c r="C69" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="D69" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="E69" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E69" s="16" t="s">
+    </row>
+    <row r="70" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="15"/>
+      <c r="C70" s="23" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="70" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14"/>
-      <c r="C70" s="20" t="s">
+      <c r="D70" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="E70" s="23"/>
+    </row>
+    <row r="71" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="E70" s="20"/>
-    </row>
-    <row r="71" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="32" t="s">
+      <c r="C71" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="D71" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="D71" s="34" t="s">
+      <c r="E71" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="E71" s="34" t="s">
+    </row>
+    <row r="72" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="34"/>
+      <c r="C72" s="38" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="72" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="32"/>
-      <c r="C72" s="36" t="s">
+      <c r="D72" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="D72" s="36" t="s">
+      <c r="E72" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="E72" s="36" t="s">
+    </row>
+    <row r="73" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="34"/>
+      <c r="D73" s="39" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="73" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="32"/>
-      <c r="D73" s="37" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="74" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="D74" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="E74" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E74" s="9" t="s">
+    </row>
+    <row r="75" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="7"/>
+      <c r="C75" s="32" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="75" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7"/>
-      <c r="C75" s="29" t="s">
+      <c r="D75" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="D75" s="29" t="s">
+      <c r="E75" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="E75" s="29" t="s">
+    </row>
+    <row r="76" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="15" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="76" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="14" t="s">
+      <c r="C76" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="D76" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="E76" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E76" s="16" t="s">
+    </row>
+    <row r="77" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="15"/>
+      <c r="C77" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D77" s="23" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="77" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="14"/>
-      <c r="C77" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D77" s="20" t="s">
+      <c r="E77" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="E77" s="20" t="s">
+    </row>
+    <row r="78" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="34" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="78" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="32" t="s">
+      <c r="C78" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C78" s="34" t="s">
+      <c r="D78" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="D78" s="34" t="s">
+      <c r="E78" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="E78" s="34" t="s">
+    </row>
+    <row r="79" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="34"/>
+      <c r="C79" s="40" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="79" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="32"/>
-      <c r="C79" s="38" t="s">
+      <c r="D79" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="D79" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="E79" s="38"/>
+      <c r="E79" s="40"/>
     </row>
     <row r="80" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="D80" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="E80" s="9"/>
+    </row>
+    <row r="81" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="7"/>
+      <c r="C81" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="E80" s="9"/>
-    </row>
-    <row r="81" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7"/>
-      <c r="C81" s="29" t="s">
+      <c r="D81" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="D81" s="29" t="s">
+      <c r="E81" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="E81" s="29" t="s">
+    </row>
+    <row r="82" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="15" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="82" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="14" t="s">
+      <c r="C82" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="D82" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="E82" s="17"/>
+    </row>
+    <row r="83" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="15"/>
+      <c r="C83" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="E82" s="16"/>
-    </row>
-    <row r="83" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="14"/>
-      <c r="C83" s="20" t="s">
+      <c r="D83" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="E83" s="23"/>
+    </row>
+    <row r="84" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="E83" s="20"/>
-    </row>
-    <row r="84" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="32" t="s">
+      <c r="C84" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="D84" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="D84" s="34" t="s">
+      <c r="E84" s="36"/>
+    </row>
+    <row r="85" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="34"/>
+      <c r="C85" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="E84" s="34"/>
-    </row>
-    <row r="85" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="32"/>
-      <c r="C85" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
     </row>
     <row r="86" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="D86" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="E86" s="9"/>
+    </row>
+    <row r="87" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="7"/>
+      <c r="C87" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="E86" s="9"/>
-    </row>
-    <row r="87" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7"/>
-      <c r="C87" s="29" t="s">
+      <c r="D87" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="D87" s="29" t="s">
+      <c r="E87" s="32"/>
+    </row>
+    <row r="88" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="E87" s="29"/>
-    </row>
-    <row r="88" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="14" t="s">
+      <c r="C88" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="D88" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="E88" s="17"/>
+    </row>
+    <row r="89" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="15"/>
+      <c r="C89" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="E88" s="16"/>
-    </row>
-    <row r="89" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="14"/>
-      <c r="C89" s="20" t="s">
+      <c r="D89" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="D89" s="20" t="s">
+      <c r="E89" s="23"/>
+    </row>
+    <row r="90" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="E89" s="20"/>
-    </row>
-    <row r="90" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="32" t="s">
+      <c r="C90" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="C90" s="34" t="s">
+      <c r="D90" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="D90" s="34" t="s">
+      <c r="E90" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="E90" s="34" t="s">
+    </row>
+    <row r="91" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="34"/>
+      <c r="C91" s="38" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="91" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="32"/>
-      <c r="C91" s="36" t="s">
+      <c r="D91" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="D91" s="36" t="s">
+      <c r="E91" s="38"/>
+    </row>
+    <row r="92" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="34"/>
+      <c r="C92" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="E91" s="36"/>
-    </row>
-    <row r="92" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="32"/>
-      <c r="C92" s="38" t="s">
+      <c r="D92" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="D92" s="38" t="s">
+      <c r="E92" s="40"/>
+    </row>
+    <row r="93" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="E92" s="38"/>
-    </row>
-    <row r="93" s="40" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="39" t="s">
+      <c r="C93" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="C93" s="41" t="s">
+      <c r="D93" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="D93" s="41" t="s">
+      <c r="E93" s="43"/>
+    </row>
+    <row r="94" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="41"/>
+      <c r="C94" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="E93" s="41"/>
-    </row>
-    <row r="94" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="39"/>
-      <c r="C94" s="43" t="s">
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
+    </row>
+    <row r="95" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-    </row>
-    <row r="95" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="14" t="s">
+      <c r="C95" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="D95" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="D95" s="16" t="s">
+      <c r="E95" s="17"/>
+    </row>
+    <row r="96" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="15"/>
+      <c r="C96" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="E95" s="16"/>
-    </row>
-    <row r="96" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="14"/>
-      <c r="C96" s="20" t="s">
+      <c r="D96" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="D96" s="20" t="s">
+      <c r="E96" s="23"/>
+    </row>
+    <row r="97" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="E96" s="20"/>
-    </row>
-    <row r="97" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="32" t="s">
+      <c r="C97" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="C97" s="34" t="s">
+      <c r="D97" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="D97" s="34" t="s">
+      <c r="E97" s="36"/>
+    </row>
+    <row r="98" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="34"/>
+      <c r="C98" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="E97" s="34"/>
-    </row>
-    <row r="98" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="32"/>
-      <c r="C98" s="38" t="s">
+      <c r="D98" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="D98" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="E98" s="38"/>
+      <c r="E98" s="40"/>
     </row>
     <row r="99" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="D99" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="E99" s="9"/>
+    </row>
+    <row r="100" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="7"/>
+      <c r="C100" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="E99" s="9"/>
-    </row>
-    <row r="100" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7"/>
-      <c r="C100" s="29" t="s">
+      <c r="D100" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="D100" s="29" t="s">
+      <c r="E100" s="32"/>
+    </row>
+    <row r="101" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="E100" s="29"/>
-    </row>
-    <row r="101" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="14" t="s">
+      <c r="C101" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="C101" s="16" t="s">
+      <c r="D101" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="D101" s="16" t="s">
+      <c r="E101" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="E101" s="16" t="s">
+    </row>
+    <row r="102" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="15"/>
+      <c r="C102" s="20" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="102" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="14"/>
-      <c r="C102" s="18" t="s">
+      <c r="D102" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="D102" s="18" t="s">
+      <c r="E102" s="20"/>
+    </row>
+    <row r="103" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="15"/>
+      <c r="C103" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="E102" s="18"/>
-    </row>
-    <row r="103" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="14"/>
-      <c r="C103" s="20" t="s">
+      <c r="D103" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="D103" s="20" t="s">
+      <c r="E103" s="23"/>
+    </row>
+    <row r="104" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="E103" s="20"/>
-    </row>
-    <row r="104" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="32" t="s">
+      <c r="C104" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="C104" s="34" t="s">
+      <c r="D104" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="D104" s="34" t="s">
+      <c r="E104" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="E104" s="34" t="s">
+    </row>
+    <row r="105" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="34"/>
+      <c r="C105" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D105" s="40" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="105" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="32"/>
-      <c r="C105" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D105" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="E105" s="38"/>
+      <c r="E105" s="40"/>
     </row>
     <row r="106" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C106" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D106" s="9" t="s">
+      <c r="E106" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="E106" s="9" t="s">
+    </row>
+    <row r="107" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="7"/>
+      <c r="C107" s="32" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="107" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7"/>
-      <c r="C107" s="29" t="s">
+      <c r="D107" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="D107" s="29" t="s">
+      <c r="E107" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="E107" s="29" t="s">
+    </row>
+    <row r="108" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="15" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="108" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="14" t="s">
+      <c r="C108" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="C108" s="16" t="s">
+      <c r="D108" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D108" s="16" t="s">
+      <c r="E108" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="E108" s="16" t="s">
+    </row>
+    <row r="109" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="15"/>
+      <c r="C109" s="23" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="109" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="14"/>
-      <c r="C109" s="20" t="s">
+      <c r="D109" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="D109" s="20" t="s">
+      <c r="E109" s="23"/>
+    </row>
+    <row r="110" s="35" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="E109" s="20"/>
-    </row>
-    <row r="110" s="33" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="32" t="s">
+      <c r="C110" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="C110" s="34" t="s">
+      <c r="D110" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="D110" s="34" t="s">
+      <c r="E110" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="E110" s="34" t="s">
+    </row>
+    <row r="111" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="34"/>
+      <c r="C111" s="40" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="111" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="32"/>
-      <c r="C111" s="38" t="s">
+      <c r="D111" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="D111" s="38" t="s">
+      <c r="E111" s="40" t="s">
         <v>283</v>
-      </c>
-      <c r="E111" s="38" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="112" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C112" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="D112" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="E112" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="E112" s="9" t="s">
+    </row>
+    <row r="113" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="7"/>
+      <c r="C113" s="32" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="113" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="7"/>
-      <c r="C113" s="29" t="s">
+      <c r="D113" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="D113" s="29" t="s">
+      <c r="E113" s="32"/>
+    </row>
+    <row r="114" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="E113" s="29"/>
-    </row>
-    <row r="114" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="14" t="s">
+      <c r="C114" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C114" s="16" t="s">
+      <c r="D114" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D114" s="16" t="s">
+      <c r="E114" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="E114" s="16" t="s">
+    </row>
+    <row r="115" s="21" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="15"/>
+      <c r="C115" s="20" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="115" s="19" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="14"/>
-      <c r="C115" s="18" t="s">
+      <c r="D115" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="D115" s="18" t="s">
+      <c r="E115" s="20"/>
+    </row>
+    <row r="116" s="24" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="15"/>
+      <c r="C116" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="E115" s="18"/>
-    </row>
-    <row r="116" s="21" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="14"/>
-      <c r="C116" s="20" t="s">
+      <c r="D116" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="D116" s="20" t="s">
+      <c r="E116" s="23"/>
+    </row>
+    <row r="117" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="E116" s="20"/>
-    </row>
-    <row r="117" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="32" t="s">
+      <c r="C117" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="C117" s="34" t="s">
+      <c r="D117" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="D117" s="34" t="s">
+      <c r="E117" s="36"/>
+    </row>
+    <row r="118" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="34"/>
+      <c r="C118" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="E117" s="34"/>
-    </row>
-    <row r="118" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="32"/>
-      <c r="C118" s="38" t="s">
+      <c r="D118" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="D118" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="E118" s="38"/>
+      <c r="E118" s="40"/>
     </row>
     <row r="119" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C119" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="D119" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="E119" s="9"/>
+    </row>
+    <row r="120" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="7"/>
+      <c r="C120" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="E119" s="9"/>
-    </row>
-    <row r="120" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="7"/>
-      <c r="C120" s="29" t="s">
+      <c r="D120" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="D120" s="29" t="s">
+      <c r="E120" s="32"/>
+    </row>
+    <row r="121" s="18" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="E120" s="29"/>
-    </row>
-    <row r="121" s="17" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="14" t="s">
+      <c r="C121" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="C121" s="16" t="s">
+      <c r="D121" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="D121" s="16" t="s">
+      <c r="E121" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="E121" s="16" t="s">
+    </row>
+    <row r="122" s="24" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="15"/>
+      <c r="C122" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="D122" s="23" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="122" s="21" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="14"/>
-      <c r="C122" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="D122" s="20" t="s">
+      <c r="E122" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="E122" s="20" t="s">
+    </row>
+    <row r="123" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="46" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="123" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="44" t="s">
+      <c r="C123" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="C123" s="36" t="s">
+      <c r="D123" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="D123" s="36" t="s">
+      <c r="E123" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="E123" s="36" t="s">
+    </row>
+    <row r="124" s="37" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="46"/>
+      <c r="C124" s="38" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="124" s="35" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="44"/>
-      <c r="C124" s="36" t="s">
+      <c r="D124" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="D124" s="36" t="s">
+      <c r="E124" s="38"/>
+    </row>
+    <row r="125" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="E124" s="36"/>
-    </row>
-    <row r="125" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="7" t="s">
+      <c r="C125" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="D125" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="D125" s="12" t="s">
+      <c r="E125" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="E125" s="12" t="s">
+    </row>
+    <row r="126" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="7"/>
+      <c r="C126" s="13" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="126" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="7"/>
-      <c r="C126" s="12" t="s">
+      <c r="D126" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="D126" s="12" t="s">
+    </row>
+    <row r="127" s="18" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="15" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="127" s="17" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="14" t="s">
+      <c r="C127" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="C127" s="17" t="s">
+      <c r="D127" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="D127" s="17" t="s">
+      <c r="E127" s="18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="128" s="24" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="15"/>
+      <c r="C128" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="E127" s="17" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="128" s="21" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="14"/>
-      <c r="C128" s="21" t="s">
+      <c r="D128" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="D128" s="21" t="s">
+    </row>
+    <row r="129" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="34" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="129" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="32" t="s">
+      <c r="C129" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="C129" s="33" t="s">
+      <c r="D129" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="D129" s="33" t="s">
+    </row>
+    <row r="130" s="39" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="34"/>
+      <c r="C130" s="39" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="130" s="37" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="32"/>
-      <c r="C130" s="37" t="s">
+      <c r="D130" s="39" t="s">
         <v>335</v>
-      </c>
-      <c r="D130" s="37" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="131" s="10" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C131" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="D131" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="D131" s="10" t="s">
+    </row>
+    <row r="132" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="7"/>
+      <c r="C132" s="14" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="132" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="7"/>
-      <c r="C132" s="13" t="s">
+      <c r="D132" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="D132" s="13" t="s">
+    </row>
+    <row r="133" s="18" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="15" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="133" s="17" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="14" t="s">
+      <c r="C133" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="C133" s="17" t="s">
+      <c r="D133" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="D133" s="17" t="s">
+    </row>
+    <row r="134" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="15"/>
+      <c r="C134" s="24" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="134" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="14"/>
-      <c r="C134" s="21" t="s">
+      <c r="D134" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="D134" s="21" t="s">
+    </row>
+    <row r="135" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="34" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="135" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="32" t="s">
+      <c r="C135" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="C135" s="33" t="s">
+      <c r="D135" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="D135" s="33" t="s">
+    </row>
+    <row r="136" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="34"/>
+      <c r="C136" s="39" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="136" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="32"/>
-      <c r="C136" s="37" t="s">
+      <c r="D136" s="39" t="s">
         <v>350</v>
-      </c>
-      <c r="D136" s="37" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="137" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C137" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="D137" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="D137" s="10" t="s">
+    </row>
+    <row r="138" s="14" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="7"/>
+      <c r="C138" s="14" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="138" s="13" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="7"/>
-      <c r="C138" s="13" t="s">
+      <c r="D138" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="D138" s="13" t="s">
+    </row>
+    <row r="139" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="15" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="139" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="14" t="s">
+      <c r="C139" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="C139" s="17" t="s">
+      <c r="D139" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D139" s="17" t="s">
+    </row>
+    <row r="140" s="24" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="15"/>
+      <c r="C140" s="24" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="140" s="21" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="14"/>
-      <c r="C140" s="21" t="s">
+      <c r="D140" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="D140" s="21" t="s">
+    </row>
+    <row r="141" s="35" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="34" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="141" s="33" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="32" t="s">
+      <c r="C141" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="C141" s="33" t="s">
+      <c r="D141" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="D141" s="33" t="s">
+    </row>
+    <row r="142" s="39" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="34"/>
+      <c r="C142" s="39" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="142" s="37" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="32"/>
-      <c r="C142" s="37" t="s">
+      <c r="D142" s="39" t="s">
         <v>365</v>
-      </c>
-      <c r="D142" s="37" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="143" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C143" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="D143" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="D143" s="10" t="s">
+      <c r="E143" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="144" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="7"/>
+      <c r="C144" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="E143" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="144" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="7"/>
-      <c r="C144" s="13" t="s">
+      <c r="D144" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="D144" s="13" t="s">
+    </row>
+    <row r="145" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="15" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="145" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="14" t="s">
+      <c r="C145" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="C145" s="17" t="s">
+      <c r="D145" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="D145" s="17" t="s">
+      <c r="E145" s="18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="146" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="15"/>
+      <c r="C146" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="E145" s="17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="146" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="14"/>
-      <c r="C146" s="21" t="s">
+      <c r="D146" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="D146" s="21" t="s">
+    </row>
+    <row r="147" s="35" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="34" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="147" s="33" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="32" t="s">
+      <c r="C147" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="C147" s="33" t="s">
+      <c r="D147" s="35" t="s">
         <v>378</v>
       </c>
-      <c r="D147" s="33" t="s">
+      <c r="E147" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="148" s="39" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="34"/>
+      <c r="C148" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="E147" s="33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="148" s="37" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="32"/>
-      <c r="C148" s="37" t="s">
+      <c r="D148" s="39" t="s">
         <v>380</v>
-      </c>
-      <c r="D148" s="37" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="149" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C149" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="D149" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="D149" s="10" t="s">
+    </row>
+    <row r="150" s="14" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="7"/>
+      <c r="C150" s="14" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="150" s="13" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="7"/>
-      <c r="C150" s="13" t="s">
+      <c r="D150" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="D150" s="13" t="s">
+    </row>
+    <row r="151" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="15" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="151" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="14" t="s">
+      <c r="C151" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="C151" s="17" t="s">
+      <c r="D151" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="D151" s="17" t="s">
+    </row>
+    <row r="152" s="24" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="15"/>
+      <c r="C152" s="24" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="152" s="21" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="14"/>
-      <c r="C152" s="21" t="s">
+      <c r="D152" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="D152" s="21" t="s">
+    </row>
+    <row r="153" s="35" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="34" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="153" s="33" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="32" t="s">
+      <c r="C153" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="C153" s="33" t="s">
+      <c r="D153" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="D153" s="33" t="s">
+      <c r="E153" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="E153" s="33" t="s">
+    </row>
+    <row r="154" s="39" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="34"/>
+      <c r="C154" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D154" s="39" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="154" s="37" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="32"/>
-      <c r="C154" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="D154" s="37" t="s">
+      <c r="E154" s="39" t="s">
         <v>396</v>
-      </c>
-      <c r="E154" s="37" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="155" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C155" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="D155" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="D155" s="10" t="s">
+      <c r="E155" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="E155" s="10" t="s">
+    </row>
+    <row r="156" s="14" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="7"/>
+      <c r="C156" s="14" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="156" s="13" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="7"/>
-      <c r="C156" s="13" t="s">
+      <c r="D156" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="D156" s="13" t="s">
+      <c r="E156" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="E156" s="13" t="s">
+    </row>
+    <row r="157" s="18" customFormat="true" ht="35.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="15" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="157" s="17" customFormat="true" ht="35.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="14" t="s">
+      <c r="C157" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="C157" s="17" t="s">
+      <c r="D157" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="D157" s="17" t="s">
+      <c r="E157" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="E157" s="17" t="s">
+    </row>
+    <row r="158" s="24" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="15"/>
+      <c r="C158" s="24" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="158" s="21" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="14"/>
-      <c r="C158" s="21" t="s">
+      <c r="D158" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="D158" s="21" t="s">
+      <c r="E158" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="E158" s="21" t="s">
+    </row>
+    <row r="159" s="35" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="34" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="159" s="33" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="32" t="s">
+      <c r="C159" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="C159" s="33" t="s">
+      <c r="D159" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="D159" s="33" t="s">
+    </row>
+    <row r="160" s="39" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="34"/>
+      <c r="D160" s="39" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="160" s="37" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="32"/>
-      <c r="D160" s="37" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="161" s="10" customFormat="true" ht="35.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C161" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="D161" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="D161" s="10" t="s">
+      <c r="E161" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="E161" s="10" t="s">
+    </row>
+    <row r="162" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="7"/>
+      <c r="C162" s="14" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="162" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="7"/>
-      <c r="C162" s="13" t="s">
+      <c r="D162" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="D162" s="13" t="s">
+      <c r="E162" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="E162" s="13" t="s">
+    </row>
+    <row r="163" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="15" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="163" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="45" t="s">
+      <c r="C163" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="C163" s="46" t="s">
+      <c r="D163" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="D163" s="46" t="s">
+      <c r="E163" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="E163" s="46" t="s">
+    </row>
+    <row r="164" s="21" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="15"/>
+      <c r="C164" s="21" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="164" s="47" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="45"/>
-      <c r="C164" s="47" t="s">
+      <c r="D164" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="D164" s="47" t="s">
+    </row>
+    <row r="165" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="15"/>
+      <c r="C165" s="47"/>
+      <c r="D165" s="24" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="165" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="45"/>
-      <c r="C165" s="49"/>
-      <c r="D165" s="48" t="s">
+    <row r="166" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A166" s="34" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="166" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="32" t="s">
+      <c r="C166" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="C166" s="33" t="s">
+      <c r="D166" s="35" t="s">
         <v>431</v>
       </c>
-      <c r="D166" s="33" t="s">
+      <c r="E166" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="E166" s="33" t="s">
+    </row>
+    <row r="167" s="39" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="34"/>
+      <c r="C167" s="39" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="167" s="37" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="32"/>
-      <c r="C167" s="37" t="s">
+      <c r="D167" s="39" t="s">
         <v>434</v>
-      </c>
-      <c r="D167" s="37" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="168" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C168" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="C168" s="10" t="s">
+      <c r="D168" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="D168" s="10" t="s">
+      <c r="E168" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="E168" s="10" t="s">
+    </row>
+    <row r="169" s="14" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="7"/>
+      <c r="C169" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D169" s="14" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="169" s="13" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="7"/>
-      <c r="C169" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D169" s="13" t="s">
+      <c r="E169" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="E169" s="13" t="s">
+    </row>
+    <row r="170" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="15" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="170" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="45" t="s">
+      <c r="C170" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="C170" s="46" t="s">
+      <c r="D170" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="D170" s="46" t="s">
+    </row>
+    <row r="171" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="15"/>
+      <c r="C171" s="21" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="171" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="45"/>
-      <c r="C171" s="47" t="s">
+      <c r="D171" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="D171" s="47" t="s">
+    </row>
+    <row r="172" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="15"/>
+      <c r="C172" s="24" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="172" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="45"/>
-      <c r="C172" s="48" t="s">
+      <c r="D172" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="D172" s="48" t="s">
+    </row>
+    <row r="173" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="34" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="173" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="32" t="s">
+      <c r="C173" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="C173" s="33" t="s">
+      <c r="D173" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="D173" s="33" t="s">
+    </row>
+    <row r="174" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="34"/>
+      <c r="C174" s="39" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="174" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="32"/>
-      <c r="C174" s="37" t="s">
+      <c r="D174" s="39" t="s">
         <v>452</v>
       </c>
-      <c r="D174" s="37" t="s">
+    </row>
+    <row r="175" s="42" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="41" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="175" s="40" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="39" t="s">
+      <c r="C175" s="42" t="s">
         <v>454</v>
       </c>
-      <c r="C175" s="40" t="s">
+      <c r="D175" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="D175" s="40" t="s">
+    </row>
+    <row r="176" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="41"/>
+      <c r="C176" s="44" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="176" s="42" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="39"/>
-      <c r="C176" s="42" t="s">
+      <c r="D176" s="44" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="177" s="18" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="D176" s="42" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="177" s="46" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="45" t="s">
+      <c r="C177" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="C177" s="46" t="s">
+      <c r="D177" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="D177" s="46" t="s">
+      <c r="E177" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="E177" s="46" t="s">
+    </row>
+    <row r="178" s="21" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="15"/>
+      <c r="C178" s="21" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="178" s="47" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="45"/>
-      <c r="C178" s="47" t="s">
+      <c r="D178" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="D178" s="47" t="s">
+      <c r="E178" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="E178" s="47" t="s">
+    </row>
+    <row r="179" s="24" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="15"/>
+      <c r="C179" s="24" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="179" s="48" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="45"/>
-      <c r="C179" s="48" t="s">
+      <c r="D179" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="D179" s="48" t="s">
+      <c r="E179" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="E179" s="48" t="s">
+    </row>
+    <row r="180" s="35" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="34" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="180" s="33" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="32" t="s">
+      <c r="C180" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="C180" s="33" t="s">
+      <c r="D180" s="35" t="s">
         <v>469</v>
       </c>
-      <c r="D180" s="33" t="s">
+    </row>
+    <row r="181" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="34"/>
+      <c r="C181" s="37" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="181" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="32"/>
-      <c r="C181" s="35" t="s">
+      <c r="D181" s="37" t="s">
         <v>471</v>
       </c>
-      <c r="D181" s="35" t="s">
+    </row>
+    <row r="182" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="34"/>
+      <c r="C182" s="39" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="182" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="32"/>
-      <c r="C182" s="37" t="s">
-        <v>473</v>
-      </c>
-      <c r="D182" s="37" t="s">
-        <v>161</v>
+      <c r="D182" s="39" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="183" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C183" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="C183" s="10" t="s">
+      <c r="D183" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="D183" s="10" t="s">
+    </row>
+    <row r="184" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="7"/>
+      <c r="C184" s="13" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="184" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="7"/>
-      <c r="C184" s="12" t="s">
+      <c r="D184" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="D184" s="12" t="s">
+    </row>
+    <row r="185" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="7"/>
+      <c r="C185" s="14" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="185" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="7"/>
-      <c r="C185" s="13" t="s">
+    <row r="186" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="15" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="186" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="45" t="s">
+      <c r="C186" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="C186" s="46" t="s">
+      <c r="D186" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="D186" s="46" t="s">
+    </row>
+    <row r="187" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="15"/>
+      <c r="C187" s="21" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="187" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="45"/>
-      <c r="C187" s="47" t="s">
+      <c r="D187" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="D187" s="47" t="s">
+    </row>
+    <row r="188" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="15"/>
+      <c r="C188" s="24" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="188" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="45"/>
-      <c r="C188" s="48" t="s">
+    <row r="189" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="34" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="189" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="32" t="s">
+      <c r="C189" s="35" t="s">
         <v>486</v>
       </c>
-      <c r="C189" s="33" t="s">
+      <c r="D189" s="35" t="s">
         <v>487</v>
       </c>
-      <c r="D189" s="33" t="s">
+    </row>
+    <row r="190" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="34"/>
+      <c r="C190" s="37" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="190" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="32"/>
-      <c r="C190" s="35" t="s">
+      <c r="D190" s="37" t="s">
         <v>489</v>
       </c>
-      <c r="D190" s="35" t="s">
+    </row>
+    <row r="191" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="34"/>
+      <c r="C191" s="39" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="191" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="32"/>
-      <c r="C191" s="37" t="s">
+      <c r="D191" s="39" t="s">
         <v>491</v>
-      </c>
-      <c r="D191" s="37" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="192" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C192" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="C192" s="10" t="s">
+      <c r="D192" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="D192" s="10" t="s">
+    </row>
+    <row r="193" s="14" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="7"/>
+      <c r="C193" s="14" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="193" s="13" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="7"/>
-      <c r="C193" s="13" t="s">
+    <row r="194" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="15" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="194" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="45" t="s">
+      <c r="C194" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="C194" s="46" t="s">
+      <c r="D194" s="18" t="s">
         <v>498</v>
       </c>
-      <c r="D194" s="46" t="s">
+    </row>
+    <row r="195" s="21" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="15"/>
+      <c r="C195" s="21" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="195" s="47" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="45"/>
-      <c r="C195" s="47" t="s">
+    <row r="196" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="15"/>
+      <c r="C196" s="24" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="196" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="45"/>
-      <c r="C196" s="48" t="s">
+    <row r="197" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="34" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="197" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="32" t="s">
+      <c r="C197" s="35" t="s">
         <v>502</v>
       </c>
-      <c r="C197" s="33" t="s">
+      <c r="D197" s="35" t="s">
         <v>503</v>
       </c>
-      <c r="D197" s="33" t="s">
+    </row>
+    <row r="198" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="34"/>
+      <c r="C198" s="37" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="198" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="32"/>
-      <c r="C198" s="35" t="s">
+      <c r="D198" s="37" t="s">
         <v>505</v>
       </c>
-      <c r="D198" s="35" t="s">
+    </row>
+    <row r="199" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="34"/>
+      <c r="C199" s="39" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="199" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="32"/>
-      <c r="C199" s="37" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="200" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C200" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="C200" s="10" t="s">
+      <c r="D200" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="D200" s="10" t="s">
+    </row>
+    <row r="201" s="14" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="7"/>
+      <c r="C201" s="14" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="201" s="13" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="7"/>
-      <c r="C201" s="13" t="s">
+    <row r="202" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A202" s="15" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="202" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="45" t="s">
+      <c r="C202" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="C202" s="46" t="s">
+      <c r="D202" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="D202" s="46" t="s">
+    </row>
+    <row r="203" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="15"/>
+      <c r="C203" s="21" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="203" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="45"/>
-      <c r="C203" s="47" t="s">
+      <c r="D203" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="D203" s="47" t="s">
+    </row>
+    <row r="204" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="15"/>
+      <c r="D204" s="24" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="204" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="45"/>
-      <c r="D204" s="48" t="s">
+    <row r="205" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A205" s="34" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="205" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="32" t="s">
+      <c r="C205" s="35" t="s">
         <v>518</v>
       </c>
-      <c r="C205" s="33" t="s">
+      <c r="D205" s="35" t="s">
         <v>519</v>
       </c>
-      <c r="D205" s="33" t="s">
+    </row>
+    <row r="206" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="34"/>
+      <c r="C206" s="37" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="206" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="32"/>
-      <c r="C206" s="35" t="s">
+      <c r="D206" s="37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="207" s="39" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="34"/>
+      <c r="C207" s="39" t="s">
         <v>521</v>
-      </c>
-      <c r="D206" s="35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="207" s="37" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="32"/>
-      <c r="C207" s="37" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="208" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C208" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="C208" s="10" t="s">
+      <c r="D208" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="D208" s="10" t="s">
+    </row>
+    <row r="209" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="7"/>
+      <c r="C209" s="13" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="209" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="7"/>
-      <c r="C209" s="12" t="s">
+      <c r="D209" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="D209" s="12" t="s">
+    </row>
+    <row r="210" s="13" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="7"/>
+      <c r="C210" s="13" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="210" s="12" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="7"/>
-      <c r="C210" s="12" t="s">
+      <c r="D210" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="D210" s="12" t="s">
+    </row>
+    <row r="211" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="7"/>
+      <c r="C211" s="14" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="211" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="7"/>
-      <c r="C211" s="13" t="s">
+    <row r="212" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A212" s="15" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="212" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="45" t="s">
+      <c r="C212" s="18" t="s">
         <v>531</v>
       </c>
-      <c r="C212" s="46" t="s">
+      <c r="D212" s="18" t="s">
         <v>532</v>
       </c>
-      <c r="D212" s="46" t="s">
+    </row>
+    <row r="213" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="15"/>
+      <c r="C213" s="21" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="213" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="45"/>
-      <c r="C213" s="47" t="s">
+      <c r="D213" s="21" t="s">
         <v>534</v>
       </c>
-      <c r="D213" s="47" t="s">
+    </row>
+    <row r="214" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="15"/>
+      <c r="C214" s="24" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="214" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="45"/>
-      <c r="C214" s="48" t="s">
+    <row r="215" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A215" s="34" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="215" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="32" t="s">
+      <c r="C215" s="35" t="s">
         <v>537</v>
       </c>
-      <c r="C215" s="33" t="s">
+      <c r="D215" s="35" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="216" s="39" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="34"/>
+      <c r="C216" s="39" t="s">
         <v>538</v>
-      </c>
-      <c r="D215" s="33" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="216" s="37" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="32"/>
-      <c r="C216" s="37" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="217" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="D217" s="10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="218" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="7"/>
+      <c r="C218" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="C217" s="10" t="s">
+    </row>
+    <row r="219" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A219" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="D217" s="10" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="218" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="7"/>
-      <c r="C218" s="13" t="s">
+      <c r="C219" s="18" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="219" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="45" t="s">
+      <c r="D219" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="C219" s="46" t="s">
+    </row>
+    <row r="220" s="21" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="15"/>
+      <c r="C220" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="D219" s="46" t="s">
+      <c r="D220" s="21" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="220" s="47" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="45"/>
-      <c r="C220" s="47" t="s">
+    <row r="221" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="15"/>
+      <c r="D221" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="D220" s="47" t="s">
+    </row>
+    <row r="222" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A222" s="34" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="221" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="45"/>
-      <c r="D221" s="48" t="s">
+      <c r="C222" s="35" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="222" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="32" t="s">
+      <c r="D222" s="35" t="s">
         <v>550</v>
       </c>
-      <c r="C222" s="33" t="s">
+    </row>
+    <row r="223" s="39" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="34"/>
+      <c r="C223" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="D222" s="33" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="223" s="37" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="32"/>
-      <c r="C223" s="37" t="s">
-        <v>553</v>
-      </c>
-      <c r="D223" s="37" t="s">
-        <v>539</v>
+      <c r="D223" s="39" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="224" s="10" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="225" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="7"/>
+      <c r="C225" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="C224" s="10" t="s">
+    </row>
+    <row r="226" s="18" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A226" s="15" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="225" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="7"/>
-      <c r="C225" s="13" t="s">
+      <c r="C226" s="18" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="226" s="46" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="45" t="s">
+      <c r="D226" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="C226" s="46" t="s">
+    </row>
+    <row r="227" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="15"/>
+      <c r="C227" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="D226" s="46" t="s">
+    </row>
+    <row r="228" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A228" s="34" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="227" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="45"/>
-      <c r="C227" s="48" t="s">
+      <c r="C228" s="35" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="228" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="32" t="s">
+      <c r="D228" s="35" t="s">
         <v>561</v>
       </c>
-      <c r="C228" s="33" t="s">
+    </row>
+    <row r="229" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="34"/>
+      <c r="C229" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="D228" s="33" t="s">
+      <c r="D229" s="37" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="229" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="32"/>
-      <c r="C229" s="35" t="s">
+    <row r="230" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="34"/>
+      <c r="C230" s="39" t="s">
         <v>564</v>
       </c>
-      <c r="D229" s="35" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="230" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="32"/>
-      <c r="C230" s="37" t="s">
-        <v>566</v>
-      </c>
-      <c r="D230" s="37" t="s">
+      <c r="D230" s="39" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="231" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D231" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="232" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="7"/>
-      <c r="C232" s="12" t="s">
+      <c r="C232" s="13" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="233" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="7"/>
+      <c r="C233" s="14" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="234" s="18" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A234" s="15" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="233" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="7"/>
-      <c r="C233" s="13" t="s">
+      <c r="C234" s="18" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="234" s="46" customFormat="true" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="45" t="s">
+      <c r="D234" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="C234" s="46" t="s">
+    </row>
+    <row r="235" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="15"/>
+      <c r="C235" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="D234" s="46" t="s">
+    </row>
+    <row r="236" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A236" s="34" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="235" s="48" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="45"/>
-      <c r="C235" s="48" t="s">
+      <c r="C236" s="35" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="236" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="32" t="s">
+      <c r="D236" s="35" t="s">
         <v>575</v>
       </c>
-      <c r="C236" s="33" t="s">
+    </row>
+    <row r="237" s="37" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="34"/>
+      <c r="C237" s="37" t="s">
         <v>576</v>
       </c>
-      <c r="D236" s="33" t="s">
+      <c r="D237" s="37" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="237" s="35" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="32"/>
-      <c r="C237" s="35" t="s">
+    <row r="238" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="34"/>
+      <c r="C238" s="39" t="s">
         <v>578</v>
       </c>
-      <c r="D237" s="35" t="s">
+      <c r="D238" s="39" t="s">
         <v>579</v>
-      </c>
-    </row>
-    <row r="238" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="32"/>
-      <c r="C238" s="37" t="s">
-        <v>580</v>
-      </c>
-      <c r="D238" s="37" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="239" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="D239" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="C239" s="10" t="s">
+    </row>
+    <row r="240" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="7"/>
+      <c r="C240" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="D239" s="10" t="s">
+      <c r="D240" s="13" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="240" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="7"/>
-      <c r="C240" s="12" t="s">
+    <row r="241" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="7"/>
+      <c r="D241" s="14" t="s">
         <v>585</v>
       </c>
-      <c r="D240" s="12" t="s">
+    </row>
+    <row r="242" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A242" s="15" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="241" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="7"/>
-      <c r="D241" s="13" t="s">
+      <c r="C242" s="18" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="242" s="46" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="45" t="s">
+      <c r="D242" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="C242" s="46" t="s">
+      <c r="E242" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="D242" s="46" t="s">
+    </row>
+    <row r="243" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="15"/>
+      <c r="C243" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="E242" s="46" t="s">
+      <c r="D243" s="21" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="243" s="47" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="45"/>
-      <c r="C243" s="47" t="s">
+    <row r="244" s="24" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="15"/>
+      <c r="C244" s="24" t="s">
         <v>592</v>
       </c>
-      <c r="D243" s="47" t="s">
+      <c r="D244" s="24" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="244" s="48" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="45"/>
-      <c r="C244" s="48" t="s">
+    <row r="245" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A245" s="34" t="s">
         <v>594</v>
       </c>
-      <c r="D244" s="48" t="s">
+      <c r="C245" s="35" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="245" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="32" t="s">
+      <c r="D245" s="35" t="s">
         <v>596</v>
       </c>
-      <c r="C245" s="33" t="s">
+    </row>
+    <row r="246" s="37" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="34"/>
+      <c r="C246" s="37" t="s">
         <v>597</v>
       </c>
-      <c r="D245" s="33" t="s">
+    </row>
+    <row r="247" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="34"/>
+      <c r="C247" s="39" t="s">
         <v>598</v>
-      </c>
-    </row>
-    <row r="246" s="35" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="32"/>
-      <c r="C246" s="35" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="247" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="32"/>
-      <c r="C247" s="37" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="248" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="D248" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="C248" s="10" t="s">
+      <c r="E248" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="D248" s="10" t="s">
+    </row>
+    <row r="249" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="7"/>
+      <c r="C249" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="E248" s="10" t="s">
+      <c r="D249" s="13" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="249" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="7"/>
-      <c r="C249" s="12" t="s">
+      <c r="E249" s="13" t="s">
         <v>605</v>
       </c>
-      <c r="D249" s="12" t="s">
+    </row>
+    <row r="250" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="7"/>
+      <c r="E250" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="E249" s="12" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="250" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="7"/>
-      <c r="E250" s="13" t="s">
-        <v>608</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="103">
+  <mergeCells count="98">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
     <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
     <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A32"/>
